--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64F2BD8-0404-4C0E-8784-C1EC74C602FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A41182-7633-41F3-BD3B-5256A106AC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1380" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -652,25 +652,24 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -761,79 +760,79 @@
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Z2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1101,7 +1100,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AC2:XFD2 A3:XFD1048576 A2:AA2 A1:XFD1">
+  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A3:XFD6 A8:XFD1048576 M7:XFD7 A7:G7 A2:AA2">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A41182-7633-41F3-BD3B-5256A106AC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEAE834-A23E-4C6A-B699-AFEF308C0AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -157,6 +146,12 @@
   </si>
   <si>
     <t>INDMO</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -208,11 +203,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,7 +653,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,10 +674,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2">
         <v>44949</v>
       </c>
@@ -843,6 +844,37 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -851,6 +883,37 @@
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -859,6 +922,37 @@
       <c r="B5">
         <v>3</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -867,6 +961,37 @@
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -875,6 +1000,37 @@
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -883,6 +1039,37 @@
       <c r="B8">
         <v>6</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -891,6 +1078,37 @@
       <c r="B9">
         <v>7</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -899,11 +1117,37 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -912,11 +1156,37 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -925,6 +1195,37 @@
       <c r="B12">
         <v>10</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -933,6 +1234,37 @@
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -941,6 +1273,37 @@
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -949,6 +1312,37 @@
       <c r="B15">
         <v>13</v>
       </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -957,141 +1351,622 @@
       <c r="B16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+    </row>
+    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
+      <c r="C31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G31">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEAE834-A23E-4C6A-B699-AFEF308C0AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46983294-9499-4D1C-A965-A0184CE708DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="15000" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -653,7 +653,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,8 +853,12 @@
       <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -892,8 +896,12 @@
       <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -931,8 +939,12 @@
       <c r="E5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -970,8 +982,12 @@
       <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1009,8 +1025,12 @@
       <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1048,8 +1068,12 @@
       <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1087,8 +1111,12 @@
       <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1126,8 +1154,12 @@
       <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1165,8 +1197,12 @@
       <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1204,8 +1240,12 @@
       <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1243,8 +1283,12 @@
       <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1282,8 +1326,12 @@
       <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1321,8 +1369,12 @@
       <c r="E15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1360,8 +1412,12 @@
       <c r="E16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1399,8 +1455,12 @@
       <c r="E17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1438,8 +1498,12 @@
       <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -1477,8 +1541,12 @@
       <c r="E19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1516,8 +1584,12 @@
       <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1555,8 +1627,12 @@
       <c r="E21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1594,8 +1670,12 @@
       <c r="E22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1633,8 +1713,12 @@
       <c r="E23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1672,8 +1756,12 @@
       <c r="E24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1711,8 +1799,12 @@
       <c r="E25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1750,8 +1842,12 @@
       <c r="E26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1789,8 +1885,12 @@
       <c r="E27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1828,8 +1928,12 @@
       <c r="E28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -1867,8 +1971,12 @@
       <c r="E29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1906,8 +2014,12 @@
       <c r="E30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1945,8 +2057,12 @@
       <c r="E31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46983294-9499-4D1C-A965-A0184CE708DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4C1B8-D1DE-42EE-937A-FA055C90DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="15000" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -653,7 +664,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +870,9 @@
       <c r="G3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -902,7 +915,9 @@
       <c r="G4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -945,7 +960,9 @@
       <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -988,7 +1005,9 @@
       <c r="G6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1031,7 +1050,9 @@
       <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1074,7 +1095,9 @@
       <c r="G8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1117,7 +1140,9 @@
       <c r="G9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1160,7 +1185,9 @@
       <c r="G10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1203,7 +1230,9 @@
       <c r="G11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1246,7 +1275,9 @@
       <c r="G12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1289,7 +1320,9 @@
       <c r="G13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1332,7 +1365,9 @@
       <c r="G14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1375,7 +1410,9 @@
       <c r="G15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1418,7 +1455,9 @@
       <c r="G16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1461,7 +1500,9 @@
       <c r="G17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1504,7 +1545,9 @@
       <c r="G18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1547,7 +1590,9 @@
       <c r="G19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1590,7 +1635,9 @@
       <c r="G20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1633,7 +1680,9 @@
       <c r="G21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1676,7 +1725,9 @@
       <c r="G22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1719,7 +1770,9 @@
       <c r="G23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1762,7 +1815,9 @@
       <c r="G24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1805,7 +1860,9 @@
       <c r="G25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1848,7 +1905,9 @@
       <c r="G26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -1891,7 +1950,9 @@
       <c r="G27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1934,7 +1995,9 @@
       <c r="G28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1977,7 +2040,9 @@
       <c r="G29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2020,7 +2085,9 @@
       <c r="G30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2063,7 +2130,9 @@
       <c r="G31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -2091,7 +2160,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A3:XFD6 A8:XFD1048576 M7:XFD7 A7:G7 A2:AA2">
+  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A3:XFD6 M7:XFD7 A7:G7 A2:AA2 A8:XFD1048576">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4C1B8-D1DE-42EE-937A-FA055C90DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79A551B-123E-4EF4-9256-4F03DE68608E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -664,27 +653,27 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -765,7 +754,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -848,7 +837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -873,8 +862,12 @@
       <c r="H3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -893,7 +886,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -918,8 +911,12 @@
       <c r="H4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -938,7 +935,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -963,8 +960,12 @@
       <c r="H5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -983,7 +984,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1008,8 +1009,12 @@
       <c r="H6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1028,7 +1033,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1053,8 +1058,12 @@
       <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1073,7 +1082,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1098,8 +1107,12 @@
       <c r="H8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1118,7 +1131,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1143,8 +1156,12 @@
       <c r="H9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1163,7 +1180,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1188,8 +1205,12 @@
       <c r="H10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1208,7 +1229,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1233,8 +1254,12 @@
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="I11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1253,7 +1278,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1278,8 +1303,12 @@
       <c r="H12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1298,7 +1327,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1323,8 +1352,12 @@
       <c r="H13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1343,7 +1376,7 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +1401,12 @@
       <c r="H14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1388,7 +1425,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1413,8 +1450,12 @@
       <c r="H15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1433,7 +1474,7 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1458,8 +1499,12 @@
       <c r="H16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1478,7 +1523,7 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1503,8 +1548,12 @@
       <c r="H17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1523,7 +1572,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1548,8 +1597,12 @@
       <c r="H18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1568,7 +1621,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1593,8 +1646,12 @@
       <c r="H19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="I19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -1613,7 +1670,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1638,8 +1695,12 @@
       <c r="H20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1658,7 +1719,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1683,8 +1744,12 @@
       <c r="H21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1703,7 +1768,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1728,8 +1793,12 @@
       <c r="H22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1748,7 +1817,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1773,8 +1842,12 @@
       <c r="H23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1793,7 +1866,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1818,8 +1891,12 @@
       <c r="H24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -1838,7 +1915,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1863,8 +1940,12 @@
       <c r="H25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -1883,7 +1964,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1908,8 +1989,12 @@
       <c r="H26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -1928,7 +2013,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1953,8 +2038,12 @@
       <c r="H27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -1973,7 +2062,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1998,8 +2087,12 @@
       <c r="H28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="I28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -2018,7 +2111,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2043,8 +2136,12 @@
       <c r="H29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -2063,7 +2160,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2088,8 +2185,12 @@
       <c r="H30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -2108,7 +2209,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2133,8 +2234,12 @@
       <c r="H31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -2160,7 +2265,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A3:XFD6 M7:XFD7 A7:G7 A2:AA2 A8:XFD1048576">
+  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A3:XFD6 M7:XFD7 A7:G7 A2:AA2 A8:H22 I7:I22 J8:XFD22 A23:XFD1048576">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -2181,16 +2286,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2207,7 +2312,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2322,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2227,7 +2332,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2237,7 +2342,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2247,7 +2352,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2257,7 +2362,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2267,7 +2372,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2277,7 +2382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2287,7 +2392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2297,7 +2402,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2307,7 +2412,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2317,7 +2422,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2327,7 +2432,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2337,7 +2442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2347,7 +2452,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2357,7 +2462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2367,7 +2472,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2377,7 +2482,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2387,7 +2492,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2397,7 +2502,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2407,7 +2512,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2417,7 +2522,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2427,7 +2532,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2437,7 +2542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2447,7 +2552,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2457,7 +2562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2467,7 +2572,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2477,7 +2582,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2487,7 +2592,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2524,15 +2629,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2546,7 +2651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2556,7 +2661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2566,7 +2671,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2586,7 +2691,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2596,7 +2701,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2606,7 +2711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2616,7 +2721,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2731,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2636,7 +2741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2646,7 +2751,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2656,7 +2761,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2666,7 +2771,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2676,7 +2781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2686,7 +2791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2696,7 +2801,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2706,7 +2811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2716,7 +2821,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2726,7 +2831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2736,7 +2841,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2746,7 +2851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2756,7 +2861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2766,7 +2871,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2776,7 +2881,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2786,7 +2891,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2796,7 +2901,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2806,7 +2911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2816,7 +2921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2826,7 +2931,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2863,15 +2968,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2885,7 +2990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2895,7 +3000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2905,7 +3010,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2915,7 +3020,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2925,7 +3030,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +3040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2945,7 +3050,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2955,7 +3060,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2965,7 +3070,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2975,7 +3080,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2985,7 +3090,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2995,7 +3100,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3005,7 +3110,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3015,7 +3120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3025,7 +3130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3035,7 +3140,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3045,7 +3150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +3160,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3065,7 +3170,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3075,7 +3180,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3085,7 +3190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3095,7 +3200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3105,7 +3210,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3115,7 +3220,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3125,7 +3230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3135,7 +3240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3145,7 +3250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3155,7 +3260,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3165,7 +3270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3202,15 +3307,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3224,7 +3329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3234,7 +3339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3244,7 +3349,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3254,7 +3359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3264,7 +3369,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3274,7 +3379,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3284,7 +3389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3294,7 +3399,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3409,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3314,7 +3419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3324,7 +3429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3334,7 +3439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3344,7 +3449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3354,7 +3459,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3364,7 +3469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3374,7 +3479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3384,7 +3489,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3394,7 +3499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3404,7 +3509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3414,7 +3519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3424,7 +3529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3434,7 +3539,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3444,7 +3549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3454,7 +3559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3464,7 +3569,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3474,7 +3579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3484,7 +3589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3494,7 +3599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3504,7 +3609,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79A551B-123E-4EF4-9256-4F03DE68608E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0EC77C-F134-4AC3-B39B-1D2CE07B86F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11904" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,7 +653,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1160,7 @@
         <v>39</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1307,7 +1307,7 @@
         <v>39</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1552,7 +1552,7 @@
         <v>39</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1650,7 +1650,7 @@
         <v>39</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1748,7 +1748,7 @@
         <v>39</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1944,7 +1944,7 @@
         <v>39</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1993,7 +1993,7 @@
         <v>39</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -2189,7 +2189,7 @@
         <v>39</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0EC77C-F134-4AC3-B39B-1D2CE07B86F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2475A6A-C073-4EB9-9EE9-3F6651C814CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11904" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -653,7 +653,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,8 +868,12 @@
       <c r="J3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -917,8 +921,12 @@
       <c r="J4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -966,8 +974,12 @@
       <c r="J5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1015,8 +1027,12 @@
       <c r="J6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1064,8 +1080,12 @@
       <c r="J7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1113,8 +1133,12 @@
       <c r="J8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1162,8 +1186,12 @@
       <c r="J9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1211,22 +1239,26 @@
       <c r="J10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="K10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
       <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1260,22 +1292,26 @@
       <c r="J11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="K11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
@@ -1309,8 +1345,12 @@
       <c r="J12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1358,8 +1398,12 @@
       <c r="J13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1407,8 +1451,12 @@
       <c r="J14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1456,8 +1504,12 @@
       <c r="J15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1505,8 +1557,12 @@
       <c r="J16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1554,8 +1610,12 @@
       <c r="J17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1603,22 +1663,26 @@
       <c r="J18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="K18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
       <c r="AA18" s="5"/>
     </row>
     <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1652,22 +1716,26 @@
       <c r="J19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="K19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
@@ -1701,8 +1769,12 @@
       <c r="J20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1750,8 +1822,12 @@
       <c r="J21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1799,8 +1875,12 @@
       <c r="J22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1848,8 +1928,12 @@
       <c r="J23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1897,8 +1981,12 @@
       <c r="J24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1946,8 +2034,12 @@
       <c r="J25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -1995,8 +2087,12 @@
       <c r="J26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -2044,8 +2140,12 @@
       <c r="J27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -2093,22 +2193,26 @@
       <c r="J28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
+      <c r="K28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
@@ -2142,8 +2246,12 @@
       <c r="J29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -2191,8 +2299,12 @@
       <c r="J30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="K30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2240,8 +2352,12 @@
       <c r="J31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="K31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2265,7 +2381,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A3:XFD6 M7:XFD7 A7:G7 A2:AA2 A8:H22 I7:I22 J8:XFD22 A23:XFD1048576">
+  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A3:L6 A7:G7 A2:AA2 A8:H22 I7:I22 A32:XFD1048576 J8:L10 J11:J22 A23:J31 K11:XFD31 M3:XFD10">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2475A6A-C073-4EB9-9EE9-3F6651C814CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDFFE23-5289-432F-A0B5-9CE615F9B143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -649,11 +649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,7 +874,9 @@
       <c r="L3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -927,7 +929,9 @@
       <c r="L4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -980,7 +984,9 @@
       <c r="L5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1033,7 +1039,9 @@
       <c r="L6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1086,7 +1094,9 @@
       <c r="L7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1139,7 +1149,9 @@
       <c r="L8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1192,7 +1204,9 @@
       <c r="L9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1245,7 +1259,9 @@
       <c r="L10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1298,7 +1314,9 @@
       <c r="L11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1351,7 +1369,9 @@
       <c r="L12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1404,7 +1424,9 @@
       <c r="L13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1457,7 +1479,9 @@
       <c r="L14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1510,7 +1534,9 @@
       <c r="L15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1563,7 +1589,9 @@
       <c r="L16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1616,7 +1644,9 @@
       <c r="L17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1669,7 +1699,9 @@
       <c r="L18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1722,7 +1754,9 @@
       <c r="L19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -1775,7 +1809,9 @@
       <c r="L20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -1828,7 +1864,9 @@
       <c r="L21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -1881,7 +1919,9 @@
       <c r="L22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -1934,7 +1974,9 @@
       <c r="L23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -1987,7 +2029,9 @@
       <c r="L24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="4"/>
+      <c r="M24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2040,7 +2084,9 @@
       <c r="L25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2093,7 +2139,9 @@
       <c r="L26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="4"/>
+      <c r="M26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2146,7 +2194,9 @@
       <c r="L27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M27" s="4"/>
+      <c r="M27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -2199,7 +2249,9 @@
       <c r="L28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M28" s="4"/>
+      <c r="M28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -2252,7 +2304,9 @@
       <c r="L29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M29" s="4"/>
+      <c r="M29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -2305,7 +2359,9 @@
       <c r="L30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -2358,7 +2414,9 @@
       <c r="L31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M31" s="4"/>
+      <c r="M31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDFFE23-5289-432F-A0B5-9CE615F9B143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391C5AEB-C822-4219-8495-B66F85E62CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -653,7 +653,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,7 +1150,7 @@
         <v>40</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391C5AEB-C822-4219-8495-B66F85E62CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEEC5DF-F5DA-445A-877C-7F7648AD4B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="12504" windowHeight="8832" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -653,7 +653,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,8 +877,9 @@
       <c r="M3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -932,8 +933,9 @@
       <c r="M4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -987,8 +989,9 @@
       <c r="M5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1042,8 +1045,9 @@
       <c r="M6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1098,7 +1102,9 @@
         <v>39</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1153,7 +1159,9 @@
         <v>40</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1208,7 +1216,9 @@
         <v>39</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1263,7 +1273,9 @@
         <v>39</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1318,7 +1330,9 @@
         <v>39</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="O11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1373,7 +1387,9 @@
         <v>39</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="O12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1428,7 +1444,9 @@
         <v>39</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1483,7 +1501,9 @@
         <v>39</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -1538,7 +1558,9 @@
         <v>39</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="O15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -1593,7 +1615,9 @@
         <v>39</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="O16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1648,7 +1672,9 @@
         <v>39</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="O17" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1703,7 +1729,9 @@
         <v>40</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1758,7 +1786,9 @@
         <v>39</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1813,7 +1843,9 @@
         <v>39</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -1868,7 +1900,9 @@
         <v>40</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="O21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -1923,7 +1957,9 @@
         <v>39</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -1978,7 +2014,9 @@
         <v>39</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -2033,7 +2071,9 @@
         <v>39</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -2088,7 +2128,9 @@
         <v>39</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="O25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -2143,7 +2185,9 @@
         <v>39</v>
       </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="O26" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -2198,7 +2242,9 @@
         <v>39</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+      <c r="O27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
@@ -2253,7 +2299,9 @@
         <v>39</v>
       </c>
       <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="O28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -2308,7 +2356,9 @@
         <v>39</v>
       </c>
       <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="O29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -2363,7 +2413,9 @@
         <v>39</v>
       </c>
       <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="O30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -2418,7 +2470,9 @@
         <v>39</v>
       </c>
       <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
+      <c r="O31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -2439,7 +2493,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A3:L6 A7:G7 A2:AA2 A8:H22 I7:I22 A32:XFD1048576 J8:L10 J11:J22 A23:J31 K11:XFD31 M3:XFD10">
+  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A7:G7 A2:AA2 A8:H22 I7:I22 A32:XFD1048576 J8:L10 J11:J22 A23:J31 K11:XFD31 M7:XFD10 A3:M6 O3:XFD6">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEEC5DF-F5DA-445A-877C-7F7648AD4B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2240D596-F95F-4335-9C8E-400B30BB7AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="12504" windowHeight="8832" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -212,6 +212,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -653,7 +656,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,10 +677,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2">
         <v>44949</v>
       </c>
@@ -717,10 +720,10 @@
       <c r="O1" s="2">
         <v>44965</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="6">
         <v>44966</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="6">
         <v>44967</v>
       </c>
       <c r="R1" s="2">
@@ -800,10 +803,10 @@
       <c r="O2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="R2" t="s">
@@ -877,12 +880,17 @@
       <c r="M3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="N3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -933,12 +941,17 @@
       <c r="M4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -989,12 +1002,17 @@
       <c r="M5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="O5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -1045,12 +1063,17 @@
       <c r="M6" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="O6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1101,13 +1124,17 @@
       <c r="M7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="R7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -1158,13 +1185,17 @@
       <c r="M8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1215,13 +1246,17 @@
       <c r="M9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -1272,13 +1307,17 @@
       <c r="M10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="R10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -1329,13 +1368,17 @@
       <c r="M11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
@@ -1386,13 +1429,17 @@
       <c r="M12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -1443,13 +1490,17 @@
       <c r="M13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -1500,13 +1551,17 @@
       <c r="M14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -1557,13 +1612,17 @@
       <c r="M15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
@@ -1614,13 +1673,17 @@
       <c r="M16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O16" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -1671,13 +1734,17 @@
       <c r="M17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -1728,13 +1795,17 @@
       <c r="M18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O18" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="R18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
@@ -1785,13 +1856,17 @@
       <c r="M19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="R19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
@@ -1842,13 +1917,17 @@
       <c r="M20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="R20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -1899,13 +1978,17 @@
       <c r="M21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="R21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -1956,13 +2039,17 @@
       <c r="M22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="N22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="R22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -2013,13 +2100,17 @@
       <c r="M23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="R23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -2070,13 +2161,17 @@
       <c r="M24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="R24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -2127,13 +2222,17 @@
       <c r="M25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="R25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
@@ -2184,13 +2283,17 @@
       <c r="M26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O26" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="R26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -2241,13 +2344,17 @@
       <c r="M27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="4"/>
+      <c r="N27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="R27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -2298,13 +2405,17 @@
       <c r="M28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="4"/>
+      <c r="N28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O28" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="R28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
@@ -2355,13 +2466,17 @@
       <c r="M29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N29" s="4"/>
+      <c r="N29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="R29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -2412,13 +2527,17 @@
       <c r="M30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N30" s="4"/>
+      <c r="N30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="R30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
@@ -2469,13 +2588,17 @@
       <c r="M31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="4"/>
+      <c r="N31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="O31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="R31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -2493,7 +2616,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A7:G7 A2:AA2 A8:H22 I7:I22 A32:XFD1048576 J8:L10 J11:J22 A23:J31 K11:XFD31 M7:XFD10 A3:M6 O3:XFD6">
+  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A7:G7 A2:AA2 A8:H22 I7:I22 A32:XFD1048576 J11:J22 A23:J31 K11:M31 M7:XFD7 A3:XFD6 J8:M10 N8:XFD31">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2240D596-F95F-4335-9C8E-400B30BB7AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F9A2EE-3F41-441F-9702-BCC80A20B1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -656,7 +656,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,13 +886,21 @@
       <c r="O3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="S3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
@@ -947,13 +955,21 @@
       <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -1008,13 +1024,21 @@
       <c r="O5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="R5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -1069,13 +1093,21 @@
       <c r="O6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="P6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="R6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -1130,13 +1162,21 @@
       <c r="O7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
@@ -1191,13 +1231,21 @@
       <c r="O8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="R8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -1252,13 +1300,21 @@
       <c r="O9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="P9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -1313,13 +1369,21 @@
       <c r="O10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -1374,13 +1438,21 @@
       <c r="O11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="P11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -1435,13 +1507,21 @@
       <c r="O12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="P12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="R12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -1496,13 +1576,21 @@
       <c r="O13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="P13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -1557,13 +1645,21 @@
       <c r="O14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="S14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
@@ -1618,13 +1714,21 @@
       <c r="O15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="S15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -1679,13 +1783,21 @@
       <c r="O16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="S16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
@@ -1740,13 +1852,21 @@
       <c r="O17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="S17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -1801,13 +1921,21 @@
       <c r="O18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="P18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="S18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -1862,13 +1990,21 @@
       <c r="O19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="S19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
@@ -1923,13 +2059,21 @@
       <c r="O20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="R20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="S20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
@@ -1984,13 +2128,21 @@
       <c r="O21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="P21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="S21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
@@ -2045,13 +2197,21 @@
       <c r="O22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
+      <c r="S22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
@@ -2106,13 +2266,21 @@
       <c r="O23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="P23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="S23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
@@ -2167,13 +2335,21 @@
       <c r="O24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
+      <c r="S24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
@@ -2228,13 +2404,21 @@
       <c r="O25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
+      <c r="S25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
@@ -2289,13 +2473,21 @@
       <c r="O26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="P26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
+      <c r="S26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
@@ -2350,13 +2542,21 @@
       <c r="O27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="P27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
+      <c r="S27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
@@ -2411,13 +2611,21 @@
       <c r="O28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
+      <c r="P28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="S28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
@@ -2472,13 +2680,21 @@
       <c r="O29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
+      <c r="P29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
+      <c r="S29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
@@ -2533,13 +2749,21 @@
       <c r="O30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="P30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
+      <c r="S30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
@@ -2594,13 +2818,21 @@
       <c r="O31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="P31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
+      <c r="S31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F9A2EE-3F41-441F-9702-BCC80A20B1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,9 @@
     <sheet name="PWFE" sheetId="7" r:id="rId3"/>
     <sheet name="BCD" sheetId="8" r:id="rId4"/>
     <sheet name="INDMO" sheetId="9" r:id="rId5"/>
+    <sheet name="sorteios" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="43">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -153,11 +153,17 @@
   <si>
     <t>F</t>
   </si>
+  <si>
+    <t>Aluno</t>
+  </si>
+  <si>
+    <t>Aleatorio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +230,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -649,34 +670,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -757,7 +778,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -840,7 +861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -901,7 +922,9 @@
       <c r="T3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="4"/>
+      <c r="U3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
@@ -909,7 +932,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -970,7 +993,9 @@
       <c r="T4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="4"/>
+      <c r="U4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -978,7 +1003,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1064,9 @@
       <c r="T5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="4"/>
+      <c r="U5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
@@ -1047,7 +1074,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1135,9 @@
       <c r="T6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="4"/>
+      <c r="U6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
@@ -1116,7 +1145,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1206,9 @@
       <c r="T7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="4"/>
+      <c r="U7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
@@ -1185,7 +1216,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1246,7 +1277,9 @@
       <c r="T8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="4"/>
+      <c r="U8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -1254,7 +1287,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1315,7 +1348,9 @@
       <c r="T9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="4"/>
+      <c r="U9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
@@ -1323,7 +1358,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1419,9 @@
       <c r="T10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="4"/>
+      <c r="U10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
@@ -1392,7 +1429,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1453,7 +1490,9 @@
       <c r="T11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="4"/>
+      <c r="U11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -1461,7 +1500,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1522,7 +1561,9 @@
       <c r="T12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U12" s="4"/>
+      <c r="U12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -1530,7 +1571,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1591,7 +1632,9 @@
       <c r="T13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U13" s="4"/>
+      <c r="U13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -1599,7 +1642,7 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +1703,9 @@
       <c r="T14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="4"/>
+      <c r="U14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -1668,7 +1713,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1729,7 +1774,9 @@
       <c r="T15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="4"/>
+      <c r="U15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
@@ -1737,7 +1784,7 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1798,7 +1845,9 @@
       <c r="T16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U16" s="4"/>
+      <c r="U16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
@@ -1806,7 +1855,7 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1867,7 +1916,9 @@
       <c r="T17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U17" s="4"/>
+      <c r="U17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
@@ -1875,7 +1926,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1936,7 +1987,9 @@
       <c r="T18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U18" s="4"/>
+      <c r="U18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
@@ -1944,7 +1997,7 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2005,7 +2058,9 @@
       <c r="T19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U19" s="4"/>
+      <c r="U19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
@@ -2013,7 +2068,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2074,7 +2129,9 @@
       <c r="T20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="4"/>
+      <c r="U20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
@@ -2082,7 +2139,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2143,7 +2200,9 @@
       <c r="T21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U21" s="4"/>
+      <c r="U21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
@@ -2151,7 +2210,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2212,7 +2271,9 @@
       <c r="T22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="4"/>
+      <c r="U22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
@@ -2220,7 +2281,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2281,7 +2342,9 @@
       <c r="T23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U23" s="4"/>
+      <c r="U23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -2289,7 +2352,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2350,7 +2413,9 @@
       <c r="T24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U24" s="4"/>
+      <c r="U24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
@@ -2358,7 +2423,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2419,7 +2484,9 @@
       <c r="T25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U25" s="4"/>
+      <c r="U25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
@@ -2427,7 +2494,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2488,7 +2555,9 @@
       <c r="T26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U26" s="4"/>
+      <c r="U26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
@@ -2496,7 +2565,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2557,7 +2626,9 @@
       <c r="T27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U27" s="4"/>
+      <c r="U27" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -2565,7 +2636,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2626,7 +2697,9 @@
       <c r="T28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U28" s="4"/>
+      <c r="U28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -2634,7 +2707,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2695,7 +2768,9 @@
       <c r="T29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U29" s="4"/>
+      <c r="U29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
@@ -2703,7 +2778,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2764,7 +2839,9 @@
       <c r="T30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U30" s="4"/>
+      <c r="U30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
@@ -2772,7 +2849,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2833,7 +2910,9 @@
       <c r="T31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U31" s="4"/>
+      <c r="U31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -2842,17 +2921,17 @@
       <c r="AA31" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G31">
+  <sortState ref="A3:G31">
     <sortCondition ref="A2:A31"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A7:G7 A2:AA2 A8:H22 I7:I22 A32:XFD1048576 J11:J22 A23:J31 K11:M31 M7:XFD7 A3:XFD6 J8:M10 N8:XFD31">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2862,23 +2941,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2895,7 +2974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2905,7 +2984,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2915,7 +2994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2925,7 +3004,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2935,7 +3014,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2945,7 +3024,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2955,7 +3034,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +3044,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2975,7 +3054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2985,7 +3064,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2995,7 +3074,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3005,7 +3084,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3015,7 +3094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3025,7 +3104,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3035,7 +3114,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3045,7 +3124,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3055,7 +3134,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3065,7 +3144,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3075,7 +3154,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3085,7 +3164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3095,7 +3174,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3105,7 +3184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3115,7 +3194,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3125,7 +3204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3135,7 +3214,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3145,7 +3224,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3155,7 +3234,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3165,7 +3244,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3175,7 +3254,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3187,15 +3266,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E30">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3205,22 +3284,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEDDDF4-A722-47DF-B093-0C99426EE497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3234,7 +3313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3244,7 +3323,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3254,7 +3333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3264,7 +3343,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3274,7 +3353,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3284,7 +3363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3294,7 +3373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3304,7 +3383,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3314,7 +3393,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3324,7 +3403,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3334,7 +3413,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3344,7 +3423,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3354,7 +3433,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3364,7 +3443,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3374,7 +3453,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3384,7 +3463,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3394,7 +3473,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3404,7 +3483,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3414,7 +3493,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3424,7 +3503,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3434,7 +3513,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3444,7 +3523,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3454,7 +3533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3464,7 +3543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3474,7 +3553,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3484,7 +3563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3494,7 +3573,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3504,7 +3583,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3514,7 +3593,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3526,15 +3605,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3544,22 +3623,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43D673C-CCA4-4B3D-8199-5B53A40C949E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3573,7 +3652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3583,7 +3662,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3593,7 +3672,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3603,7 +3682,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3613,7 +3692,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3623,7 +3702,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3633,7 +3712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3643,7 +3722,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3653,7 +3732,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3663,7 +3742,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3673,7 +3752,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3683,7 +3762,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3693,7 +3772,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3703,7 +3782,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3713,7 +3792,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3723,7 +3802,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3733,7 +3812,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3743,7 +3822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3753,7 +3832,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3763,7 +3842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3773,7 +3852,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3783,7 +3862,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3793,7 +3872,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3803,7 +3882,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3813,7 +3892,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3823,7 +3902,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3833,7 +3912,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3843,7 +3922,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3853,7 +3932,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3865,15 +3944,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3883,22 +3962,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9ADF33-96F1-4E0E-90FF-C172A10377B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3912,7 +3991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3922,7 +4001,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3932,7 +4011,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3942,7 +4021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3952,7 +4031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3962,7 +4041,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3972,7 +4051,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3982,7 +4061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3992,7 +4071,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4002,7 +4081,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4012,7 +4091,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4022,7 +4101,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4032,7 +4111,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4042,7 +4121,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4052,7 +4131,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4062,7 +4141,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4072,7 +4151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4082,7 +4161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4092,7 +4171,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4102,7 +4181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4112,7 +4191,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4122,7 +4201,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4132,7 +4211,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4142,7 +4221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4152,7 +4231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4162,7 +4241,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4172,7 +4251,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -4182,7 +4261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4192,7 +4271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -4204,11 +4283,293 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RAND()</f>
+        <v>0.58149482245508566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <f ca="1">RAND()</f>
+        <v>3.834671993101435E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <f ca="1">RAND()</f>
+        <v>0.5240150572107557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <f ca="1">RAND()</f>
+        <v>0.97031459492626349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f ca="1">RAND()</f>
+        <v>0.90105024527637223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f ca="1">RAND()</f>
+        <v>0.16666017205293349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <f ca="1">RAND()</f>
+        <v>0.98528174743436814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <f ca="1">RAND()</f>
+        <v>0.58472896927815199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <f ca="1">RAND()</f>
+        <v>0.7874691211695799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f ca="1">RAND()</f>
+        <v>0.45511182906639436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <f ca="1">RAND()</f>
+        <v>0.47346735592339073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f ca="1">RAND()</f>
+        <v>0.45914695331673461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <f ca="1">RAND()</f>
+        <v>0.58792605492336025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f ca="1">RAND()</f>
+        <v>9.4988023128790289E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <f ca="1">RAND()</f>
+        <v>0.12146211947017771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <f ca="1">RAND()</f>
+        <v>0.51173276298070891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f ca="1">RAND()</f>
+        <v>0.45965852038622901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f ca="1">RAND()</f>
+        <v>0.64600300861801341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <f ca="1">RAND()</f>
+        <v>0.26935267978150734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f ca="1">RAND()</f>
+        <v>0.74214774568441766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <f ca="1">RAND()</f>
+        <v>0.14906964573693338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f ca="1">RAND()</f>
+        <v>0.44620670095266179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <f ca="1">RAND()</f>
+        <v>0.11274479823079087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <f ca="1">RAND()</f>
+        <v>0.258880689050212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <f ca="1">RAND()</f>
+        <v>0.24051997555711169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <f ca="1">RAND()</f>
+        <v>0.13168658768584118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <f ca="1">RAND()</f>
+        <v>0.79889569934206894</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B28">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:A28">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -4217,6 +4578,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.martins\Desktop\github\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A08C0E-12F6-4D22-B3C1-DD5AB3F06370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,21 @@
     <sheet name="INDMO" sheetId="9" r:id="rId5"/>
     <sheet name="sorteios" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -163,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,14 +682,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,7 +2933,7 @@
       <c r="AA31" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A3:G31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G31">
     <sortCondition ref="A2:A31"/>
   </sortState>
   <mergeCells count="1">
@@ -2941,7 +2953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3284,7 +3296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3623,7 +3635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3962,7 +3974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4301,10 +4313,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4327,8 +4339,8 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <f ca="1">RAND()</f>
-        <v>0.58149482245508566</v>
+        <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
+        <v>0.78370758883648295</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4336,8 +4348,8 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <f ca="1">RAND()</f>
-        <v>3.834671993101435E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.573188998596688E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4345,8 +4357,8 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <f ca="1">RAND()</f>
-        <v>0.5240150572107557</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63967448351583533</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4354,8 +4366,8 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <f ca="1">RAND()</f>
-        <v>0.97031459492626349</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79265323881374383</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4363,8 +4375,8 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <f ca="1">RAND()</f>
-        <v>0.90105024527637223</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95762486427537552</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,8 +4384,8 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <f ca="1">RAND()</f>
-        <v>0.16666017205293349</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.190944322041676E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4381,8 +4393,8 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <f ca="1">RAND()</f>
-        <v>0.98528174743436814</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48815205160989372</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4390,8 +4402,8 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <f ca="1">RAND()</f>
-        <v>0.58472896927815199</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91232346798247488</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4399,8 +4411,8 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <f ca="1">RAND()</f>
-        <v>0.7874691211695799</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11058866191169869</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4408,8 +4420,8 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f ca="1">RAND()</f>
-        <v>0.45511182906639436</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90289633126104996</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4417,8 +4429,8 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <f ca="1">RAND()</f>
-        <v>0.47346735592339073</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62364826083591152</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4426,8 +4438,8 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <f ca="1">RAND()</f>
-        <v>0.45914695331673461</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17076977794946369</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4435,8 +4447,8 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <f ca="1">RAND()</f>
-        <v>0.58792605492336025</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53125616790282892</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,8 +4456,8 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <f ca="1">RAND()</f>
-        <v>9.4988023128790289E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29767146284168677</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4453,8 +4465,8 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <f ca="1">RAND()</f>
-        <v>0.12146211947017771</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1909539264955048</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4462,8 +4474,8 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <f ca="1">RAND()</f>
-        <v>0.51173276298070891</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59271108067679157</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4471,8 +4483,8 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f ca="1">RAND()</f>
-        <v>0.45965852038622901</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51144051565148407</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4480,8 +4492,8 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <f ca="1">RAND()</f>
-        <v>0.64600300861801341</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1398478442146861</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4489,8 +4501,8 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <f ca="1">RAND()</f>
-        <v>0.26935267978150734</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26274550489388737</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4498,8 +4510,8 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <f ca="1">RAND()</f>
-        <v>0.74214774568441766</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.518635624251505</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4507,8 +4519,8 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <f ca="1">RAND()</f>
-        <v>0.14906964573693338</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61143955216056112</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,8 +4528,8 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <f ca="1">RAND()</f>
-        <v>0.44620670095266179</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71225816077624149</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4525,8 +4537,8 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <f ca="1">RAND()</f>
-        <v>0.11274479823079087</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39284567235999301</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4534,8 +4546,8 @@
         <v>14</v>
       </c>
       <c r="B25">
-        <f ca="1">RAND()</f>
-        <v>0.258880689050212</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9564880070114955</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4543,8 +4555,8 @@
         <v>15</v>
       </c>
       <c r="B26">
-        <f ca="1">RAND()</f>
-        <v>0.24051997555711169</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39305324927190899</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4552,8 +4564,8 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <f ca="1">RAND()</f>
-        <v>0.13168658768584118</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69640037952832834</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4561,12 +4573,12 @@
         <v>8</v>
       </c>
       <c r="B28">
-        <f ca="1">RAND()</f>
-        <v>0.79889569934206894</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1237811633466608E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.martins\Desktop\github\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A08C0E-12F6-4D22-B3C1-DD5AB3F06370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111EB2D8-F9A4-4A53-A98B-B731A0C2664D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="43">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -686,30 +675,30 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -790,7 +779,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -873,7 +862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -937,14 +926,16 @@
       <c r="U3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="4"/>
+      <c r="V3" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1008,14 +999,16 @@
       <c r="U4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="4"/>
+      <c r="V4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1079,14 +1072,16 @@
       <c r="U5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="4"/>
+      <c r="V5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1150,14 +1145,16 @@
       <c r="U6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="V6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1221,14 +1218,16 @@
       <c r="U7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V7" s="4"/>
+      <c r="V7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1292,14 +1291,16 @@
       <c r="U8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1363,14 +1364,16 @@
       <c r="U9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="4"/>
+      <c r="V9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1434,14 +1437,16 @@
       <c r="U10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1505,14 +1510,16 @@
       <c r="U11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="V11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1576,14 +1583,16 @@
       <c r="U12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="V12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1647,14 +1656,16 @@
       <c r="U13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V13" s="4"/>
+      <c r="V13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1718,14 +1729,16 @@
       <c r="U14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V14" s="4"/>
+      <c r="V14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1789,14 +1802,16 @@
       <c r="U15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="4"/>
+      <c r="V15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1860,14 +1875,16 @@
       <c r="U16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="4"/>
+      <c r="V16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1931,14 +1948,16 @@
       <c r="U17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="4"/>
+      <c r="V17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2002,14 +2021,16 @@
       <c r="U18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="4"/>
+      <c r="V18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2073,14 +2094,16 @@
       <c r="U19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="4"/>
+      <c r="V19" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2144,14 +2167,16 @@
       <c r="U20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="4"/>
+      <c r="V20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2215,14 +2240,16 @@
       <c r="U21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="4"/>
+      <c r="V21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2286,14 +2313,16 @@
       <c r="U22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="4"/>
+      <c r="V22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2357,14 +2386,16 @@
       <c r="U23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="4"/>
+      <c r="V23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2428,14 +2459,16 @@
       <c r="U24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="4"/>
+      <c r="V24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2499,14 +2532,16 @@
       <c r="U25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V25" s="4"/>
+      <c r="V25" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2570,14 +2605,16 @@
       <c r="U26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V26" s="4"/>
+      <c r="V26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2641,14 +2678,16 @@
       <c r="U27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="V27" s="4"/>
+      <c r="V27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2712,14 +2751,16 @@
       <c r="U28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="4"/>
+      <c r="V28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2783,14 +2824,16 @@
       <c r="U29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V29" s="4"/>
+      <c r="V29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2854,14 +2897,16 @@
       <c r="U30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V30" s="4"/>
+      <c r="V30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2925,7 +2970,9 @@
       <c r="U31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V31" s="4"/>
+      <c r="V31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -2960,16 +3007,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2986,7 +3033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2996,7 +3043,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3006,7 +3053,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3016,7 +3063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3026,7 +3073,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3036,7 +3083,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3046,7 +3093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3056,7 +3103,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3066,7 +3113,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3076,7 +3123,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3086,7 +3133,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3096,7 +3143,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3106,7 +3153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3116,7 +3163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3126,7 +3173,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3136,7 +3183,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3146,7 +3193,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3156,7 +3203,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3166,7 +3213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3176,7 +3223,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3186,7 +3233,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3196,7 +3243,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3206,7 +3253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3216,7 +3263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3226,7 +3273,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3236,7 +3283,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3246,7 +3293,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3256,7 +3303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3266,7 +3313,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3303,15 +3350,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3325,7 +3372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3335,7 +3382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3345,7 +3392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3355,7 +3402,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3365,7 +3412,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3375,7 +3422,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3385,7 +3432,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3395,7 +3442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3405,7 +3452,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3415,7 +3462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3425,7 +3472,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3435,7 +3482,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3445,7 +3492,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3455,7 +3502,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3465,7 +3512,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3475,7 +3522,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3485,7 +3532,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3495,7 +3542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3505,7 +3552,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3515,7 +3562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3525,7 +3572,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3535,7 +3582,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3545,7 +3592,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3555,7 +3602,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3565,7 +3612,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3575,7 +3622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3585,7 +3632,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3595,7 +3642,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3605,7 +3652,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3642,15 +3689,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3664,7 +3711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3674,7 +3721,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3684,7 +3731,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3694,7 +3741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3704,7 +3751,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3714,7 +3761,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3724,7 +3771,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3734,7 +3781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3744,7 +3791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3754,7 +3801,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3764,7 +3811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3774,7 +3821,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3784,7 +3831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3794,7 +3841,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3804,7 +3851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3814,7 +3861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3824,7 +3871,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3834,7 +3881,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3844,7 +3891,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3854,7 +3901,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3864,7 +3911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3874,7 +3921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3884,7 +3931,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3894,7 +3941,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3904,7 +3951,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3914,7 +3961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3924,7 +3971,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3934,7 +3981,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3944,7 +3991,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3981,15 +4028,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4003,7 +4050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4060,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4023,7 +4070,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4033,7 +4080,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4043,7 +4090,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4053,7 +4100,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4063,7 +4110,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4073,7 +4120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4083,7 +4130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4093,7 +4140,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4103,7 +4150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4113,7 +4160,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4123,7 +4170,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4133,7 +4180,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4143,7 +4190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4153,7 +4200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4163,7 +4210,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4173,7 +4220,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4183,7 +4230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4193,7 +4240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4203,7 +4250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4213,7 +4260,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4223,7 +4270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4233,7 +4280,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4243,7 +4290,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4253,7 +4300,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4263,7 +4310,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -4273,7 +4320,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4283,7 +4330,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -4320,13 +4367,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4334,247 +4381,247 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.78370758883648295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.97831680679608368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.573188998596688E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.35192215583193043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63967448351583533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.81107582667035172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79265323881374383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.4678392865470159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95762486427537552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.0356525586808041E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.190944322041676E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.88513300951623397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48815205160989372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.83360560597414335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91232346798247488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.49956951282169382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11058866191169869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.48434394954971105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90289633126104996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.51486220826424534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62364826083591152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.20307142338108997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17076977794946369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.44953430699023644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53125616790282892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.69202287282061803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29767146284168677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.64791006935824624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1909539264955048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.95517617001228128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59271108067679157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.68147374656347171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51144051565148407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.64483916105014027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1398478442146861</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.36026407933156723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26274550489388737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.59684909412422271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.518635624251505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.79164893928092195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61143955216056112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.1615255154203834E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71225816077624149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.66628511938544632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39284567235999301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.12439775019553589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9564880070114955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.12963640620733019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39305324927190899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.32252235020206665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69640037952832834</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.99482377630134355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1237811633466608E-3</v>
+        <v>0.78442308752550538</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111EB2D8-F9A4-4A53-A98B-B731A0C2664D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88362E5D-55ED-4C6A-98E5-51EAA4893AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="43">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -672,13 +672,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V33" sqref="V33"/>
+      <selection pane="bottomRight" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,12 +693,10 @@
     <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -764,22 +762,16 @@
         <v>44974</v>
       </c>
       <c r="W1" s="2">
-        <v>44977</v>
+        <v>44979</v>
       </c>
       <c r="X1" s="2">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="Y1" s="2">
-        <v>44979</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>44980</v>
-      </c>
-      <c r="AA1" s="2">
         <v>44981</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -847,22 +839,16 @@
         <v>35</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -929,13 +915,13 @@
       <c r="V3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="4"/>
+      <c r="W3" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1002,13 +988,13 @@
       <c r="V4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="4"/>
+      <c r="W4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1075,13 +1061,13 @@
       <c r="V5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="4"/>
+      <c r="W5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1148,13 +1134,13 @@
       <c r="V6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="4"/>
+      <c r="W6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1221,13 +1207,13 @@
       <c r="V7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="4"/>
+      <c r="W7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1294,13 +1280,13 @@
       <c r="V8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="4"/>
+      <c r="W8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1367,13 +1353,13 @@
       <c r="V9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="4"/>
+      <c r="W9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1440,13 +1426,13 @@
       <c r="V10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="4"/>
+      <c r="W10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="5"/>
-    </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1513,13 +1499,13 @@
       <c r="V11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="4"/>
+      <c r="W11" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="5"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1586,13 +1572,13 @@
       <c r="V12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W12" s="4"/>
+      <c r="W12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1659,13 +1645,13 @@
       <c r="V13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="4"/>
+      <c r="W13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1732,13 +1718,13 @@
       <c r="V14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W14" s="4"/>
+      <c r="W14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1805,13 +1791,13 @@
       <c r="V15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="4"/>
+      <c r="W15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1878,13 +1864,13 @@
       <c r="V16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="4"/>
+      <c r="W16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1951,13 +1937,13 @@
       <c r="V17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="4"/>
+      <c r="W17" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2024,13 +2010,13 @@
       <c r="V18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W18" s="4"/>
+      <c r="W18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="5"/>
-    </row>
-    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2097,13 +2083,13 @@
       <c r="V19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W19" s="4"/>
+      <c r="W19" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="5"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y19" s="5"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2170,13 +2156,13 @@
       <c r="V20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W20" s="4"/>
+      <c r="W20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2243,13 +2229,13 @@
       <c r="V21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2316,13 +2302,13 @@
       <c r="V22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W22" s="4"/>
+      <c r="W22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2389,13 +2375,13 @@
       <c r="V23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W23" s="4"/>
+      <c r="W23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2462,13 +2448,13 @@
       <c r="V24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W24" s="4"/>
+      <c r="W24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2535,13 +2521,13 @@
       <c r="V25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W25" s="4"/>
+      <c r="W25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2608,13 +2594,13 @@
       <c r="V26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W26" s="4"/>
+      <c r="W26" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2681,13 +2667,13 @@
       <c r="V27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W27" s="4"/>
+      <c r="W27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2754,13 +2740,13 @@
       <c r="V28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W28" s="4"/>
+      <c r="W28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="5"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y28" s="5"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2827,13 +2813,13 @@
       <c r="V29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W29" s="4"/>
+      <c r="W29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2900,13 +2886,13 @@
       <c r="V30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W30" s="4"/>
+      <c r="W30" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2973,11 +2959,11 @@
       <c r="V31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W31" s="4"/>
+      <c r="W31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G31">
@@ -2986,7 +2972,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AC2:XFD2 A1:XFD1 A7:G7 A2:AA2 A8:H22 I7:I22 A32:XFD1048576 J11:J22 A23:J31 K11:M31 M7:XFD7 A3:XFD6 J8:M10 N8:XFD31">
+  <conditionalFormatting sqref="AA2:XFD2 A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 A1:XFD1 A2:Y2 A32:XFD1048576 M7:XFD7 A3:XFD6 N8:XFD31">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -4387,7 +4373,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.97831680679608368</v>
+        <v>0.65439936878944971</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4396,7 +4382,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35192215583193043</v>
+        <v>0.28342939149754032</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4405,7 +4391,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81107582667035172</v>
+        <v>0.36941230649633605</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4414,7 +4400,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4678392865470159</v>
+        <v>0.9693636232679721</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4423,7 +4409,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0356525586808041E-2</v>
+        <v>0.67588665378054336</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4432,7 +4418,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88513300951623397</v>
+        <v>0.70046767917353703</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4441,7 +4427,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83360560597414335</v>
+        <v>9.0719664022145152E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4450,7 +4436,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49956951282169382</v>
+        <v>0.50336041060768288</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4459,7 +4445,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48434394954971105</v>
+        <v>8.4148497173388126E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4468,7 +4454,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51486220826424534</v>
+        <v>0.8884943789194073</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4477,7 +4463,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20307142338108997</v>
+        <v>0.38937171532655646</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4486,7 +4472,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44953430699023644</v>
+        <v>0.51414391713674568</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4495,7 +4481,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69202287282061803</v>
+        <v>1.770219830584574E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4504,7 +4490,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64791006935824624</v>
+        <v>0.16144931014641506</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4513,7 +4499,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95517617001228128</v>
+        <v>0.83462941479961261</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4522,7 +4508,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68147374656347171</v>
+        <v>0.23261612063122339</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4531,7 +4517,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64483916105014027</v>
+        <v>8.9014122557447006E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4540,7 +4526,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36026407933156723</v>
+        <v>0.76189083655297263</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4549,7 +4535,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59684909412422271</v>
+        <v>0.88897995578930966</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -4558,7 +4544,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79164893928092195</v>
+        <v>0.33985302939944695</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4567,7 +4553,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1615255154203834E-2</v>
+        <v>0.72429875515499287</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4576,7 +4562,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66628511938544632</v>
+        <v>0.78131215879971772</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4585,7 +4571,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12439775019553589</v>
+        <v>0.14314732813855235</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4594,7 +4580,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12963640620733019</v>
+        <v>0.33791444542902394</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4603,7 +4589,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32252235020206665</v>
+        <v>0.37268274045207017</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4612,7 +4598,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99482377630134355</v>
+        <v>0.41851449529080575</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4621,7 +4607,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78442308752550538</v>
+        <v>0.53836197097518879</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88362E5D-55ED-4C6A-98E5-51EAA4893AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745D9211-D5A8-4F33-B09A-7304FF21FEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="43">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -210,15 +210,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -672,35 +669,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W16" sqref="W16"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2">
         <v>44949</v>
       </c>
@@ -740,10 +739,10 @@
       <c r="O1" s="2">
         <v>44965</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="5">
         <v>44966</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="5">
         <v>44967</v>
       </c>
       <c r="R1" s="2">
@@ -770,8 +769,23 @@
       <c r="Y1" s="2">
         <v>44981</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" s="2">
+        <v>44984</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>44985</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>44986</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>44987</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -794,61 +808,76 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="T2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -918,10 +947,14 @@
       <c r="W3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -991,10 +1024,14 @@
       <c r="W4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1064,10 +1101,14 @@
       <c r="W5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1137,10 +1178,14 @@
       <c r="W6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1210,10 +1255,14 @@
       <c r="W7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1283,10 +1332,14 @@
       <c r="W8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1356,10 +1409,14 @@
       <c r="W9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1429,10 +1486,14 @@
       <c r="W10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="5"/>
-    </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1502,10 +1563,14 @@
       <c r="W11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="5"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1575,10 +1640,14 @@
       <c r="W12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1648,10 +1717,14 @@
       <c r="W13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1721,10 +1794,14 @@
       <c r="W14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1794,10 +1871,14 @@
       <c r="W15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1867,8 +1948,12 @@
       <c r="W16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="X16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1940,8 +2025,12 @@
       <c r="W17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+      <c r="X17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2013,8 +2102,12 @@
       <c r="W18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="5"/>
+      <c r="X18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -2086,8 +2179,12 @@
       <c r="W19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="5"/>
+      <c r="X19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2159,8 +2256,12 @@
       <c r="W20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
+      <c r="X20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -2232,8 +2333,12 @@
       <c r="W21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="X21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2305,8 +2410,12 @@
       <c r="W22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
+      <c r="X22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2378,8 +2487,12 @@
       <c r="W23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="X23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2451,8 +2564,12 @@
       <c r="W24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
+      <c r="X24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -2524,8 +2641,12 @@
       <c r="W25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
+      <c r="X25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2597,8 +2718,12 @@
       <c r="W26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
+      <c r="X26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -2670,8 +2795,12 @@
       <c r="W27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
+      <c r="X27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -2743,8 +2872,12 @@
       <c r="W28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="5"/>
+      <c r="X28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2816,8 +2949,12 @@
       <c r="W29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="X29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2889,8 +3026,12 @@
       <c r="W30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
+      <c r="X30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -2962,8 +3103,12 @@
       <c r="W31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
+      <c r="X31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G31">
@@ -2972,7 +3117,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AA2:XFD2 A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 A1:XFD1 A2:Y2 A32:XFD1048576 M7:XFD7 A3:XFD6 N8:XFD31">
+  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 A32:XFD1048576 M7:XFD7 N8:XFD31 A1:XFD6">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -4373,7 +4518,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.65439936878944971</v>
+        <v>3.7674360156032538E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4382,7 +4527,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28342939149754032</v>
+        <v>0.32505922369271412</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4391,7 +4536,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36941230649633605</v>
+        <v>0.19742836358099181</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4400,7 +4545,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9693636232679721</v>
+        <v>8.7281650710852032E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4409,7 +4554,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67588665378054336</v>
+        <v>9.1688962502057936E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4418,7 +4563,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70046767917353703</v>
+        <v>0.20110997241296735</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4427,7 +4572,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0719664022145152E-2</v>
+        <v>0.58443990127798962</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4436,7 +4581,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50336041060768288</v>
+        <v>7.0938526095317478E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4445,7 +4590,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4148497173388126E-2</v>
+        <v>7.4592729254537526E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4454,7 +4599,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8884943789194073</v>
+        <v>3.7846563255054977E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4463,7 +4608,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38937171532655646</v>
+        <v>0.33195291000969362</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4472,7 +4617,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51414391713674568</v>
+        <v>0.64343049899020788</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4481,7 +4626,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.770219830584574E-2</v>
+        <v>0.68283206838872323</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4490,7 +4635,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16144931014641506</v>
+        <v>0.84829273039525221</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4499,7 +4644,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83462941479961261</v>
+        <v>0.42957682372822992</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4508,7 +4653,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23261612063122339</v>
+        <v>0.70248984634256362</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4517,7 +4662,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9014122557447006E-2</v>
+        <v>0.12297252069740627</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4526,7 +4671,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76189083655297263</v>
+        <v>0.78769424191850423</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4535,7 +4680,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88897995578930966</v>
+        <v>5.1992114506553611E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -4544,7 +4689,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33985302939944695</v>
+        <v>0.77995824758860544</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4553,7 +4698,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72429875515499287</v>
+        <v>0.26731506015691053</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4562,7 +4707,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78131215879971772</v>
+        <v>0.61414672637991297</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4571,7 +4716,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14314732813855235</v>
+        <v>0.79665176148199157</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4580,7 +4725,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33791444542902394</v>
+        <v>6.6708458721824959E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4589,7 +4734,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37268274045207017</v>
+        <v>0.32633679135705851</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4598,7 +4743,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41851449529080575</v>
+        <v>0.30818351468290339</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4607,7 +4752,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53836197097518879</v>
+        <v>0.20441314103950159</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745D9211-D5A8-4F33-B09A-7304FF21FEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01944064-2823-4D53-B625-03B1BAABA1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="43">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -675,27 +675,27 @@
       <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -785,7 +785,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -877,7 +877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -953,8 +953,11 @@
       <c r="Y3" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1030,8 +1033,11 @@
       <c r="Y4" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1107,8 +1113,11 @@
       <c r="Y5" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1193,11 @@
       <c r="Y6" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1261,8 +1273,11 @@
       <c r="Y7" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1338,8 +1353,11 @@
       <c r="Y8" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1415,8 +1433,11 @@
       <c r="Y9" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1492,8 +1513,11 @@
       <c r="Y10" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1569,8 +1593,11 @@
       <c r="Y11" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1646,8 +1673,11 @@
       <c r="Y12" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1723,8 +1753,11 @@
       <c r="Y13" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1800,8 +1833,11 @@
       <c r="Y14" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1877,8 +1913,11 @@
       <c r="Y15" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1954,8 +1993,11 @@
       <c r="Y16" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2031,8 +2073,11 @@
       <c r="Y17" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2108,8 +2153,11 @@
       <c r="Y18" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2185,8 +2233,11 @@
       <c r="Y19" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2262,8 +2313,11 @@
       <c r="Y20" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2339,8 +2393,11 @@
       <c r="Y21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2416,8 +2473,11 @@
       <c r="Y22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2493,8 +2553,11 @@
       <c r="Y23" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2570,8 +2633,11 @@
       <c r="Y24" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2647,8 +2713,11 @@
       <c r="Y25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2724,8 +2793,11 @@
       <c r="Y26" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2801,8 +2873,11 @@
       <c r="Y27" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2878,8 +2953,11 @@
       <c r="Y28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2955,8 +3033,11 @@
       <c r="Y29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -3032,8 +3113,11 @@
       <c r="Y30" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -3107,6 +3191,9 @@
         <v>39</v>
       </c>
       <c r="Y31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z31" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3117,7 +3204,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 A32:XFD1048576 M7:XFD7 N8:XFD31 A1:XFD6">
+  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 A32:XFD1048576 M7:XFD7 A1:XFD6 N8:XFD31">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3138,16 +3225,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3164,7 +3251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3174,7 +3261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3184,7 +3271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3194,7 +3281,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3204,7 +3291,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3214,7 +3301,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3224,7 +3311,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3234,7 +3321,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3244,7 +3331,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3254,7 +3341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3264,7 +3351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3274,7 +3361,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3284,7 +3371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3381,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3304,7 +3391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3314,7 +3401,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3324,7 +3411,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3334,7 +3421,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3344,7 +3431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3354,7 +3441,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3364,7 +3451,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3374,7 +3461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3384,7 +3471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3394,7 +3481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3404,7 +3491,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3414,7 +3501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3424,7 +3511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3434,7 +3521,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3444,7 +3531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3481,15 +3568,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3503,7 +3590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3513,7 +3600,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3523,7 +3610,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3533,7 +3620,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3543,7 +3630,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3553,7 +3640,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3563,7 +3650,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3573,7 +3660,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3583,7 +3670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3593,7 +3680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3603,7 +3690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3613,7 +3700,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3623,7 +3710,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3633,7 +3720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3643,7 +3730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3653,7 +3740,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3663,7 +3750,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3673,7 +3760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3683,7 +3770,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3693,7 +3780,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3703,7 +3790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3713,7 +3800,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3723,7 +3810,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3733,7 +3820,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3743,7 +3830,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3753,7 +3840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3763,7 +3850,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3773,7 +3860,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3783,7 +3870,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3820,15 +3907,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3842,7 +3929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3852,7 +3939,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3862,7 +3949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3872,7 +3959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3882,7 +3969,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3892,7 +3979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3902,7 +3989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3912,7 +3999,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3922,7 +4009,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3932,7 +4019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3942,7 +4029,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3952,7 +4039,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3962,7 +4049,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3972,7 +4059,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3982,7 +4069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3992,7 +4079,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4002,7 +4089,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4012,7 +4099,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4022,7 +4109,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4032,7 +4119,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4042,7 +4129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4052,7 +4139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4062,7 +4149,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4072,7 +4159,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4082,7 +4169,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4092,7 +4179,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4102,7 +4189,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -4112,7 +4199,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4122,7 +4209,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -4159,15 +4246,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4181,7 +4268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4191,7 +4278,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4201,7 +4288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4211,7 +4298,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4221,7 +4308,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4231,7 +4318,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4241,7 +4328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4251,7 +4338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4261,7 +4348,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4271,7 +4358,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4281,7 +4368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4291,7 +4378,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4301,7 +4388,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4311,7 +4398,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4321,7 +4408,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4331,7 +4418,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4341,7 +4428,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4351,7 +4438,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4361,7 +4448,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4371,7 +4458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4381,7 +4468,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4391,7 +4478,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4401,7 +4488,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4411,7 +4498,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4421,7 +4508,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4431,7 +4518,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4441,7 +4528,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -4451,7 +4538,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4461,7 +4548,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -4498,13 +4585,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4512,247 +4599,247 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>3.7674360156032538E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.92574292799782987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32505922369271412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.32357861370789442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19742836358099181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.37222685860770643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7281650710852032E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.63686378187732839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1688962502057936E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.97455544600224953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20110997241296735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.96247977222911874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58443990127798962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8.0779170243664433E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0938526095317478E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.24505282099410386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4592729254537526E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.34218758081827516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7846563255054977E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.20532092686270775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33195291000969362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9347343083162637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64343049899020788</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.24012262051530031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68283206838872323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.174729704091934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84829273039525221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.75494579023616315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42957682372822992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.47054989321819529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70248984634256362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.44295168960132003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12297252069740627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.25209319817583342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78769424191850423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.35772660434917392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1992114506553611E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7344450573193817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77995824758860544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.13350522072518189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26731506015691053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.73039871399187228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61414672637991297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.94756596470924692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79665176148199157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.93321867549401738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6708458721824959E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.10892010163222332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32633679135705851</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.39796103607794053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30818351468290339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.24631107044517542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20441314103950159</v>
+        <v>0.12515323241444187</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01944064-2823-4D53-B625-03B1BAABA1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F891B32-1765-4799-A1A3-36DBCA532F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,7 +675,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
+      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1514,7 @@
         <v>39</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.92574292799782987</v>
+        <v>0.21627148863242374</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32357861370789442</v>
+        <v>0.5185502952638712</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37222685860770643</v>
+        <v>0.18013215371216784</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63686378187732839</v>
+        <v>0.74672016250230522</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97455544600224953</v>
+        <v>0.1754721307799918</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96247977222911874</v>
+        <v>0.78697231867278394</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0779170243664433E-3</v>
+        <v>0.93617938622761299</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24505282099410386</v>
+        <v>9.0486727439724413E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34218758081827516</v>
+        <v>0.4494073242764246</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20532092686270775</v>
+        <v>0.42753050560668115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9347343083162637</v>
+        <v>0.64823396701880776</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24012262051530031</v>
+        <v>0.3034751614489839</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.174729704091934</v>
+        <v>0.26768387453678733</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75494579023616315</v>
+        <v>0.37755544149536346</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47054989321819529</v>
+        <v>0.56892407430318148</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44295168960132003</v>
+        <v>0.86870355584330516</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25209319817583342</v>
+        <v>0.67542952920370314</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35772660434917392</v>
+        <v>0.22943384344329476</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7344450573193817</v>
+        <v>0.61791792819138203</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13350522072518189</v>
+        <v>0.342920889673762</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73039871399187228</v>
+        <v>9.4661792112136323E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94756596470924692</v>
+        <v>0.23014402171839421</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93321867549401738</v>
+        <v>0.84332175485099825</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10892010163222332</v>
+        <v>0.5186431553229186</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39796103607794053</v>
+        <v>0.18282543294209574</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24631107044517542</v>
+        <v>0.34111792712521882</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12515323241444187</v>
+        <v>0.99143154751401485</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F891B32-1765-4799-A1A3-36DBCA532F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D07A39-F948-4A38-8D67-BBD6F0CD293A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="43">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -263,16 +263,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -348,6 +338,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -669,13 +669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:BH31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,16 +686,16 @@
     <col min="4" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="40" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -745,47 +745,77 @@
       <c r="Q1" s="5">
         <v>44967</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="5">
         <v>44970</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="5">
         <v>44971</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="5">
         <v>44972</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="5">
         <v>44973</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="5">
         <v>44974</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="5">
         <v>44979</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="5">
         <v>44980</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="5">
         <v>44981</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="5">
         <v>44984</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="5">
         <v>44985</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="5">
         <v>44986</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="5">
         <v>44987</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="5">
         <v>44988</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="5">
+        <v>44991</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>44992</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>44993</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>44994</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>44995</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>44998</v>
+      </c>
+      <c r="AK1" s="5">
+        <v>44999</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>45000</v>
+      </c>
+      <c r="AM1" s="5">
+        <v>45001</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -831,53 +861,83 @@
       <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -956,8 +1016,31 @@
       <c r="Z3" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1036,8 +1119,31 @@
       <c r="Z4" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1116,8 +1222,31 @@
       <c r="Z5" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1196,8 +1325,31 @@
       <c r="Z6" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1276,8 +1428,31 @@
       <c r="Z7" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1356,8 +1531,31 @@
       <c r="Z8" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1436,8 +1634,31 @@
       <c r="Z9" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+    </row>
+    <row r="10" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1516,8 +1737,44 @@
       <c r="Z10" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+    </row>
+    <row r="11" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1596,8 +1853,44 @@
       <c r="Z11" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1676,8 +1969,31 @@
       <c r="Z12" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1756,8 +2072,31 @@
       <c r="Z13" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1836,8 +2175,31 @@
       <c r="Z14" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1916,8 +2278,31 @@
       <c r="Z15" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1996,8 +2381,31 @@
       <c r="Z16" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2076,8 +2484,31 @@
       <c r="Z17" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+    </row>
+    <row r="18" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2156,8 +2587,44 @@
       <c r="Z18" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+    </row>
+    <row r="19" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2236,8 +2703,44 @@
       <c r="Z19" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2316,8 +2819,31 @@
       <c r="Z20" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2396,8 +2922,31 @@
       <c r="Z21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2476,8 +3025,31 @@
       <c r="Z22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2556,8 +3128,31 @@
       <c r="Z23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2636,8 +3231,31 @@
       <c r="Z24" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2716,8 +3334,31 @@
       <c r="Z25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2794,10 +3435,33 @@
         <v>39</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="4"/>
+      <c r="BH26" s="4"/>
+    </row>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2876,8 +3540,31 @@
       <c r="Z27" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="4"/>
+    </row>
+    <row r="28" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2956,8 +3643,44 @@
       <c r="Z28" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
+      <c r="BF28" s="4"/>
+      <c r="BG28" s="4"/>
+      <c r="BH28" s="4"/>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -3036,8 +3759,31 @@
       <c r="Z29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="4"/>
+      <c r="BH29" s="4"/>
+    </row>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -3116,8 +3862,31 @@
       <c r="Z30" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="4"/>
+      <c r="AY30" s="4"/>
+      <c r="AZ30" s="4"/>
+      <c r="BA30" s="4"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="4"/>
+      <c r="BF30" s="4"/>
+      <c r="BG30" s="4"/>
+      <c r="BH30" s="4"/>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -3196,6 +3965,29 @@
       <c r="Z31" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AA31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="4"/>
+      <c r="AU31" s="4"/>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="4"/>
+      <c r="AY31" s="4"/>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
+      <c r="BG31" s="4"/>
+      <c r="BH31" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G31">
@@ -3204,11 +3996,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 A32:XFD1048576 M7:XFD7 A1:XFD6 N8:XFD31">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 A32:XFD1048576 BI3:XFD31 M7:BH7 A3:BH6 N8:BH31 A1:XFD2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3543,15 +4335,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E30">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3882,15 +4674,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4221,15 +5013,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4560,15 +5352,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4605,7 +5397,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.21627148863242374</v>
+        <v>1.3302560895503301E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4614,7 +5406,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5185502952638712</v>
+        <v>0.11684626457462599</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4623,7 +5415,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18013215371216784</v>
+        <v>0.39411995940635525</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4632,7 +5424,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74672016250230522</v>
+        <v>0.97748990971047522</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4641,7 +5433,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1754721307799918</v>
+        <v>0.39961368288307053</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4650,7 +5442,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78697231867278394</v>
+        <v>0.74453691422180646</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4659,7 +5451,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93617938622761299</v>
+        <v>0.14092258404377878</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +5460,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0486727439724413E-2</v>
+        <v>0.38418640178927099</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4677,7 +5469,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4494073242764246</v>
+        <v>0.46624811530060195</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4686,7 +5478,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42753050560668115</v>
+        <v>0.29005441133547571</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4695,7 +5487,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64823396701880776</v>
+        <v>0.33679806928665557</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4704,7 +5496,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3034751614489839</v>
+        <v>0.68475179499194516</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4713,7 +5505,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26768387453678733</v>
+        <v>0.13132362034055178</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4722,7 +5514,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37755544149536346</v>
+        <v>0.91433029194460014</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4731,7 +5523,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56892407430318148</v>
+        <v>0.96020622568225811</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4740,7 +5532,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86870355584330516</v>
+        <v>0.8175526178836402</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4749,7 +5541,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67542952920370314</v>
+        <v>8.4414349468935446E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4758,7 +5550,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22943384344329476</v>
+        <v>0.76580647811945213</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4767,7 +5559,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61791792819138203</v>
+        <v>0.6639572462868355</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4776,7 +5568,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.342920889673762</v>
+        <v>8.8074851312800462E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4785,7 +5577,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4661792112136323E-2</v>
+        <v>0.21765956732194913</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4794,7 +5586,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23014402171839421</v>
+        <v>0.72861659720595839</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4803,7 +5595,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84332175485099825</v>
+        <v>0.85977752159054255</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +5604,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5186431553229186</v>
+        <v>0.60146912317559864</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4821,7 +5613,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18282543294209574</v>
+        <v>0.40517004820369229</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4830,7 +5622,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34111792712521882</v>
+        <v>0.2551980318939544</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4839,7 +5631,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99143154751401485</v>
+        <v>0.25626373870843444</v>
       </c>
     </row>
   </sheetData>
@@ -4847,10 +5639,10 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D07A39-F948-4A38-8D67-BBD6F0CD293A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C77811-87E3-4D03-8466-AA1D487E55B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="43">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -263,6 +263,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -338,16 +348,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -675,7 +675,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
+      <selection pane="bottomRight" activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,6 +1019,9 @@
       <c r="AA3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
@@ -1122,6 +1125,9 @@
       <c r="AA4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -1225,6 +1231,9 @@
       <c r="AA5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AB5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
@@ -1328,6 +1337,9 @@
       <c r="AA6" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AB6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
@@ -1431,6 +1443,9 @@
       <c r="AA7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -1534,6 +1549,9 @@
       <c r="AA8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -1637,6 +1655,9 @@
       <c r="AA9" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -1740,7 +1761,9 @@
       <c r="AA10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AB10" s="4"/>
+      <c r="AB10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
@@ -1856,7 +1879,9 @@
       <c r="AA11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AB11" s="4"/>
+      <c r="AB11" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -1972,6 +1997,9 @@
       <c r="AA12" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AB12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
@@ -2075,6 +2103,9 @@
       <c r="AA13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2178,6 +2209,9 @@
       <c r="AA14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2281,6 +2315,9 @@
       <c r="AA15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2384,6 +2421,9 @@
       <c r="AA16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -2487,6 +2527,9 @@
       <c r="AA17" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB17" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -2590,7 +2633,9 @@
       <c r="AA18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AB18" s="4"/>
+      <c r="AB18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
@@ -2706,7 +2751,9 @@
       <c r="AA19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AB19" s="4"/>
+      <c r="AB19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
@@ -2822,6 +2869,9 @@
       <c r="AA20" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -2925,6 +2975,9 @@
       <c r="AA21" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -3028,6 +3081,9 @@
       <c r="AA22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3131,6 +3187,9 @@
       <c r="AA23" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AB23" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -3234,6 +3293,9 @@
       <c r="AA24" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -3337,6 +3399,9 @@
       <c r="AA25" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB25" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -3440,6 +3505,9 @@
       <c r="AA26" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB26" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -3543,6 +3611,9 @@
       <c r="AA27" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -3646,7 +3717,9 @@
       <c r="AA28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AB28" s="4"/>
+      <c r="AB28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
@@ -3762,6 +3835,9 @@
       <c r="AA29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -3865,6 +3941,9 @@
       <c r="AA30" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -3968,6 +4047,9 @@
       <c r="AA31" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AB31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
@@ -3997,10 +4079,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 A32:XFD1048576 BI3:XFD31 M7:BH7 A3:BH6 N8:BH31 A1:XFD2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4335,15 +4417,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E30">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4674,15 +4756,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5013,15 +5095,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5352,15 +5434,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5397,7 +5479,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>1.3302560895503301E-2</v>
+        <v>0.25885017275105893</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5406,7 +5488,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11684626457462599</v>
+        <v>0.98714594992191873</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5415,7 +5497,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39411995940635525</v>
+        <v>0.17468605276687599</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5424,7 +5506,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97748990971047522</v>
+        <v>0.72124638861710511</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5433,7 +5515,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39961368288307053</v>
+        <v>0.52360314488612048</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5442,7 +5524,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74453691422180646</v>
+        <v>0.71435640710558512</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5451,7 +5533,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14092258404377878</v>
+        <v>0.32815085197701777</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5460,7 +5542,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38418640178927099</v>
+        <v>0.68867329259103494</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5469,7 +5551,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46624811530060195</v>
+        <v>0.32354521006030668</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5478,7 +5560,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29005441133547571</v>
+        <v>0.58658634137210597</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5487,7 +5569,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33679806928665557</v>
+        <v>0.61119402181183913</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5496,7 +5578,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68475179499194516</v>
+        <v>0.45385926658103004</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5505,7 +5587,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13132362034055178</v>
+        <v>0.69912418840025392</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5514,7 +5596,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91433029194460014</v>
+        <v>0.28272977791409526</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5523,7 +5605,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96020622568225811</v>
+        <v>0.55236767669314135</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5532,7 +5614,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8175526178836402</v>
+        <v>0.84890012622469135</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5541,7 +5623,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4414349468935446E-2</v>
+        <v>0.66254100397206961</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5550,7 +5632,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76580647811945213</v>
+        <v>5.7096185395275612E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5559,7 +5641,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6639572462868355</v>
+        <v>0.59255011675233182</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,7 +5650,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8074851312800462E-2</v>
+        <v>0.26630230501551677</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5577,7 +5659,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21765956732194913</v>
+        <v>0.97468551480506238</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5586,7 +5668,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72861659720595839</v>
+        <v>0.84075449812014136</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5595,7 +5677,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85977752159054255</v>
+        <v>0.93281333682419376</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5604,7 +5686,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60146912317559864</v>
+        <v>0.38978176114110141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5613,7 +5695,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40517004820369229</v>
+        <v>0.41381154628954941</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5622,7 +5704,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2551980318939544</v>
+        <v>0.13568835115149547</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5631,7 +5713,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25626373870843444</v>
+        <v>0.77075243025776763</v>
       </c>
     </row>
   </sheetData>
@@ -5639,10 +5721,10 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C77811-87E3-4D03-8466-AA1D487E55B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554AAA3D-2A8E-474F-9441-2F4ABFD5A3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,7 +675,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB16" sqref="AB16"/>
+      <selection pane="bottomRight" activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,7 +2528,7 @@
         <v>39</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
@@ -2976,7 +2976,7 @@
         <v>39</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
@@ -3294,7 +3294,7 @@
         <v>39</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.25885017275105893</v>
+        <v>0.49608796552110079</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98714594992191873</v>
+        <v>0.90312886248791358</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17468605276687599</v>
+        <v>0.95932666733420269</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72124638861710511</v>
+        <v>0.94778133068096593</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52360314488612048</v>
+        <v>0.26834819611147664</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71435640710558512</v>
+        <v>0.57589262217076642</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32815085197701777</v>
+        <v>0.71215651143685565</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68867329259103494</v>
+        <v>0.26501242526081725</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32354521006030668</v>
+        <v>0.39061024928607202</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58658634137210597</v>
+        <v>3.1016927698402585E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61119402181183913</v>
+        <v>0.96126352790476577</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45385926658103004</v>
+        <v>0.69628902705159312</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69912418840025392</v>
+        <v>0.93475456548709934</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28272977791409526</v>
+        <v>0.62270863407585264</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55236767669314135</v>
+        <v>0.64433862325843161</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84890012622469135</v>
+        <v>0.73728817463615182</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66254100397206961</v>
+        <v>0.21787913737178055</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7096185395275612E-2</v>
+        <v>0.19134312260782305</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59255011675233182</v>
+        <v>0.82534158747592745</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26630230501551677</v>
+        <v>0.31516523931891971</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97468551480506238</v>
+        <v>0.39321845249759046</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84075449812014136</v>
+        <v>0.77258462117158255</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93281333682419376</v>
+        <v>4.9772552160258443E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38978176114110141</v>
+        <v>0.60426062810656145</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41381154628954941</v>
+        <v>0.93358305778109607</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13568835115149547</v>
+        <v>0.8474598955947823</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77075243025776763</v>
+        <v>0.61714494913919027</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554AAA3D-2A8E-474F-9441-2F4ABFD5A3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D595212-83FF-4361-8880-D99D0F55E17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="44">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Aleatorio</t>
+  </si>
+  <si>
+    <t>Pts</t>
   </si>
 </sst>
 </file>
@@ -675,7 +678,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB27" sqref="AB27"/>
+      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4775,10 +4778,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4787,9 +4790,10 @@
     <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4802,8 +4806,11 @@
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4812,8 +4819,11 @@
         <f>AVERAGE(B2:C2)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4822,8 +4832,11 @@
         <f t="shared" ref="D3:D30" si="0">AVERAGE(B3:C3)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4832,8 +4845,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4842,8 +4858,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4852,8 +4871,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4862,8 +4884,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4872,8 +4897,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4882,8 +4910,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4892,8 +4923,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4902,8 +4936,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4912,8 +4949,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4922,8 +4962,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4932,8 +4975,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4942,8 +4988,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4952,8 +5001,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4962,8 +5014,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4972,8 +5027,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4982,8 +5040,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4992,8 +5053,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5002,8 +5066,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5012,8 +5079,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5022,8 +5092,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5032,8 +5105,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5042,8 +5118,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -5052,8 +5131,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5062,8 +5144,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -5072,8 +5157,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5082,8 +5170,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -5091,6 +5182,9 @@
       <c r="D30" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5479,7 +5573,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.49608796552110079</v>
+        <v>0.4162565398610597</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5488,7 +5582,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90312886248791358</v>
+        <v>0.5005349014612388</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5497,7 +5591,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95932666733420269</v>
+        <v>3.6871758767141771E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5506,7 +5600,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94778133068096593</v>
+        <v>0.67258971063216288</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5515,7 +5609,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26834819611147664</v>
+        <v>0.12915061638961445</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5524,7 +5618,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57589262217076642</v>
+        <v>2.8963028729708573E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5533,7 +5627,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71215651143685565</v>
+        <v>0.74473412062729627</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5542,7 +5636,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26501242526081725</v>
+        <v>0.72772638800617206</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5551,7 +5645,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39061024928607202</v>
+        <v>0.7336530429196646</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5560,7 +5654,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1016927698402585E-2</v>
+        <v>0.13491092895206735</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5569,7 +5663,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96126352790476577</v>
+        <v>0.29476041448234236</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5578,7 +5672,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69628902705159312</v>
+        <v>5.4066159785056023E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5587,7 +5681,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93475456548709934</v>
+        <v>0.69020752910147376</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5596,7 +5690,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62270863407585264</v>
+        <v>0.37150394133263764</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5605,7 +5699,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64433862325843161</v>
+        <v>0.88680918293519351</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5614,7 +5708,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73728817463615182</v>
+        <v>0.60200091641447195</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5623,7 +5717,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21787913737178055</v>
+        <v>3.3583545598006581E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5632,7 +5726,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19134312260782305</v>
+        <v>0.30722723338714764</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5641,7 +5735,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82534158747592745</v>
+        <v>9.5785948109492924E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5650,7 +5744,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31516523931891971</v>
+        <v>0.88511258251126956</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5659,7 +5753,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39321845249759046</v>
+        <v>4.1788693526354503E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5668,7 +5762,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77258462117158255</v>
+        <v>2.9382068764732816E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5677,7 +5771,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9772552160258443E-2</v>
+        <v>0.25994418583560253</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5686,7 +5780,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60426062810656145</v>
+        <v>1.6889130706628119E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5695,7 +5789,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93358305778109607</v>
+        <v>0.92394845931330094</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5704,7 +5798,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8474598955947823</v>
+        <v>0.99605717455308629</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5713,7 +5807,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61714494913919027</v>
+        <v>0.39778528838442984</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D595212-83FF-4361-8880-D99D0F55E17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="INDMO" sheetId="9" r:id="rId5"/>
     <sheet name="sorteios" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="44">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -167,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,14 +670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
+      <selection pane="bottomRight" activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,6 +1024,9 @@
       <c r="AB3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
@@ -1131,6 +1133,9 @@
       <c r="AB4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -1237,6 +1242,9 @@
       <c r="AB5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AC5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
@@ -1343,6 +1351,9 @@
       <c r="AB6" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AC6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
@@ -1449,6 +1460,9 @@
       <c r="AB7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -1555,6 +1569,9 @@
       <c r="AB8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -1661,6 +1678,9 @@
       <c r="AB9" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AC9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -1767,7 +1787,9 @@
       <c r="AB10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC10" s="4"/>
+      <c r="AC10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -1885,7 +1907,9 @@
       <c r="AB11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AC11" s="4"/>
+      <c r="AC11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
@@ -2003,6 +2027,9 @@
       <c r="AB12" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AC12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
@@ -2109,6 +2136,9 @@
       <c r="AB13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2215,6 +2245,9 @@
       <c r="AB14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2321,6 +2354,9 @@
       <c r="AB15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2427,6 +2463,9 @@
       <c r="AB16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -2533,6 +2572,9 @@
       <c r="AB17" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -2639,7 +2681,9 @@
       <c r="AB18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC18" s="4"/>
+      <c r="AC18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -2757,7 +2801,9 @@
       <c r="AB19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC19" s="4"/>
+      <c r="AC19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
@@ -2875,6 +2921,9 @@
       <c r="AB20" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AC20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -2981,6 +3030,9 @@
       <c r="AB21" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -3087,6 +3139,9 @@
       <c r="AB22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3193,6 +3248,9 @@
       <c r="AB23" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AC23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -3299,6 +3357,9 @@
       <c r="AB24" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -3405,6 +3466,9 @@
       <c r="AB25" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AC25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -3511,6 +3575,9 @@
       <c r="AB26" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AC26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -3617,6 +3684,9 @@
       <c r="AB27" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -3723,7 +3793,9 @@
       <c r="AB28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC28" s="4"/>
+      <c r="AC28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
@@ -3841,6 +3913,9 @@
       <c r="AB29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -3947,6 +4022,9 @@
       <c r="AB30" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -4053,6 +4131,9 @@
       <c r="AB31" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AC31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
@@ -4075,7 +4156,7 @@
       <c r="BH31" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G31">
+  <sortState ref="A3:G31">
     <sortCondition ref="A2:A31"/>
   </sortState>
   <mergeCells count="1">
@@ -4095,7 +4176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4438,7 +4519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4777,7 +4858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5207,7 +5288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5546,7 +5627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5573,7 +5654,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.4162565398610597</v>
+        <v>0.83148501168907818</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5582,7 +5663,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5005349014612388</v>
+        <v>7.2261361481772424E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5591,7 +5672,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6871758767141771E-2</v>
+        <v>0.3179782048437193</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5600,7 +5681,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67258971063216288</v>
+        <v>0.32938868332166071</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5609,7 +5690,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12915061638961445</v>
+        <v>0.70379397679741962</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5618,7 +5699,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8963028729708573E-2</v>
+        <v>6.1779785209964522E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5627,7 +5708,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74473412062729627</v>
+        <v>0.82798990137387807</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5636,7 +5717,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72772638800617206</v>
+        <v>0.60040290739318725</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5645,7 +5726,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7336530429196646</v>
+        <v>0.10635572536287186</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5654,7 +5735,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13491092895206735</v>
+        <v>0.9177065351867788</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5663,7 +5744,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29476041448234236</v>
+        <v>0.87511011805339511</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5672,7 +5753,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4066159785056023E-2</v>
+        <v>0.32671401811653844</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5681,7 +5762,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69020752910147376</v>
+        <v>8.3030441273373778E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5690,7 +5771,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37150394133263764</v>
+        <v>0.42537034378525451</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5699,7 +5780,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88680918293519351</v>
+        <v>0.16388049604994537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5708,7 +5789,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60200091641447195</v>
+        <v>0.5962322774889165</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5717,7 +5798,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3583545598006581E-2</v>
+        <v>0.94868625067969214</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5726,7 +5807,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30722723338714764</v>
+        <v>0.9373387432985727</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5735,7 +5816,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5785948109492924E-2</v>
+        <v>0.44270991202448617</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5744,7 +5825,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88511258251126956</v>
+        <v>0.99045959507728909</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5753,7 +5834,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1788693526354503E-3</v>
+        <v>0.64994630695182098</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5762,7 +5843,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9382068764732816E-3</v>
+        <v>0.77302043872539994</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5771,7 +5852,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25994418583560253</v>
+        <v>0.27816148933854079</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5780,7 +5861,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6889130706628119E-2</v>
+        <v>0.17755227754293745</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5789,7 +5870,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92394845931330094</v>
+        <v>0.10339981380040109</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5798,7 +5879,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99605717455308629</v>
+        <v>0.31651249619350763</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5807,11 +5888,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39778528838442984</v>
+        <v>0.30639420307731524</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
+  <sortState ref="A2:B28">
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C07EED8-57AE-49C6-95BB-920DDE654032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="INDMO" sheetId="9" r:id="rId5"/>
     <sheet name="sorteios" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="44">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -166,8 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +188,12 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -670,14 +677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC29" sqref="AC29"/>
+      <selection pane="bottomRight" activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,6 +1034,9 @@
       <c r="AC3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
@@ -1136,6 +1146,9 @@
       <c r="AC4" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AD4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -1245,6 +1258,9 @@
       <c r="AC5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AD5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
@@ -1354,6 +1370,9 @@
       <c r="AC6" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AD6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
@@ -1463,6 +1482,9 @@
       <c r="AC7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -1572,6 +1594,9 @@
       <c r="AC8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -1681,6 +1706,9 @@
       <c r="AC9" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AD9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -1790,7 +1818,9 @@
       <c r="AC10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AD10" s="4"/>
+      <c r="AD10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
@@ -1910,7 +1940,9 @@
       <c r="AC11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AD11" s="4"/>
+      <c r="AD11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
@@ -2030,6 +2062,9 @@
       <c r="AC12" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AD12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
@@ -2139,6 +2174,9 @@
       <c r="AC13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2248,6 +2286,9 @@
       <c r="AC14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2357,6 +2398,9 @@
       <c r="AC15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2466,6 +2510,9 @@
       <c r="AC16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -2575,6 +2622,9 @@
       <c r="AC17" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD17" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -2684,7 +2734,9 @@
       <c r="AC18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AD18" s="4"/>
+      <c r="AD18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
@@ -2804,7 +2856,9 @@
       <c r="AC19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AD19" s="4"/>
+      <c r="AD19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
@@ -2924,6 +2978,9 @@
       <c r="AC20" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AD20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -3033,6 +3090,9 @@
       <c r="AC21" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -3142,6 +3202,9 @@
       <c r="AC22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3251,6 +3314,9 @@
       <c r="AC23" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD23" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -3360,6 +3426,9 @@
       <c r="AC24" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AD24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -3469,6 +3538,9 @@
       <c r="AC25" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD25" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -3578,6 +3650,9 @@
       <c r="AC26" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -3687,6 +3762,9 @@
       <c r="AC27" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -3796,7 +3874,9 @@
       <c r="AC28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AD28" s="4"/>
+      <c r="AD28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
@@ -3916,6 +3996,9 @@
       <c r="AC29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -4025,6 +4108,9 @@
       <c r="AC30" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD30" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -4134,6 +4220,9 @@
       <c r="AC31" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AD31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
@@ -4155,14 +4244,18 @@
       <c r="BG31" s="4"/>
       <c r="BH31" s="4"/>
     </row>
+    <row r="38" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG38" s="5"/>
+    </row>
   </sheetData>
-  <sortState ref="A3:G31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G31">
     <sortCondition ref="A2:A31"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 A32:XFD1048576 BI3:XFD31 M7:BH7 A3:BH6 N8:BH31 A1:XFD2">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 BI3:XFD31 M7:BH7 A3:BH6 N8:BH31 A1:XFD2 A32:XFD1048576">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -4176,7 +4269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4519,7 +4612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4858,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5288,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5627,7 +5720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5747,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.83148501168907818</v>
+        <v>0.55255938414733807</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5663,7 +5756,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2261361481772424E-2</v>
+        <v>0.28556952559744564</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5672,7 +5765,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3179782048437193</v>
+        <v>0.11582499938450019</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5681,7 +5774,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32938868332166071</v>
+        <v>0.46452132344353037</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5690,7 +5783,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70379397679741962</v>
+        <v>0.22608085329061578</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5699,7 +5792,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1779785209964522E-2</v>
+        <v>0.1865437831124952</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5708,7 +5801,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82798990137387807</v>
+        <v>9.4066315631066377E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5717,7 +5810,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60040290739318725</v>
+        <v>0.96618956515132592</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5726,7 +5819,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10635572536287186</v>
+        <v>0.66777382710902344</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5735,7 +5828,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9177065351867788</v>
+        <v>0.72884620024890123</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5744,7 +5837,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87511011805339511</v>
+        <v>0.32252292926776716</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5753,7 +5846,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32671401811653844</v>
+        <v>0.81840587928449793</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5762,7 +5855,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3030441273373778E-2</v>
+        <v>0.99141629620540694</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5771,7 +5864,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42537034378525451</v>
+        <v>0.99816599590045185</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5780,7 +5873,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16388049604994537</v>
+        <v>0.53118858913690548</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5789,7 +5882,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5962322774889165</v>
+        <v>5.0285501258134579E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5798,7 +5891,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94868625067969214</v>
+        <v>0.57587054314651698</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5807,7 +5900,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9373387432985727</v>
+        <v>0.54353188621005244</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5816,7 +5909,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44270991202448617</v>
+        <v>0.30885154699761574</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5825,7 +5918,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99045959507728909</v>
+        <v>0.35629124125755585</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5834,7 +5927,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64994630695182098</v>
+        <v>0.35838391250637314</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5843,7 +5936,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77302043872539994</v>
+        <v>0.79177915441099489</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5852,7 +5945,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27816148933854079</v>
+        <v>0.43432490455282546</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5861,7 +5954,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17755227754293745</v>
+        <v>0.29153308851766913</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5870,7 +5963,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10339981380040109</v>
+        <v>0.37129218957184018</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5879,7 +5972,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31651249619350763</v>
+        <v>0.65757587160005859</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5888,11 +5981,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30639420307731524</v>
+        <v>0.32765361564821927</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C07EED8-57AE-49C6-95BB-920DDE654032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98DC6E4-C502-4C4B-A1EA-732B9B9CA9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="44">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -684,7 +684,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD7" sqref="AD7"/>
+      <selection pane="bottomRight" activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,6 +1037,9 @@
       <c r="AD3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AE3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
@@ -1149,6 +1152,9 @@
       <c r="AD4" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -1261,6 +1267,9 @@
       <c r="AD5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
@@ -1373,6 +1382,9 @@
       <c r="AD6" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
@@ -1485,6 +1497,9 @@
       <c r="AD7" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -1597,6 +1612,9 @@
       <c r="AD8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -1709,6 +1727,9 @@
       <c r="AD9" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -1821,7 +1842,9 @@
       <c r="AD10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="4"/>
+      <c r="AE10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
@@ -1943,7 +1966,9 @@
       <c r="AD11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AE11" s="4"/>
+      <c r="AE11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
@@ -2065,6 +2090,9 @@
       <c r="AD12" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
@@ -2177,6 +2205,9 @@
       <c r="AD13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AE13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2289,6 +2320,9 @@
       <c r="AD14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AE14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2401,6 +2435,9 @@
       <c r="AD15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AE15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2513,6 +2550,9 @@
       <c r="AD16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AE16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -2625,6 +2665,9 @@
       <c r="AD17" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -2737,7 +2780,9 @@
       <c r="AD18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AE18" s="4"/>
+      <c r="AE18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
@@ -2859,7 +2904,9 @@
       <c r="AD19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AE19" s="4"/>
+      <c r="AE19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
@@ -2981,6 +3028,9 @@
       <c r="AD20" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AE20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -3093,6 +3143,9 @@
       <c r="AD21" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -3205,6 +3258,9 @@
       <c r="AD22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AE22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3317,6 +3373,9 @@
       <c r="AD23" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -3429,6 +3488,9 @@
       <c r="AD24" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AE24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -3541,6 +3603,9 @@
       <c r="AD25" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -3653,6 +3718,9 @@
       <c r="AD26" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AE26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -3765,6 +3833,9 @@
       <c r="AD27" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AE27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -3877,7 +3948,9 @@
       <c r="AD28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AE28" s="4"/>
+      <c r="AE28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
@@ -3999,6 +4072,9 @@
       <c r="AD29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AE29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -4111,6 +4187,9 @@
       <c r="AD30" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AE30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -4221,6 +4300,9 @@
         <v>39</v>
       </c>
       <c r="AD31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AO31" s="4"/>
@@ -5747,7 +5829,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.55255938414733807</v>
+        <v>9.5362358707173023E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5756,7 +5838,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28556952559744564</v>
+        <v>0.21405281228998563</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5765,7 +5847,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11582499938450019</v>
+        <v>0.96099432062246626</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5774,7 +5856,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46452132344353037</v>
+        <v>0.9028568569148383</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5783,7 +5865,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22608085329061578</v>
+        <v>0.99366421898970214</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5792,7 +5874,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1865437831124952</v>
+        <v>0.95861048128232107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5801,7 +5883,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4066315631066377E-2</v>
+        <v>0.44908843236351526</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5810,7 +5892,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96618956515132592</v>
+        <v>0.24071287230290572</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5819,7 +5901,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66777382710902344</v>
+        <v>0.50447651616050915</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5828,7 +5910,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72884620024890123</v>
+        <v>0.39522240082798754</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5837,7 +5919,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32252292926776716</v>
+        <v>0.30455604435036221</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5846,7 +5928,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81840587928449793</v>
+        <v>0.42133524412760104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5855,7 +5937,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99141629620540694</v>
+        <v>0.57228160059142275</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5864,7 +5946,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99816599590045185</v>
+        <v>0.24083802316289127</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5873,7 +5955,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53118858913690548</v>
+        <v>0.40631035491919631</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5882,7 +5964,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0285501258134579E-2</v>
+        <v>0.8378433335729375</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5891,7 +5973,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57587054314651698</v>
+        <v>0.41690463400709288</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5900,7 +5982,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54353188621005244</v>
+        <v>0.1180648019150573</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5909,7 +5991,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30885154699761574</v>
+        <v>0.17255647924059847</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5918,7 +6000,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35629124125755585</v>
+        <v>0.16396417732750623</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5927,7 +6009,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35838391250637314</v>
+        <v>0.26141831917308966</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5936,7 +6018,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79177915441099489</v>
+        <v>8.1862421796024321E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5945,7 +6027,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43432490455282546</v>
+        <v>0.24212968742688989</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5954,7 +6036,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29153308851766913</v>
+        <v>0.31215519156880611</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5963,7 +6045,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37129218957184018</v>
+        <v>1.9956264756937347E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5972,7 +6054,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65757587160005859</v>
+        <v>0.92708722666151044</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5981,7 +6063,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32765361564821927</v>
+        <v>0.22593691466715426</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98DC6E4-C502-4C4B-A1EA-732B9B9CA9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC2EB12-E209-4768-A55E-F2D50C103C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="44">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -681,10 +681,10 @@
   <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE32" sqref="AE32"/>
+      <selection pane="bottomRight" activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,6 +1040,9 @@
       <c r="AE3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
@@ -1155,6 +1158,9 @@
       <c r="AE4" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AF4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -1270,6 +1276,9 @@
       <c r="AE5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AF5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
@@ -1385,6 +1394,9 @@
       <c r="AE6" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AF6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
@@ -1500,6 +1512,9 @@
       <c r="AE7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -1615,6 +1630,9 @@
       <c r="AE8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -1730,6 +1748,9 @@
       <c r="AE9" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -1845,7 +1866,9 @@
       <c r="AE10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF10" s="4"/>
+      <c r="AF10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -1969,7 +1992,9 @@
       <c r="AE11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF11" s="4"/>
+      <c r="AF11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -2093,6 +2118,9 @@
       <c r="AE12" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AF12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
@@ -2208,6 +2236,9 @@
       <c r="AE13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2323,6 +2354,9 @@
       <c r="AE14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2438,6 +2472,9 @@
       <c r="AE15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2553,6 +2590,9 @@
       <c r="AE16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -2668,6 +2708,9 @@
       <c r="AE17" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -2783,7 +2826,9 @@
       <c r="AE18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AF18" s="4"/>
+      <c r="AF18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
@@ -2907,7 +2952,9 @@
       <c r="AE19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF19" s="4"/>
+      <c r="AF19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
@@ -3031,6 +3078,9 @@
       <c r="AE20" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -3144,6 +3194,9 @@
         <v>40</v>
       </c>
       <c r="AE21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AO21" s="4"/>
@@ -3261,6 +3314,9 @@
       <c r="AE22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3376,6 +3432,9 @@
       <c r="AE23" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -3491,6 +3550,9 @@
       <c r="AE24" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -3606,6 +3668,9 @@
       <c r="AE25" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -3721,6 +3786,9 @@
       <c r="AE26" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -3836,6 +3904,9 @@
       <c r="AE27" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -3951,7 +4022,9 @@
       <c r="AE28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF28" s="4"/>
+      <c r="AF28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
       <c r="AI28" s="4"/>
@@ -4075,6 +4148,9 @@
       <c r="AE29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -4190,6 +4266,9 @@
       <c r="AE30" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AF30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -4303,6 +4382,9 @@
         <v>39</v>
       </c>
       <c r="AE31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AO31" s="4"/>
@@ -5829,7 +5911,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>9.5362358707173023E-2</v>
+        <v>0.70071286615532291</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5838,7 +5920,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21405281228998563</v>
+        <v>0.84577980139608877</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5847,7 +5929,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96099432062246626</v>
+        <v>0.52706920234092314</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5856,7 +5938,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9028568569148383</v>
+        <v>0.82107735458631581</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5865,7 +5947,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99366421898970214</v>
+        <v>0.69011793129384225</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5874,7 +5956,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95861048128232107</v>
+        <v>0.42840334914792222</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5883,7 +5965,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44908843236351526</v>
+        <v>0.7312463978024516</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5892,7 +5974,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24071287230290572</v>
+        <v>0.52360836716459291</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5901,7 +5983,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50447651616050915</v>
+        <v>0.11096437512601331</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5910,7 +5992,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39522240082798754</v>
+        <v>0.6391233657575891</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5919,7 +6001,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30455604435036221</v>
+        <v>0.42434869843880296</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5928,7 +6010,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42133524412760104</v>
+        <v>0.39410217448037055</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5937,7 +6019,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57228160059142275</v>
+        <v>0.54599673296643636</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5946,7 +6028,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24083802316289127</v>
+        <v>0.54885568281264763</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5955,7 +6037,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40631035491919631</v>
+        <v>0.22505481887913126</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5964,7 +6046,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8378433335729375</v>
+        <v>0.27291912193994006</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5973,7 +6055,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41690463400709288</v>
+        <v>0.2240142853542274</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5982,7 +6064,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1180648019150573</v>
+        <v>0.75388165232623661</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5991,7 +6073,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17255647924059847</v>
+        <v>0.26857530640050209</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6000,7 +6082,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16396417732750623</v>
+        <v>0.75651225601549266</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6009,7 +6091,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26141831917308966</v>
+        <v>2.0411151410739792E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6018,7 +6100,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1862421796024321E-2</v>
+        <v>0.26930463555912099</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6027,7 +6109,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24212968742688989</v>
+        <v>0.13650933529049225</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6036,7 +6118,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31215519156880611</v>
+        <v>0.28983266672571895</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6045,7 +6127,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9956264756937347E-3</v>
+        <v>0.82546479278706952</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6054,7 +6136,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92708722666151044</v>
+        <v>0.94096329807815926</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6063,7 +6145,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22593691466715426</v>
+        <v>8.6154521521441652E-2</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC2EB12-E209-4768-A55E-F2D50C103C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CACDEA0-1A33-4208-8A58-01A7BE117D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="44">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -684,7 +695,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI22" sqref="AI22"/>
+      <selection pane="bottomRight" activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,6 +1054,9 @@
       <c r="AF3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG3" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
@@ -1161,6 +1175,9 @@
       <c r="AF4" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AG4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -1279,6 +1296,9 @@
       <c r="AF5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AG5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
@@ -1397,6 +1417,9 @@
       <c r="AF6" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AG6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
@@ -1515,6 +1538,9 @@
       <c r="AF7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -1633,6 +1659,9 @@
       <c r="AF8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -1751,6 +1780,9 @@
       <c r="AF9" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AG9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -1869,7 +1901,9 @@
       <c r="AF10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AG10" s="4"/>
+      <c r="AG10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
@@ -1995,7 +2029,9 @@
       <c r="AF11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AG11" s="4"/>
+      <c r="AG11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
@@ -2121,6 +2157,9 @@
       <c r="AF12" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AG12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
@@ -2239,6 +2278,9 @@
       <c r="AF13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2357,6 +2399,9 @@
       <c r="AF14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2475,6 +2520,9 @@
       <c r="AF15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2593,6 +2641,9 @@
       <c r="AF16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -2711,6 +2762,9 @@
       <c r="AF17" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -2829,7 +2883,9 @@
       <c r="AF18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AG18" s="4"/>
+      <c r="AG18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
@@ -2955,7 +3011,9 @@
       <c r="AF19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AG19" s="4"/>
+      <c r="AG19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
@@ -3081,6 +3139,9 @@
       <c r="AF20" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -3199,6 +3260,9 @@
       <c r="AF21" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AG21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -3317,6 +3381,9 @@
       <c r="AF22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3435,6 +3502,9 @@
       <c r="AF23" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -3553,6 +3623,9 @@
       <c r="AF24" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -3671,6 +3744,9 @@
       <c r="AF25" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -3789,6 +3865,9 @@
       <c r="AF26" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -3907,6 +3986,9 @@
       <c r="AF27" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -4025,7 +4107,9 @@
       <c r="AF28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AG28" s="4"/>
+      <c r="AG28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AH28" s="4"/>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
@@ -4151,6 +4235,9 @@
       <c r="AF29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -4269,6 +4356,9 @@
       <c r="AF30" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -4385,6 +4475,9 @@
         <v>39</v>
       </c>
       <c r="AF31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AO31" s="4"/>
@@ -5911,7 +6004,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.70071286615532291</v>
+        <v>0.82418711288194479</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5920,7 +6013,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84577980139608877</v>
+        <v>0.5110487850358435</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5929,7 +6022,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52706920234092314</v>
+        <v>0.92708362808353462</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5938,7 +6031,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82107735458631581</v>
+        <v>0.20282934264490193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5947,7 +6040,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69011793129384225</v>
+        <v>0.26393385028976535</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5956,7 +6049,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42840334914792222</v>
+        <v>0.25756916031877253</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5965,7 +6058,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7312463978024516</v>
+        <v>0.2239020679412751</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5974,7 +6067,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52360836716459291</v>
+        <v>0.50585323910876545</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5983,7 +6076,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11096437512601331</v>
+        <v>0.3079061255111919</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5992,7 +6085,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6391233657575891</v>
+        <v>0.30144240148259094</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6001,7 +6094,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42434869843880296</v>
+        <v>0.82689823964656139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6010,7 +6103,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39410217448037055</v>
+        <v>0.65385781614380267</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6019,7 +6112,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54599673296643636</v>
+        <v>0.81064367880981048</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6028,7 +6121,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54885568281264763</v>
+        <v>0.81910717448876136</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6037,7 +6130,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22505481887913126</v>
+        <v>0.72070061102468785</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6046,7 +6139,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27291912193994006</v>
+        <v>0.64602094979746694</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6055,7 +6148,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2240142853542274</v>
+        <v>0.19491788357902584</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6064,7 +6157,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75388165232623661</v>
+        <v>6.6967256385599416E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6073,7 +6166,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26857530640050209</v>
+        <v>0.19862735220086825</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6082,7 +6175,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75651225601549266</v>
+        <v>0.37832412190376152</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6091,7 +6184,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0411151410739792E-2</v>
+        <v>0.2152472524682908</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6100,7 +6193,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26930463555912099</v>
+        <v>0.75599529650213315</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6109,7 +6202,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13650933529049225</v>
+        <v>0.13956829101774604</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6118,7 +6211,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28983266672571895</v>
+        <v>0.46018261912630665</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6127,7 +6220,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82546479278706952</v>
+        <v>0.22205537979780277</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6136,7 +6229,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94096329807815926</v>
+        <v>0.51677336975585719</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6145,7 +6238,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6154521521441652E-2</v>
+        <v>0.33009257649319801</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CACDEA0-1A33-4208-8A58-01A7BE117D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115BA26D-3C71-456E-A76A-94BA99895548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="44">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -695,7 +684,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG31" sqref="AG31"/>
+      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,6 +1046,12 @@
       <c r="AG3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AH3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
@@ -1178,6 +1173,12 @@
       <c r="AG4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -1299,6 +1300,12 @@
       <c r="AG5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AH5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
@@ -1420,6 +1427,12 @@
       <c r="AG6" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AH6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
@@ -1541,6 +1554,12 @@
       <c r="AG7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -1662,6 +1681,12 @@
       <c r="AG8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -1783,6 +1808,12 @@
       <c r="AG9" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AH9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -1904,8 +1935,12 @@
       <c r="AG10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
+      <c r="AH10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
@@ -2032,8 +2067,12 @@
       <c r="AG11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
+      <c r="AH11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
@@ -2160,6 +2199,12 @@
       <c r="AG12" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AH12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
@@ -2281,6 +2326,12 @@
       <c r="AG13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2402,6 +2453,12 @@
       <c r="AG14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2523,6 +2580,12 @@
       <c r="AG15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2644,6 +2707,12 @@
       <c r="AG16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -2765,6 +2834,12 @@
       <c r="AG17" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -2886,8 +2961,12 @@
       <c r="AG18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
+      <c r="AH18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
@@ -3014,8 +3093,12 @@
       <c r="AG19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
+      <c r="AH19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
@@ -3142,6 +3225,12 @@
       <c r="AG20" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -3263,6 +3352,12 @@
       <c r="AG21" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -3384,6 +3479,12 @@
       <c r="AG22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3505,6 +3606,12 @@
       <c r="AG23" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -3626,6 +3733,12 @@
       <c r="AG24" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -3747,6 +3860,12 @@
       <c r="AG25" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -3868,6 +3987,12 @@
       <c r="AG26" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -3989,6 +4114,12 @@
       <c r="AG27" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -4110,8 +4241,12 @@
       <c r="AG28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
+      <c r="AH28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
@@ -4238,6 +4373,12 @@
       <c r="AG29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -4359,6 +4500,12 @@
       <c r="AG30" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -4480,6 +4627,12 @@
       <c r="AG31" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AH31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
@@ -4512,7 +4665,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 BI3:XFD31 M7:BH7 A3:BH6 N8:BH31 A1:XFD2 A32:XFD1048576">
+  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 BI3:XFD31 M7:AG7 A3:BH3 N8:AG31 A1:XFD2 A32:XFD1048576 A4:AG6 AH4:BH31">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -6004,7 +6157,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.82418711288194479</v>
+        <v>0.9596388595117884</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6013,7 +6166,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5110487850358435</v>
+        <v>0.45716299147665052</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6022,7 +6175,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92708362808353462</v>
+        <v>0.52739257719849841</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6031,7 +6184,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20282934264490193</v>
+        <v>0.49919927238068151</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6040,7 +6193,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26393385028976535</v>
+        <v>0.15278705038841278</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6049,7 +6202,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25756916031877253</v>
+        <v>0.83513161104039046</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6058,7 +6211,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2239020679412751</v>
+        <v>0.39848968394816098</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6067,7 +6220,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50585323910876545</v>
+        <v>0.4310235703808234</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6076,7 +6229,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3079061255111919</v>
+        <v>0.60592628153205375</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6085,7 +6238,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30144240148259094</v>
+        <v>0.96925066060313847</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6094,7 +6247,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82689823964656139</v>
+        <v>0.90591455078685534</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6103,7 +6256,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65385781614380267</v>
+        <v>0.92187893644105268</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6112,7 +6265,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81064367880981048</v>
+        <v>0.32196847575830423</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6121,7 +6274,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81910717448876136</v>
+        <v>0.7780070094291246</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6130,7 +6283,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72070061102468785</v>
+        <v>0.62469810714975393</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6139,7 +6292,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64602094979746694</v>
+        <v>0.70999640122990548</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6148,7 +6301,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19491788357902584</v>
+        <v>0.87041831099077682</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6157,7 +6310,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6967256385599416E-2</v>
+        <v>0.82095818216427641</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6166,7 +6319,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19862735220086825</v>
+        <v>0.65583653351281712</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6175,7 +6328,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37832412190376152</v>
+        <v>0.92095218688244196</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6184,7 +6337,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2152472524682908</v>
+        <v>0.86163684116773775</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6193,7 +6346,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75599529650213315</v>
+        <v>0.57940192932627099</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6202,7 +6355,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13956829101774604</v>
+        <v>0.23150285769257783</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6211,7 +6364,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46018261912630665</v>
+        <v>0.71159090816024528</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6220,7 +6373,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22205537979780277</v>
+        <v>0.28852592337596272</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6229,7 +6382,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51677336975585719</v>
+        <v>0.37504454649594832</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6238,7 +6391,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33009257649319801</v>
+        <v>0.88694987001564862</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115BA26D-3C71-456E-A76A-94BA99895548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44EF8E0-6694-41A2-AA02-824EEE77D70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5365,7 +5376,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5398,10 +5409,13 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="e">
+      <c r="D2" s="1">
         <f>AVERAGE(B2:C2)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6157,7 +6171,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.9596388595117884</v>
+        <v>0.37444445411332816</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6166,7 +6180,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45716299147665052</v>
+        <v>0.22381103209921083</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6175,7 +6189,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52739257719849841</v>
+        <v>8.3517725542258336E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6184,7 +6198,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49919927238068151</v>
+        <v>0.37557069058276693</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6193,7 +6207,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15278705038841278</v>
+        <v>0.71797946587825445</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6202,7 +6216,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83513161104039046</v>
+        <v>0.5214124393742321</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6211,7 +6225,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39848968394816098</v>
+        <v>0.80869303730569886</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6220,7 +6234,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4310235703808234</v>
+        <v>0.23757513325009394</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6229,7 +6243,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60592628153205375</v>
+        <v>0.9576451061747675</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6238,7 +6252,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96925066060313847</v>
+        <v>0.80120248645562753</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6247,7 +6261,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90591455078685534</v>
+        <v>0.82407626959644331</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6256,7 +6270,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92187893644105268</v>
+        <v>0.72430342035917772</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6265,7 +6279,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32196847575830423</v>
+        <v>0.54193895325289587</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6274,7 +6288,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7780070094291246</v>
+        <v>0.8214549018673073</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6283,7 +6297,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62469810714975393</v>
+        <v>0.33820314192669687</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6292,7 +6306,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70999640122990548</v>
+        <v>0.81538165581929611</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6301,7 +6315,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87041831099077682</v>
+        <v>0.29318904963833781</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6310,7 +6324,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82095818216427641</v>
+        <v>0.46295999813323385</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6319,7 +6333,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65583653351281712</v>
+        <v>0.20749213116344578</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6328,7 +6342,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92095218688244196</v>
+        <v>0.3151899612152077</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6337,7 +6351,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86163684116773775</v>
+        <v>0.9286138149383516</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6346,7 +6360,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57940192932627099</v>
+        <v>0.22896144464204815</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6355,7 +6369,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23150285769257783</v>
+        <v>6.0291590486047819E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6364,7 +6378,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71159090816024528</v>
+        <v>0.48623607224748533</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6373,7 +6387,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28852592337596272</v>
+        <v>0.93412022395298355</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6382,7 +6396,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37504454649594832</v>
+        <v>0.43079969869857015</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6391,7 +6405,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88694987001564862</v>
+        <v>8.9542859708524492E-2</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115BA26D-3C71-456E-A76A-94BA99895548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFB7EDE-ACB5-4754-9CB6-81F317D0563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="44">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -272,16 +272,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -357,6 +347,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -681,10 +681,10 @@
   <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
+      <selection pane="bottomRight" activeCell="AL34" sqref="AL34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,6 +823,36 @@
       <c r="AN1" s="5">
         <v>45002</v>
       </c>
+      <c r="AO1" s="2">
+        <v>45005</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>45006</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>45007</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>45008</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>45009</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>45012</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>45013</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>45014</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>45015</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>45016</v>
+      </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -945,6 +975,36 @@
       <c r="AN2" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="AO2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1050,6 +1110,9 @@
         <v>39</v>
       </c>
       <c r="AI3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AO3" s="4"/>
@@ -1179,6 +1242,9 @@
       <c r="AI4" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AJ4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -1200,7 +1266,7 @@
       <c r="BG4" s="4"/>
       <c r="BH4" s="4"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1304,6 +1370,9 @@
         <v>40</v>
       </c>
       <c r="AI5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AO5" s="4"/>
@@ -1327,7 +1396,7 @@
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1431,6 +1500,9 @@
         <v>40</v>
       </c>
       <c r="AI6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AO6" s="4"/>
@@ -1560,6 +1632,9 @@
       <c r="AI7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -1687,6 +1762,9 @@
       <c r="AI8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -1814,6 +1892,9 @@
       <c r="AI9" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -1941,7 +2022,9 @@
       <c r="AI10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AJ10" s="4"/>
+      <c r="AJ10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
@@ -2073,7 +2156,9 @@
       <c r="AI11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AJ11" s="4"/>
+      <c r="AJ11" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
@@ -2099,7 +2184,7 @@
       <c r="BG11" s="4"/>
       <c r="BH11" s="4"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2203,6 +2288,9 @@
         <v>40</v>
       </c>
       <c r="AI12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AO12" s="4"/>
@@ -2332,6 +2420,9 @@
       <c r="AI13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2459,6 +2550,9 @@
       <c r="AI14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2586,6 +2680,9 @@
       <c r="AI15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2713,6 +2810,9 @@
       <c r="AI16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -2840,6 +2940,9 @@
       <c r="AI17" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -2967,7 +3070,9 @@
       <c r="AI18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AJ18" s="4"/>
+      <c r="AJ18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
@@ -3099,7 +3204,9 @@
       <c r="AI19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AJ19" s="4"/>
+      <c r="AJ19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
@@ -3231,6 +3338,9 @@
       <c r="AI20" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -3358,6 +3468,9 @@
       <c r="AI21" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -3485,6 +3598,9 @@
       <c r="AI22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3612,6 +3728,9 @@
       <c r="AI23" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -3739,6 +3858,9 @@
       <c r="AI24" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -3866,6 +3988,9 @@
       <c r="AI25" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -3993,6 +4118,9 @@
       <c r="AI26" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -4120,6 +4248,9 @@
       <c r="AI27" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -4247,7 +4378,9 @@
       <c r="AI28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AJ28" s="4"/>
+      <c r="AJ28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
@@ -4379,6 +4512,9 @@
       <c r="AI29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -4506,6 +4642,9 @@
       <c r="AI30" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -4633,6 +4772,9 @@
       <c r="AI31" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AJ31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
@@ -4665,11 +4807,11 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 BI3:XFD31 M7:AG7 A3:BH3 N8:AG31 A1:XFD2 A32:XFD1048576 A4:AG6 AH4:BH31">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 BI3:XFD31 M7:AG7 A3:BH3 N8:AG31 A32:XFD1048576 A4:AG6 AH4:BH31 A1:XFD2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5004,15 +5146,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E30">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5343,15 +5485,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5773,15 +5915,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6112,15 +6254,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6134,7 +6276,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6157,7 +6299,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.9596388595117884</v>
+        <v>0.18811955201380437</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6166,7 +6308,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45716299147665052</v>
+        <v>0.51579191977754135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6175,7 +6317,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52739257719849841</v>
+        <v>0.70560866110062548</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6184,7 +6326,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49919927238068151</v>
+        <v>8.7363683937890069E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6193,7 +6335,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15278705038841278</v>
+        <v>0.92681325650342139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6202,7 +6344,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83513161104039046</v>
+        <v>0.62015774371023613</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6211,7 +6353,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39848968394816098</v>
+        <v>5.9427863107419099E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6220,7 +6362,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4310235703808234</v>
+        <v>0.13885386049931159</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6229,7 +6371,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60592628153205375</v>
+        <v>0.94135262785674712</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6238,7 +6380,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96925066060313847</v>
+        <v>0.64718098202044849</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6247,7 +6389,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90591455078685534</v>
+        <v>0.20745952568658943</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6256,7 +6398,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92187893644105268</v>
+        <v>0.74711897364601121</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6265,7 +6407,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32196847575830423</v>
+        <v>0.7467947009395417</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6274,7 +6416,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7780070094291246</v>
+        <v>0.99830086094074488</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6283,7 +6425,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62469810714975393</v>
+        <v>0.97436056262206272</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6292,7 +6434,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70999640122990548</v>
+        <v>0.5234721478892862</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6301,7 +6443,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87041831099077682</v>
+        <v>0.38030676364486715</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6310,7 +6452,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82095818216427641</v>
+        <v>0.68755371360374884</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6319,7 +6461,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65583653351281712</v>
+        <v>0.15081146049083216</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6328,7 +6470,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92095218688244196</v>
+        <v>0.22310570956417397</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6337,7 +6479,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86163684116773775</v>
+        <v>1.7939224560860612E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6346,7 +6488,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57940192932627099</v>
+        <v>0.96258890417743415</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6355,7 +6497,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23150285769257783</v>
+        <v>8.6122566218071461E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6364,7 +6506,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71159090816024528</v>
+        <v>0.20365710095853162</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6373,7 +6515,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28852592337596272</v>
+        <v>0.90814665934637362</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6382,7 +6524,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37504454649594832</v>
+        <v>0.25038776129513307</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6391,7 +6533,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88694987001564862</v>
+        <v>0.34567903714879833</v>
       </c>
     </row>
   </sheetData>
@@ -6399,10 +6541,10 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFB7EDE-ACB5-4754-9CB6-81F317D0563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D47260-6A6B-402C-96BE-B28ED2D47A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Aluno</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{221AFFBC-E3A3-4997-98AA-437C41A6A2DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wellington:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Não vale como nota, somente pontos de trabalhos</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="45">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -163,12 +197,15 @@
   <si>
     <t>Pts</t>
   </si>
+  <si>
+    <t>VOS01</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +234,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,21 +288,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -357,6 +392,21 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -680,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4808,10 +4858,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 BI3:XFD31 M7:AG7 A3:BH3 N8:AG31 A32:XFD1048576 A4:AG6 AH4:BH31 A1:XFD2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5146,15 +5196,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E30">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5485,15 +5535,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5503,11 +5553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5519,7 +5569,7 @@
     <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -5535,8 +5585,11 @@
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5548,8 +5601,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5561,8 +5617,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5574,8 +5633,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5587,8 +5649,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5600,8 +5665,11 @@
       <c r="E6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5613,8 +5681,11 @@
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5626,8 +5697,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5639,8 +5713,11 @@
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5652,8 +5729,11 @@
       <c r="E10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5665,8 +5745,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5678,8 +5761,11 @@
       <c r="E12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5691,8 +5777,11 @@
       <c r="E13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5704,8 +5793,11 @@
       <c r="E14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5717,8 +5809,11 @@
       <c r="E15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5730,8 +5825,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5743,8 +5841,11 @@
       <c r="E17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5756,8 +5857,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5769,8 +5873,11 @@
       <c r="E19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5782,8 +5889,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5795,8 +5905,11 @@
       <c r="E21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5808,8 +5921,11 @@
       <c r="E22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5821,8 +5937,11 @@
       <c r="E23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5834,8 +5953,11 @@
       <c r="E24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5847,8 +5969,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -5860,8 +5985,11 @@
       <c r="E26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5873,8 +6001,11 @@
       <c r="E27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -5886,8 +6017,11 @@
       <c r="E28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5899,8 +6033,11 @@
       <c r="E29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -5912,23 +6049,27 @@
       <c r="E30">
         <v>10</v>
       </c>
+      <c r="G30">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6254,15 +6395,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6299,7 +6440,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.18811955201380437</v>
+        <v>0.87308075337058411</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6308,7 +6449,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51579191977754135</v>
+        <v>0.17715907272923959</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6317,7 +6458,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70560866110062548</v>
+        <v>0.44457302463199178</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6326,7 +6467,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7363683937890069E-2</v>
+        <v>9.7339496488446642E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6335,7 +6476,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92681325650342139</v>
+        <v>0.86675987477832672</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6344,7 +6485,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62015774371023613</v>
+        <v>0.74558698276622049</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6353,7 +6494,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9427863107419099E-2</v>
+        <v>0.22125557465035672</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6362,7 +6503,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13885386049931159</v>
+        <v>0.77402505671466737</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6371,7 +6512,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94135262785674712</v>
+        <v>0.47702330900871415</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6380,7 +6521,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64718098202044849</v>
+        <v>0.36653051532895697</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6389,7 +6530,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20745952568658943</v>
+        <v>0.66570102131185749</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6398,7 +6539,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74711897364601121</v>
+        <v>0.22694241853132413</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6407,7 +6548,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7467947009395417</v>
+        <v>0.65189654150996434</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6416,7 +6557,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99830086094074488</v>
+        <v>0.34624362184603585</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6425,7 +6566,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97436056262206272</v>
+        <v>0.99287122048626675</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6434,7 +6575,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5234721478892862</v>
+        <v>0.95248433002917521</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6443,7 +6584,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38030676364486715</v>
+        <v>0.97723840333931766</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6452,7 +6593,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68755371360374884</v>
+        <v>0.64784077560923203</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6461,7 +6602,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15081146049083216</v>
+        <v>0.40870061119330903</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6470,7 +6611,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22310570956417397</v>
+        <v>0.62062964026703582</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6479,7 +6620,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7939224560860612E-2</v>
+        <v>0.8471735014464904</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6488,7 +6629,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96258890417743415</v>
+        <v>0.57429045009270685</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6497,7 +6638,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6122566218071461E-2</v>
+        <v>0.81252710725629984</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6506,7 +6647,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20365710095853162</v>
+        <v>0.65839953369903148</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6515,7 +6656,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90814665934637362</v>
+        <v>0.90840741388962387</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6524,7 +6665,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25038776129513307</v>
+        <v>0.55544138878882554</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6533,7 +6674,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34567903714879833</v>
+        <v>0.82785789002431398</v>
       </c>
     </row>
   </sheetData>
@@ -6541,10 +6682,10 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D47260-6A6B-402C-96BE-B28ED2D47A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844DEB6E-B8FD-47AF-8133-3D919B58D9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5557,7 +5557,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5593,10 +5593,13 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="e">
+      <c r="D2" s="1">
         <f>AVERAGE(B2:C2)</f>
-        <v>#DIV/0!</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5657,10 +5660,13 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1">
+        <v>40</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -5897,10 +5903,13 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21" s="1">
+        <v>80</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -6440,7 +6449,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.87308075337058411</v>
+        <v>0.85867870686136383</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6449,7 +6458,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17715907272923959</v>
+        <v>0.90551979710640229</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6458,7 +6467,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44457302463199178</v>
+        <v>0.97735059524043677</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6467,7 +6476,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7339496488446642E-3</v>
+        <v>0.33016877887527485</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +6485,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86675987477832672</v>
+        <v>0.8477790003904544</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6485,7 +6494,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74558698276622049</v>
+        <v>0.67577209888967527</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6494,7 +6503,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22125557465035672</v>
+        <v>0.18294156827202757</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6503,7 +6512,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77402505671466737</v>
+        <v>0.37005175334874874</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6512,7 +6521,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47702330900871415</v>
+        <v>0.12631173380438787</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6521,7 +6530,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36653051532895697</v>
+        <v>3.0641177025750865E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6530,7 +6539,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66570102131185749</v>
+        <v>8.2948519256254127E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6539,7 +6548,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22694241853132413</v>
+        <v>5.3401034371564293E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6548,7 +6557,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65189654150996434</v>
+        <v>0.99281956348071865</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6557,7 +6566,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34624362184603585</v>
+        <v>1.5153881027324512E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6566,7 +6575,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99287122048626675</v>
+        <v>0.32386185499333675</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6575,7 +6584,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95248433002917521</v>
+        <v>0.78093313483661742</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6584,7 +6593,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97723840333931766</v>
+        <v>3.2051137166392851E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6593,7 +6602,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64784077560923203</v>
+        <v>0.89717469164408126</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6602,7 +6611,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40870061119330903</v>
+        <v>7.7499533675028487E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6611,7 +6620,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62062964026703582</v>
+        <v>1.9898931329274783E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6620,7 +6629,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8471735014464904</v>
+        <v>0.3258729675604467</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6629,7 +6638,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57429045009270685</v>
+        <v>0.66947029389849277</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6638,7 +6647,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81252710725629984</v>
+        <v>0.61962175844147405</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6647,7 +6656,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65839953369903148</v>
+        <v>0.77389491921003517</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6656,7 +6665,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90840741388962387</v>
+        <v>0.67898904026421247</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6665,7 +6674,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55544138878882554</v>
+        <v>0.80733405297593652</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6674,7 +6683,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82785789002431398</v>
+        <v>0.12395272815737135</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844DEB6E-B8FD-47AF-8133-3D919B58D9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A759C0A3-3711-43FA-8F44-F84B159B1266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5557,7 +5557,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5612,10 +5612,13 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="e">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D30" si="0">AVERAGE(B3:C3)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5628,10 +5631,13 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5644,10 +5650,13 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5679,10 +5688,13 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -5695,10 +5707,13 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="1">
+        <v>45</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5711,10 +5726,13 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="1">
+        <v>80</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -5727,10 +5745,13 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -5743,10 +5764,13 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5759,10 +5783,13 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="1">
+        <v>30</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -5775,10 +5802,13 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="1">
+        <v>80</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -5791,10 +5821,13 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="1">
+        <v>40</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -5807,10 +5840,13 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="1">
+        <v>80</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -5823,10 +5859,13 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="1">
+        <v>80</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5839,10 +5878,13 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="1">
+        <v>20</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -5855,10 +5897,13 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="1">
+        <v>70</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5871,10 +5916,13 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="1">
+        <v>70</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -5887,10 +5935,13 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="B20" s="1">
+        <v>65</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5922,10 +5973,13 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -5938,10 +5992,13 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="B23" s="1">
+        <v>80</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -5954,10 +6011,13 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="B24" s="1">
+        <v>30</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -5970,10 +6030,13 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="B25" s="1">
+        <v>30</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5986,10 +6049,13 @@
       <c r="A26" t="s">
         <v>29</v>
       </c>
+      <c r="B26" s="1">
+        <v>80</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -6002,10 +6068,13 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27" s="1">
+        <v>30</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -6018,10 +6087,13 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
+      <c r="B28" s="1">
+        <v>40</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -6034,10 +6106,13 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
+      <c r="B29" s="1">
+        <v>50</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -6050,10 +6125,13 @@
       <c r="A30" t="s">
         <v>25</v>
       </c>
+      <c r="B30" s="1">
+        <v>50</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>10</v>
@@ -6449,7 +6527,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.85867870686136383</v>
+        <v>0.89156427326018339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6458,7 +6536,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90551979710640229</v>
+        <v>0.44208712714387988</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6467,7 +6545,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97735059524043677</v>
+        <v>0.54508565467444969</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +6554,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33016877887527485</v>
+        <v>0.39479040100207663</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6485,7 +6563,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8477790003904544</v>
+        <v>0.19237205079880693</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6494,7 +6572,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67577209888967527</v>
+        <v>0.36056072555784924</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6503,7 +6581,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18294156827202757</v>
+        <v>0.21788885756973064</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6512,7 +6590,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37005175334874874</v>
+        <v>0.28791983738090754</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6521,7 +6599,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12631173380438787</v>
+        <v>0.51923789966159517</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6530,7 +6608,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0641177025750865E-3</v>
+        <v>0.46993342908162994</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6539,7 +6617,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2948519256254127E-2</v>
+        <v>0.16058895506400972</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6548,7 +6626,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3401034371564293E-2</v>
+        <v>0.64730846595699154</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6557,7 +6635,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99281956348071865</v>
+        <v>0.10554104418805321</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6566,7 +6644,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5153881027324512E-2</v>
+        <v>0.1988861528470045</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6575,7 +6653,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32386185499333675</v>
+        <v>0.12400325969177461</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6584,7 +6662,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78093313483661742</v>
+        <v>0.98568571934534921</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6593,7 +6671,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2051137166392851E-2</v>
+        <v>0.20356489849123383</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6602,7 +6680,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89717469164408126</v>
+        <v>0.25262305448365063</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6611,7 +6689,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7499533675028487E-2</v>
+        <v>0.54424530826825424</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6620,7 +6698,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9898931329274783E-2</v>
+        <v>0.52861416760568425</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6629,7 +6707,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3258729675604467</v>
+        <v>0.14156360969655346</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6638,7 +6716,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66947029389849277</v>
+        <v>0.45854486549398199</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6647,7 +6725,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61962175844147405</v>
+        <v>0.348910590526748</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6656,7 +6734,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77389491921003517</v>
+        <v>0.22782279270528216</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6665,7 +6743,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67898904026421247</v>
+        <v>0.63128944770379192</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6674,7 +6752,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80733405297593652</v>
+        <v>0.39357520835127546</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6683,7 +6761,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12395272815737135</v>
+        <v>0.12382130679688563</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A759C0A3-3711-43FA-8F44-F84B159B1266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5A72D-C3D1-486D-9772-8F141BEB9105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="45">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -730,11 +730,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL34" sqref="AL34"/>
+      <selection pane="bottomRight" activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,6 +1165,9 @@
       <c r="AJ3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
@@ -1295,6 +1298,9 @@
       <c r="AJ4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -1685,6 +1691,9 @@
       <c r="AJ7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -1815,6 +1824,9 @@
       <c r="AJ8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -2075,7 +2087,9 @@
       <c r="AJ10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AK10" s="4"/>
+      <c r="AK10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
@@ -2209,7 +2223,9 @@
       <c r="AJ11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AK11" s="4"/>
+      <c r="AK11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
@@ -2473,6 +2489,9 @@
       <c r="AJ13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2603,6 +2622,9 @@
       <c r="AJ14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2733,6 +2755,9 @@
       <c r="AJ15" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AK15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2863,6 +2888,9 @@
       <c r="AJ16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -3123,7 +3151,9 @@
       <c r="AJ18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AK18" s="4"/>
+      <c r="AK18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
@@ -3257,7 +3287,9 @@
       <c r="AJ19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AK19" s="4"/>
+      <c r="AK19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
@@ -3391,6 +3423,9 @@
       <c r="AJ20" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -3521,6 +3556,9 @@
       <c r="AJ21" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AK21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -3651,6 +3689,9 @@
       <c r="AJ22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3781,6 +3822,9 @@
       <c r="AJ23" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -4041,6 +4085,9 @@
       <c r="AJ25" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -4431,7 +4478,9 @@
       <c r="AJ28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AK28" s="4"/>
+      <c r="AK28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
       <c r="AN28" s="4"/>
@@ -4565,6 +4614,9 @@
       <c r="AJ29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -4695,6 +4747,9 @@
       <c r="AJ30" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -4823,6 +4878,9 @@
         <v>39</v>
       </c>
       <c r="AJ31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AO31" s="4"/>
@@ -5556,7 +5614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -6527,7 +6585,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.89156427326018339</v>
+        <v>0.1879900214932092</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6536,7 +6594,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44208712714387988</v>
+        <v>0.25469232980640943</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6545,7 +6603,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54508565467444969</v>
+        <v>0.39529623287893545</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6554,7 +6612,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39479040100207663</v>
+        <v>3.0691865440066635E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6563,7 +6621,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19237205079880693</v>
+        <v>0.40947417839314115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6572,7 +6630,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36056072555784924</v>
+        <v>0.33617572083087244</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6581,7 +6639,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21788885756973064</v>
+        <v>0.89457681381478826</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6590,7 +6648,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28791983738090754</v>
+        <v>0.83675734984993344</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6599,7 +6657,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51923789966159517</v>
+        <v>0.715632639986854</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6608,7 +6666,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46993342908162994</v>
+        <v>7.8695317649915442E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6617,7 +6675,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16058895506400972</v>
+        <v>0.39551740882708519</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6626,7 +6684,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64730846595699154</v>
+        <v>0.45064270154471087</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6635,7 +6693,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10554104418805321</v>
+        <v>0.80924281137216003</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6644,7 +6702,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1988861528470045</v>
+        <v>0.3863412917667175</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6653,7 +6711,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12400325969177461</v>
+        <v>0.50147017900470015</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6662,7 +6720,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98568571934534921</v>
+        <v>0.36432371480868242</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6671,7 +6729,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20356489849123383</v>
+        <v>0.39052737707694007</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6680,7 +6738,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25262305448365063</v>
+        <v>0.18565301535905598</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6689,7 +6747,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54424530826825424</v>
+        <v>0.94696415754004848</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6698,7 +6756,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52861416760568425</v>
+        <v>4.8023942322766189E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6707,7 +6765,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14156360969655346</v>
+        <v>0.37949677915822955</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6716,7 +6774,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45854486549398199</v>
+        <v>0.90972863196834375</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6725,7 +6783,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.348910590526748</v>
+        <v>0.64527906607129748</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6734,7 +6792,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22782279270528216</v>
+        <v>0.38328636844222341</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6743,7 +6801,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63128944770379192</v>
+        <v>0.83804432777000748</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6752,7 +6810,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39357520835127546</v>
+        <v>0.99840082263189678</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6761,7 +6819,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12382130679688563</v>
+        <v>0.7356882159619258</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5A72D-C3D1-486D-9772-8F141BEB9105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DEC960-2A7E-47EF-AD20-8CE4867093E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="45">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -734,7 +734,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL28" sqref="AL28"/>
+      <selection pane="bottomRight" activeCell="AM31" sqref="AM31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,6 +1168,12 @@
       <c r="AK3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
@@ -1301,6 +1307,12 @@
       <c r="AK4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -1694,6 +1706,12 @@
       <c r="AK7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -1827,6 +1845,12 @@
       <c r="AK8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -1957,6 +1981,15 @@
       <c r="AJ9" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -2090,8 +2123,12 @@
       <c r="AK10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
+      <c r="AL10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
@@ -2226,8 +2263,12 @@
       <c r="AK11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
+      <c r="AL11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
@@ -2492,6 +2533,12 @@
       <c r="AK13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2625,6 +2672,12 @@
       <c r="AK14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2758,6 +2811,12 @@
       <c r="AK15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2891,6 +2950,12 @@
       <c r="AK16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -3021,6 +3086,15 @@
       <c r="AJ17" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -3154,8 +3228,12 @@
       <c r="AK18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
+      <c r="AL18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
@@ -3290,8 +3368,12 @@
       <c r="AK19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
+      <c r="AL19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
@@ -3426,6 +3508,12 @@
       <c r="AK20" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -3559,6 +3647,12 @@
       <c r="AK21" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -3692,6 +3786,12 @@
       <c r="AK22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3825,6 +3925,12 @@
       <c r="AK23" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -3955,6 +4061,15 @@
       <c r="AJ24" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -4088,6 +4203,12 @@
       <c r="AK25" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -4218,6 +4339,15 @@
       <c r="AJ26" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -4348,6 +4478,15 @@
       <c r="AJ27" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AK27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -4481,8 +4620,12 @@
       <c r="AK28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
+      <c r="AL28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AN28" s="4"/>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4"/>
@@ -4617,6 +4760,12 @@
       <c r="AK29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -4750,6 +4899,12 @@
       <c r="AK30" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AL30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -4881,6 +5036,12 @@
         <v>39</v>
       </c>
       <c r="AK31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AO31" s="4"/>
@@ -6585,7 +6746,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.1879900214932092</v>
+        <v>0.91139794556458642</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6594,7 +6755,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25469232980640943</v>
+        <v>4.1857139872829907E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6603,7 +6764,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39529623287893545</v>
+        <v>0.46755352260823313</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6612,7 +6773,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0691865440066635E-2</v>
+        <v>0.81429604651491949</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6621,7 +6782,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40947417839314115</v>
+        <v>0.96350124101079293</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6630,7 +6791,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33617572083087244</v>
+        <v>6.7567208689765512E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6639,7 +6800,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89457681381478826</v>
+        <v>0.77036502738002999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6648,7 +6809,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83675734984993344</v>
+        <v>0.20752363176351729</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6657,7 +6818,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.715632639986854</v>
+        <v>0.66891766398863506</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6666,7 +6827,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8695317649915442E-2</v>
+        <v>0.97073081224227109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6675,7 +6836,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39551740882708519</v>
+        <v>0.23119002193578853</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6684,7 +6845,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45064270154471087</v>
+        <v>9.6238082253617407E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6693,7 +6854,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80924281137216003</v>
+        <v>0.41267663922657138</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6702,7 +6863,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3863412917667175</v>
+        <v>0.12706875630125902</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6711,7 +6872,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50147017900470015</v>
+        <v>0.96371385336440918</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6720,7 +6881,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36432371480868242</v>
+        <v>0.49666782431960055</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6729,7 +6890,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39052737707694007</v>
+        <v>0.20958858226325294</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6738,7 +6899,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18565301535905598</v>
+        <v>0.10684265832918671</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6747,7 +6908,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94696415754004848</v>
+        <v>0.35481039227108502</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6756,7 +6917,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8023942322766189E-2</v>
+        <v>5.3943013476567714E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6765,7 +6926,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37949677915822955</v>
+        <v>0.52957606853061789</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6774,7 +6935,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90972863196834375</v>
+        <v>0.86902500180649578</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6783,7 +6944,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64527906607129748</v>
+        <v>0.66444568403644733</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6792,7 +6953,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38328636844222341</v>
+        <v>0.32998766672844093</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6801,7 +6962,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83804432777000748</v>
+        <v>0.57392420979217418</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6810,7 +6971,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99840082263189678</v>
+        <v>0.68556560952369816</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6819,7 +6980,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7356882159619258</v>
+        <v>0.23575938974352117</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DEC960-2A7E-47EF-AD20-8CE4867093E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C46B1A6-8E16-491A-A62F-5555A2F0EC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="45">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -734,7 +734,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM31" sqref="AM31"/>
+      <selection pane="bottomRight" activeCell="AN24" sqref="AN24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,6 +1174,9 @@
       <c r="AM3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
@@ -1313,6 +1316,9 @@
       <c r="AM4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -1712,6 +1718,9 @@
       <c r="AM7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -1851,6 +1860,9 @@
       <c r="AM8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -1990,6 +2002,9 @@
       <c r="AM9" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AN9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -2129,7 +2144,9 @@
       <c r="AM10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="4"/>
+      <c r="AN10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
@@ -2269,7 +2286,9 @@
       <c r="AM11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AN11" s="4"/>
+      <c r="AN11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
@@ -2539,6 +2558,9 @@
       <c r="AM13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2678,6 +2700,9 @@
       <c r="AM14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2817,6 +2842,9 @@
       <c r="AM15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2956,6 +2984,9 @@
       <c r="AM16" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -3095,6 +3126,9 @@
       <c r="AM17" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -3234,7 +3268,9 @@
       <c r="AM18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AN18" s="4"/>
+      <c r="AN18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
@@ -3374,7 +3410,9 @@
       <c r="AM19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AN19" s="4"/>
+      <c r="AN19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
@@ -3514,6 +3552,9 @@
       <c r="AM20" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -3653,6 +3694,9 @@
       <c r="AM21" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -3792,6 +3836,9 @@
       <c r="AM22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3931,6 +3978,9 @@
       <c r="AM23" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -4070,6 +4120,9 @@
       <c r="AM24" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -4209,6 +4262,9 @@
       <c r="AM25" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -4348,6 +4404,9 @@
       <c r="AM26" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -4487,6 +4546,9 @@
       <c r="AM27" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -4626,7 +4688,9 @@
       <c r="AM28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AN28" s="4"/>
+      <c r="AN28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
@@ -4766,6 +4830,9 @@
       <c r="AM29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -4905,6 +4972,9 @@
       <c r="AM30" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AN30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -5042,6 +5112,9 @@
         <v>39</v>
       </c>
       <c r="AM31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AO31" s="4"/>
@@ -6746,7 +6819,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.91139794556458642</v>
+        <v>0.61529861789628171</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6755,7 +6828,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1857139872829907E-2</v>
+        <v>0.22218232390910986</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6764,7 +6837,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46755352260823313</v>
+        <v>0.68078062163456698</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6773,7 +6846,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81429604651491949</v>
+        <v>0.64447001252501723</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6782,7 +6855,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96350124101079293</v>
+        <v>0.45024374794902711</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6791,7 +6864,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7567208689765512E-2</v>
+        <v>0.83148794691713945</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6800,7 +6873,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77036502738002999</v>
+        <v>6.7336626785653886E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6809,7 +6882,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20752363176351729</v>
+        <v>0.98458733769365925</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6818,7 +6891,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66891766398863506</v>
+        <v>0.51484187602292264</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6827,7 +6900,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97073081224227109</v>
+        <v>0.57448438611782104</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6836,7 +6909,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23119002193578853</v>
+        <v>0.97544847271016721</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6845,7 +6918,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6238082253617407E-2</v>
+        <v>0.10809418158620876</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6854,7 +6927,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41267663922657138</v>
+        <v>0.32701854704131539</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6863,7 +6936,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12706875630125902</v>
+        <v>0.89515028454743661</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6872,7 +6945,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96371385336440918</v>
+        <v>0.92881130048381411</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6881,7 +6954,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49666782431960055</v>
+        <v>0.74007336294025017</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6890,7 +6963,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20958858226325294</v>
+        <v>0.50326956301112491</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6899,7 +6972,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10684265832918671</v>
+        <v>0.198773933541883</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6908,7 +6981,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35481039227108502</v>
+        <v>1.2184774065934101E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6917,7 +6990,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3943013476567714E-2</v>
+        <v>0.1384537131581981</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6926,7 +6999,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52957606853061789</v>
+        <v>0.36766193946595183</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6935,7 +7008,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86902500180649578</v>
+        <v>0.90376958059481605</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6944,7 +7017,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66444568403644733</v>
+        <v>0.65684540602971775</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6953,7 +7026,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32998766672844093</v>
+        <v>0.50801125098737254</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6962,7 +7035,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57392420979217418</v>
+        <v>0.55431372900117826</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6971,7 +7044,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68556560952369816</v>
+        <v>0.58567149868655655</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6980,7 +7053,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23575938974352117</v>
+        <v>0.11799826433127814</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C46B1A6-8E16-491A-A62F-5555A2F0EC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48528548-588C-4053-9ED2-941ED1FFA30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="45">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -734,7 +734,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN24" sqref="AN24"/>
+      <selection pane="bottomRight" activeCell="AO30" sqref="AO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1177,9 @@
       <c r="AN3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="4"/>
+      <c r="AO3" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
@@ -1319,7 +1321,9 @@
       <c r="AN4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="4"/>
+      <c r="AO4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
@@ -1721,7 +1725,9 @@
       <c r="AN7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO7" s="4"/>
+      <c r="AO7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4"/>
@@ -1863,7 +1869,9 @@
       <c r="AN8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO8" s="4"/>
+      <c r="AO8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
@@ -2005,7 +2013,9 @@
       <c r="AN9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO9" s="4"/>
+      <c r="AO9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
       <c r="AR9" s="4"/>
@@ -2147,7 +2157,9 @@
       <c r="AN10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO10" s="4"/>
+      <c r="AO10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
@@ -2289,7 +2301,9 @@
       <c r="AN11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO11" s="4"/>
+      <c r="AO11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
@@ -2561,7 +2575,9 @@
       <c r="AN13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO13" s="4"/>
+      <c r="AO13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
@@ -2703,7 +2719,9 @@
       <c r="AN14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO14" s="4"/>
+      <c r="AO14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
@@ -2845,7 +2863,9 @@
       <c r="AN15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO15" s="4"/>
+      <c r="AO15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
@@ -2987,7 +3007,9 @@
       <c r="AN16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO16" s="4"/>
+      <c r="AO16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
@@ -3129,7 +3151,9 @@
       <c r="AN17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO17" s="4"/>
+      <c r="AO17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
@@ -3271,7 +3295,9 @@
       <c r="AN18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO18" s="4"/>
+      <c r="AO18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
@@ -3413,7 +3439,9 @@
       <c r="AN19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO19" s="4"/>
+      <c r="AO19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4"/>
@@ -3555,7 +3583,9 @@
       <c r="AN20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO20" s="4"/>
+      <c r="AO20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
       <c r="AR20" s="4"/>
@@ -3697,7 +3727,9 @@
       <c r="AN21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AO21" s="4"/>
+      <c r="AO21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
       <c r="AR21" s="4"/>
@@ -3839,7 +3871,9 @@
       <c r="AN22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO22" s="4"/>
+      <c r="AO22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
       <c r="AR22" s="4"/>
@@ -3981,7 +4015,9 @@
       <c r="AN23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO23" s="4"/>
+      <c r="AO23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
       <c r="AR23" s="4"/>
@@ -4123,7 +4159,9 @@
       <c r="AN24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO24" s="4"/>
+      <c r="AO24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
       <c r="AR24" s="4"/>
@@ -4265,7 +4303,9 @@
       <c r="AN25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO25" s="4"/>
+      <c r="AO25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
       <c r="AR25" s="4"/>
@@ -4407,7 +4447,9 @@
       <c r="AN26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO26" s="4"/>
+      <c r="AO26" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
@@ -4549,7 +4591,9 @@
       <c r="AN27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO27" s="4"/>
+      <c r="AO27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
       <c r="AR27" s="4"/>
@@ -4691,7 +4735,9 @@
       <c r="AN28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO28" s="4"/>
+      <c r="AO28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
@@ -4833,7 +4879,9 @@
       <c r="AN29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO29" s="4"/>
+      <c r="AO29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
@@ -4975,7 +5023,9 @@
       <c r="AN30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO30" s="4"/>
+      <c r="AO30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
@@ -5117,7 +5167,9 @@
       <c r="AN31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO31" s="4"/>
+      <c r="AO31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
       <c r="AR31" s="4"/>
@@ -6819,7 +6871,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.61529861789628171</v>
+        <v>0.50443409399202455</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6828,7 +6880,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22218232390910986</v>
+        <v>0.70115281067240931</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6837,7 +6889,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68078062163456698</v>
+        <v>0.25013384181427456</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6846,7 +6898,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64447001252501723</v>
+        <v>0.92595916002514544</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6855,7 +6907,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45024374794902711</v>
+        <v>0.48481403154756608</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6864,7 +6916,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83148794691713945</v>
+        <v>0.54403791505809918</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6873,7 +6925,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7336626785653886E-2</v>
+        <v>0.51228992127658102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6882,7 +6934,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98458733769365925</v>
+        <v>0.61239508017671984</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6891,7 +6943,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51484187602292264</v>
+        <v>0.54146722102401967</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6900,7 +6952,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57448438611782104</v>
+        <v>0.41527575800209071</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6909,7 +6961,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97544847271016721</v>
+        <v>3.4473877986855417E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6918,7 +6970,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10809418158620876</v>
+        <v>0.53727251918030672</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6927,7 +6979,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32701854704131539</v>
+        <v>0.87755795394106884</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6936,7 +6988,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89515028454743661</v>
+        <v>0.23797841893857652</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6945,7 +6997,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92881130048381411</v>
+        <v>0.97170840219403976</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6954,7 +7006,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74007336294025017</v>
+        <v>0.33314660033285848</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6963,7 +7015,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50326956301112491</v>
+        <v>0.58170843571432873</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6972,7 +7024,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.198773933541883</v>
+        <v>0.45549603762038204</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6981,7 +7033,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2184774065934101E-2</v>
+        <v>0.77887797979883644</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6990,7 +7042,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1384537131581981</v>
+        <v>0.44243565898428183</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6999,7 +7051,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36766193946595183</v>
+        <v>0.9293146786732035</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7008,7 +7060,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90376958059481605</v>
+        <v>0.39127386129179964</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7017,7 +7069,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65684540602971775</v>
+        <v>0.26515002499302642</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7026,7 +7078,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50801125098737254</v>
+        <v>0.39070638649472678</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7035,7 +7087,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55431372900117826</v>
+        <v>0.26035796445587356</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7044,7 +7096,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58567149868655655</v>
+        <v>0.3264282768704303</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7053,7 +7105,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11799826433127814</v>
+        <v>8.2376239890987302E-2</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48528548-588C-4053-9ED2-941ED1FFA30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="INDMO" sheetId="9" r:id="rId5"/>
     <sheet name="sorteios" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Aluno</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{221AFFBC-E3A3-4997-98AA-437C41A6A2DE}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="45">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -204,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -283,11 +282,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -727,14 +789,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO30" sqref="AO30"/>
+      <selection pane="bottomRight" activeCell="AQ31" sqref="AQ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,10 +817,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2">
         <v>44949</v>
       </c>
@@ -1180,8 +1242,12 @@
       <c r="AO3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
+      <c r="AP3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AT3" s="4"/>
@@ -1324,8 +1390,12 @@
       <c r="AO4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
+      <c r="AP4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
       <c r="AT4" s="4"/>
@@ -1454,8 +1524,8 @@
         <v>40</v>
       </c>
       <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
       <c r="AT5" s="4"/>
@@ -1584,8 +1654,8 @@
         <v>40</v>
       </c>
       <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
@@ -1728,8 +1798,12 @@
       <c r="AO7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
+      <c r="AP7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR7" s="4"/>
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
@@ -1872,8 +1946,12 @@
       <c r="AO8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
+      <c r="AP8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -2016,8 +2094,12 @@
       <c r="AO9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
+      <c r="AP9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ9" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR9" s="4"/>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -2160,8 +2242,12 @@
       <c r="AO10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
+      <c r="AP10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ10" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AT10" s="4"/>
@@ -2304,8 +2390,12 @@
       <c r="AO11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
+      <c r="AP11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
@@ -2434,8 +2524,8 @@
         <v>40</v>
       </c>
       <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -2578,8 +2668,12 @@
       <c r="AO13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
+      <c r="AP13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR13" s="4"/>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
@@ -2722,8 +2816,12 @@
       <c r="AO14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
+      <c r="AP14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ14" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR14" s="4"/>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
@@ -2866,8 +2964,12 @@
       <c r="AO15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
+      <c r="AP15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ15" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
@@ -3010,8 +3112,12 @@
       <c r="AO16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
+      <c r="AP16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ16" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR16" s="4"/>
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
@@ -3154,8 +3260,12 @@
       <c r="AO17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
+      <c r="AP17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ17" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR17" s="4"/>
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
@@ -3298,8 +3408,12 @@
       <c r="AO18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
+      <c r="AP18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ18" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR18" s="4"/>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
@@ -3442,8 +3556,12 @@
       <c r="AO19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
+      <c r="AP19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR19" s="4"/>
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
@@ -3586,8 +3704,12 @@
       <c r="AO20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
+      <c r="AP20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ20" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR20" s="4"/>
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
@@ -3730,8 +3852,12 @@
       <c r="AO21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
+      <c r="AP21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ21" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR21" s="4"/>
       <c r="AS21" s="4"/>
       <c r="AT21" s="4"/>
@@ -3874,8 +4000,12 @@
       <c r="AO22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
+      <c r="AP22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ22" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
@@ -4018,8 +4148,12 @@
       <c r="AO23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
+      <c r="AP23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
@@ -4162,8 +4296,12 @@
       <c r="AO24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
+      <c r="AP24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
       <c r="AT24" s="4"/>
@@ -4304,10 +4442,14 @@
         <v>39</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="AP25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ25" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
       <c r="AT25" s="4"/>
@@ -4450,8 +4592,12 @@
       <c r="AO26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
+      <c r="AP26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ26" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
@@ -4594,8 +4740,12 @@
       <c r="AO27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
+      <c r="AP27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ27" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
@@ -4738,8 +4888,12 @@
       <c r="AO28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
+      <c r="AP28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ28" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
@@ -4882,8 +5036,12 @@
       <c r="AO29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
+      <c r="AP29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ29" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
@@ -5026,8 +5184,12 @@
       <c r="AO30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
+      <c r="AP30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ30" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
@@ -5170,8 +5332,12 @@
       <c r="AO31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
+      <c r="AP31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ31" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR31" s="4"/>
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
@@ -5194,18 +5360,34 @@
       <c r="AG38" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G31">
+  <sortState ref="A3:G31">
     <sortCondition ref="A2:A31"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 BI3:XFD31 M7:AG7 A3:BH3 N8:AG31 A32:XFD1048576 A4:AG6 AH4:BH31 A1:XFD2">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 M7:AG7 A3:AO3 N8:AG31 A32:XFD1048576 A4:AG6 AH4:AO31 A1:XFD2 AR3:XFD31">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP3:AP31">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ3:AQ31">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5215,7 +5397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5540,15 +5722,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E30">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5558,7 +5740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5879,15 +6061,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5897,7 +6079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6486,15 +6668,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6505,7 +6687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6826,15 +7008,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6844,7 +7026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6871,7 +7053,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.50443409399202455</v>
+        <v>0.36152239102862294</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6880,7 +7062,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70115281067240931</v>
+        <v>0.40178357064872916</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6889,7 +7071,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25013384181427456</v>
+        <v>0.9742517968470249</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6898,7 +7080,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92595916002514544</v>
+        <v>0.72756189381491576</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6907,7 +7089,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48481403154756608</v>
+        <v>0.80606658891064786</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6916,7 +7098,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54403791505809918</v>
+        <v>0.74459380229972405</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6925,7 +7107,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51228992127658102</v>
+        <v>0.81122547017380231</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6934,7 +7116,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61239508017671984</v>
+        <v>0.70900706130963809</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6943,7 +7125,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54146722102401967</v>
+        <v>0.8589583750477261</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6952,7 +7134,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41527575800209071</v>
+        <v>0.83847785569510025</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6961,7 +7143,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4473877986855417E-2</v>
+        <v>0.65182432705431681</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6970,7 +7152,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53727251918030672</v>
+        <v>0.64304646313159397</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6979,7 +7161,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87755795394106884</v>
+        <v>0.87333668689262833</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +7170,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23797841893857652</v>
+        <v>0.4294857643368386</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6997,7 +7179,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97170840219403976</v>
+        <v>0.53352397199165635</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7006,7 +7188,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33314660033285848</v>
+        <v>0.59255599224958488</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7015,7 +7197,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58170843571432873</v>
+        <v>9.7930212940910977E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7024,7 +7206,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45549603762038204</v>
+        <v>0.49593971494811662</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7033,7 +7215,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77887797979883644</v>
+        <v>0.88744249597022895</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7042,7 +7224,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44243565898428183</v>
+        <v>0.35370577454449847</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7051,7 +7233,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9293146786732035</v>
+        <v>0.48345315399652344</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +7242,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39127386129179964</v>
+        <v>0.50952826058097367</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7069,7 +7251,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26515002499302642</v>
+        <v>0.34868413745199467</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7078,7 +7260,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39070638649472678</v>
+        <v>0.10693420497034234</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7087,7 +7269,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26035796445587356</v>
+        <v>0.24337377590031473</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7096,7 +7278,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3264282768704303</v>
+        <v>0.92311452070771327</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7105,18 +7287,18 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2376239890987302E-2</v>
+        <v>0.57083444801532679</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
+  <sortState ref="A2:B28">
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12885"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="45">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -289,7 +289,97 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1525,7 +1615,9 @@
       </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
+      <c r="AQ5" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
       <c r="AT5" s="4"/>
@@ -1654,8 +1746,12 @@
         <v>40</v>
       </c>
       <c r="AO6" s="4"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
+      <c r="AP6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
@@ -2524,8 +2620,12 @@
         <v>40</v>
       </c>
       <c r="AO12" s="4"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
+      <c r="AP12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -5367,15 +5467,39 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 M7:AG7 A3:AO3 N8:AG31 A32:XFD1048576 A4:AG6 AH4:AO31 A1:XFD2 AR3:XFD31">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 M7:AG7 A3:AO3 N8:AG31 A32:XFD1048576 A4:AG6 A1:XFD2 AH4:AO31 AR3:XFD31">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP3:AP31">
+  <conditionalFormatting sqref="AP3 AP12:AP24 AP5:AP10">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25:AP31">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ3:AQ31">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP11">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -5383,7 +5507,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ3:AQ31">
+  <conditionalFormatting sqref="AP4">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -5722,15 +5846,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E30">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6061,15 +6185,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6668,15 +6792,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7008,15 +7132,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7053,7 +7177,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.36152239102862294</v>
+        <v>0.79234946212315582</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7062,7 +7186,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40178357064872916</v>
+        <v>0.76441810425486478</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7071,7 +7195,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9742517968470249</v>
+        <v>0.1748728788715832</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7080,7 +7204,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72756189381491576</v>
+        <v>0.76717896278023701</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7089,7 +7213,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80606658891064786</v>
+        <v>0.26570249224800035</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7098,7 +7222,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74459380229972405</v>
+        <v>0.17349054089495242</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7107,7 +7231,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81122547017380231</v>
+        <v>0.43296959050680983</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,7 +7240,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70900706130963809</v>
+        <v>0.10281975375749197</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7125,7 +7249,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8589583750477261</v>
+        <v>0.82584471862912134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7134,7 +7258,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83847785569510025</v>
+        <v>0.46439136660783398</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7143,7 +7267,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65182432705431681</v>
+        <v>0.89964359642357783</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7152,7 +7276,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64304646313159397</v>
+        <v>0.51272047737605952</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7161,7 +7285,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87333668689262833</v>
+        <v>0.46084829330795263</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7170,7 +7294,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4294857643368386</v>
+        <v>6.583862039264643E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7179,7 +7303,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53352397199165635</v>
+        <v>0.27660678285639939</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7188,7 +7312,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59255599224958488</v>
+        <v>0.46981558726074901</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7197,7 +7321,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7930212940910977E-3</v>
+        <v>0.64996396498528841</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7206,7 +7330,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49593971494811662</v>
+        <v>0.77767417836987551</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7215,7 +7339,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88744249597022895</v>
+        <v>0.68670182728635731</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7224,7 +7348,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35370577454449847</v>
+        <v>0.43895990357071413</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7233,7 +7357,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48345315399652344</v>
+        <v>0.40820611224902337</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7242,7 +7366,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50952826058097367</v>
+        <v>0.74748398864229526</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7251,7 +7375,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34868413745199467</v>
+        <v>0.61738205713709982</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7260,7 +7384,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10693420497034234</v>
+        <v>0.80766190400785454</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7269,7 +7393,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24337377590031473</v>
+        <v>0.25680569702949707</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7278,7 +7402,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92311452070771327</v>
+        <v>0.28403580805395368</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7287,7 +7411,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57083444801532679</v>
+        <v>0.85390086835616941</v>
       </c>
     </row>
   </sheetData>
@@ -7295,10 +7419,10 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48528548-588C-4053-9ED2-941ED1FFA30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2B0ECD-D443-4D3A-957E-C9F762426128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -307,6 +318,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -382,16 +403,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -731,10 +742,10 @@
   <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO30" sqref="AO30"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,19 +923,19 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>35</v>
@@ -2324,7 +2335,7 @@
       <c r="BG11" s="4"/>
       <c r="BH11" s="4"/>
     </row>
-    <row r="12" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5201,7 +5212,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A7:G7 A8:H22 I7:I22 J11:J22 A23:J31 K11:M31 J8:M10 BI3:XFD31 M7:AG7 A3:BH3 N8:AG31 A32:XFD1048576 A4:AG6 AH4:BH31 A1:XFD2">
+  <conditionalFormatting sqref="A7:G7 A8:H22 A23:J31 A4:AG6 A3:BH3 A32:XFD1048576 I7:I22 J11:J22 J8:M10 K11:M31 M7:AG7 N8:AG31 AH4:BH31 BI3:XFD31 A1:XFD2">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -5539,17 +5550,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E30">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
-      <formula>50</formula>
+  <conditionalFormatting sqref="A2:A30">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
-      <formula>"F"</formula>
+  <conditionalFormatting sqref="B2:E30">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5878,17 +5889,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
-      <formula>50</formula>
+  <conditionalFormatting sqref="A2:A30">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>"F"</formula>
+  <conditionalFormatting sqref="B2:D30">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6485,17 +6496,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
-      <formula>50</formula>
+  <conditionalFormatting sqref="A2:A30">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"F"</formula>
+  <conditionalFormatting sqref="B2:D30">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6825,17 +6836,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
-      <formula>50</formula>
+  <conditionalFormatting sqref="A2:A30">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"F"</formula>
+  <conditionalFormatting sqref="B2:D30">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6871,7 +6882,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.50443409399202455</v>
+        <v>0.86361672962701674</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6880,7 +6891,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70115281067240931</v>
+        <v>0.17595384217998389</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6889,7 +6900,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25013384181427456</v>
+        <v>0.70153235799125235</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6898,7 +6909,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92595916002514544</v>
+        <v>0.75209455019844074</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6907,7 +6918,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48481403154756608</v>
+        <v>0.61086480377644314</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6916,7 +6927,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54403791505809918</v>
+        <v>0.11290577910705868</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6925,7 +6936,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51228992127658102</v>
+        <v>0.15430623027397972</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6934,7 +6945,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61239508017671984</v>
+        <v>0.35472779416644518</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6943,7 +6954,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54146722102401967</v>
+        <v>7.6227180980863452E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6952,7 +6963,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41527575800209071</v>
+        <v>0.41245233561753014</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6961,7 +6972,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4473877986855417E-2</v>
+        <v>0.21927840050210179</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6970,7 +6981,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53727251918030672</v>
+        <v>0.65022467586280852</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6979,7 +6990,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87755795394106884</v>
+        <v>0.35488593880852504</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +6999,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23797841893857652</v>
+        <v>0.76718372936544199</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6997,7 +7008,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97170840219403976</v>
+        <v>0.45054097153451778</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7006,7 +7017,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33314660033285848</v>
+        <v>0.72171257623448393</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7015,7 +7026,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58170843571432873</v>
+        <v>0.92702012263787559</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7024,7 +7035,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45549603762038204</v>
+        <v>4.1141152065727882E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7033,7 +7044,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77887797979883644</v>
+        <v>0.18429183000544092</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7042,7 +7053,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44243565898428183</v>
+        <v>0.57348505893745494</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7051,7 +7062,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9293146786732035</v>
+        <v>0.82321036645620105</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +7071,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39127386129179964</v>
+        <v>0.85982457144971181</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7069,7 +7080,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26515002499302642</v>
+        <v>8.754186448003487E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7078,7 +7089,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39070638649472678</v>
+        <v>0.39059068655118168</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7087,7 +7098,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26035796445587356</v>
+        <v>0.26600038713562701</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7096,7 +7107,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3264282768704303</v>
+        <v>0.71468412064857334</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7105,7 +7116,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2376239890987302E-2</v>
+        <v>0.73629608347772468</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2B0ECD-D443-4D3A-957E-C9F762426128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F1E9AB-E85B-434F-8C08-02ACA15E2A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="45">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -741,11 +730,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="AS31" sqref="AS31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,10 +1180,18 @@
       <c r="AO3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
+      <c r="AP3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
@@ -1335,10 +1332,18 @@
       <c r="AO4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
+      <c r="AP4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
@@ -1465,10 +1470,18 @@
         <v>40</v>
       </c>
       <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
+      <c r="AP5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT5" s="4"/>
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
@@ -1595,10 +1608,18 @@
         <v>40</v>
       </c>
       <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
+      <c r="AP6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
@@ -1739,10 +1760,18 @@
       <c r="AO7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
+      <c r="AP7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
@@ -1883,10 +1912,18 @@
       <c r="AO8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
+      <c r="AP8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
@@ -2027,10 +2064,18 @@
       <c r="AO9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
+      <c r="AP9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
@@ -2171,10 +2216,18 @@
       <c r="AO10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
+      <c r="AP10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT10" s="4"/>
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
@@ -2315,10 +2368,18 @@
       <c r="AO11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
+      <c r="AP11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
@@ -2445,10 +2506,18 @@
         <v>40</v>
       </c>
       <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
+      <c r="AP12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
@@ -2589,10 +2658,18 @@
       <c r="AO13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
+      <c r="AP13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
@@ -2733,10 +2810,18 @@
       <c r="AO14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
+      <c r="AP14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
@@ -2877,10 +2962,18 @@
       <c r="AO15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
+      <c r="AP15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -3021,10 +3114,18 @@
       <c r="AO16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
+      <c r="AP16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -3165,10 +3266,18 @@
       <c r="AO17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
+      <c r="AP17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
@@ -3309,10 +3418,18 @@
       <c r="AO18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
+      <c r="AP18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
@@ -3453,10 +3570,18 @@
       <c r="AO19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
+      <c r="AP19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
       <c r="AV19" s="4"/>
@@ -3597,10 +3722,18 @@
       <c r="AO20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
+      <c r="AP20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
       <c r="AV20" s="4"/>
@@ -3741,10 +3874,18 @@
       <c r="AO21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
+      <c r="AP21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT21" s="4"/>
       <c r="AU21" s="4"/>
       <c r="AV21" s="4"/>
@@ -3885,10 +4026,18 @@
       <c r="AO22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
+      <c r="AP22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
       <c r="AV22" s="4"/>
@@ -4029,10 +4178,18 @@
       <c r="AO23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
+      <c r="AP23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT23" s="4"/>
       <c r="AU23" s="4"/>
       <c r="AV23" s="4"/>
@@ -4173,10 +4330,18 @@
       <c r="AO24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
+      <c r="AP24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT24" s="4"/>
       <c r="AU24" s="4"/>
       <c r="AV24" s="4"/>
@@ -4317,10 +4482,18 @@
       <c r="AO25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
+      <c r="AP25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT25" s="4"/>
       <c r="AU25" s="4"/>
       <c r="AV25" s="4"/>
@@ -4461,10 +4634,18 @@
       <c r="AO26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
+      <c r="AP26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT26" s="4"/>
       <c r="AU26" s="4"/>
       <c r="AV26" s="4"/>
@@ -4605,10 +4786,18 @@
       <c r="AO27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
+      <c r="AP27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT27" s="4"/>
       <c r="AU27" s="4"/>
       <c r="AV27" s="4"/>
@@ -4749,10 +4938,18 @@
       <c r="AO28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
+      <c r="AP28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
       <c r="AV28" s="4"/>
@@ -4893,10 +5090,18 @@
       <c r="AO29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
+      <c r="AP29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT29" s="4"/>
       <c r="AU29" s="4"/>
       <c r="AV29" s="4"/>
@@ -5037,10 +5242,18 @@
       <c r="AO30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
-      <c r="AS30" s="4"/>
+      <c r="AP30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT30" s="4"/>
       <c r="AU30" s="4"/>
       <c r="AV30" s="4"/>
@@ -5181,10 +5394,18 @@
       <c r="AO31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="4"/>
+      <c r="AP31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AT31" s="4"/>
       <c r="AU31" s="4"/>
       <c r="AV31" s="4"/>
@@ -5212,7 +5433,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A7:G7 A8:H22 A23:J31 A4:AG6 A3:BH3 A32:XFD1048576 I7:I22 J11:J22 J8:M10 K11:M31 M7:AG7 N8:AG31 AH4:BH31 BI3:XFD31 A1:XFD2">
+  <conditionalFormatting sqref="A7:G7 A8:H22 A23:J31 A4:AG6 A32:XFD1048576 I7:I22 J11:J22 J8:M10 K11:M31 M7:AG7 N8:AG31 BI3:XFD31 A1:XFD2 A3:BH3 AH4:BH31">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -6882,7 +7103,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.86361672962701674</v>
+        <v>0.12941078610410306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6891,7 +7112,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17595384217998389</v>
+        <v>0.49943400305748042</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6900,7 +7121,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70153235799125235</v>
+        <v>0.89038150396849247</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6909,7 +7130,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75209455019844074</v>
+        <v>0.5941882441455888</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6918,7 +7139,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61086480377644314</v>
+        <v>0.36122050426840568</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6927,7 +7148,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11290577910705868</v>
+        <v>0.87631482080228518</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6936,7 +7157,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15430623027397972</v>
+        <v>0.33976371442435749</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6945,7 +7166,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35472779416644518</v>
+        <v>0.99907852197104074</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6954,7 +7175,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6227180980863452E-3</v>
+        <v>0.89249126508544807</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6963,7 +7184,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41245233561753014</v>
+        <v>0.86784219556996978</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6972,7 +7193,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21927840050210179</v>
+        <v>0.16717688628074079</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6981,7 +7202,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65022467586280852</v>
+        <v>7.1218071151611606E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6990,7 +7211,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35488593880852504</v>
+        <v>0.78346437615776443</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6999,7 +7220,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76718372936544199</v>
+        <v>0.18285309733018063</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7008,7 +7229,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45054097153451778</v>
+        <v>3.0712934833303951E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7017,7 +7238,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72171257623448393</v>
+        <v>0.53177027713911795</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7026,7 +7247,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92702012263787559</v>
+        <v>0.13531534078013829</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7035,7 +7256,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1141152065727882E-3</v>
+        <v>0.69146922305321812</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7044,7 +7265,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18429183000544092</v>
+        <v>0.13788718620610574</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7053,7 +7274,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57348505893745494</v>
+        <v>0.73130284921770383</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7062,7 +7283,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82321036645620105</v>
+        <v>0.99636611771568373</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7071,7 +7292,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85982457144971181</v>
+        <v>0.44320250307740361</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7080,7 +7301,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>8.754186448003487E-2</v>
+        <v>0.56179093025966997</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7089,7 +7310,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39059068655118168</v>
+        <v>0.56966168608227696</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7098,7 +7319,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26600038713562701</v>
+        <v>0.28879395704275779</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7107,7 +7328,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71468412064857334</v>
+        <v>0.62720739543180493</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,7 +7337,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73629608347772468</v>
+        <v>0.76502461026709778</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F1E9AB-E85B-434F-8C08-02ACA15E2A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C723F50-CDB4-4057-B89D-1A1BB3F7C877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="46">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>VOS01</t>
+  </si>
+  <si>
+    <t>Matheus De Oliveira Cavalcante</t>
   </si>
 </sst>
 </file>
@@ -731,10 +734,10 @@
   <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS31" sqref="AS31"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,6 +755,7 @@
     <col min="24" max="24" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="40" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="55" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -903,6 +907,21 @@
       <c r="AX1" s="2">
         <v>45016</v>
       </c>
+      <c r="AY1" s="2">
+        <v>45019</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>45020</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>45021</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>45022</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>45023</v>
+      </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1055,6 +1074,21 @@
       <c r="AX2" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="AY2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1192,7 +1226,9 @@
       <c r="AS3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT3" s="4"/>
+      <c r="AT3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
       <c r="AW3" s="4"/>
@@ -1344,7 +1380,9 @@
       <c r="AS4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT4" s="4"/>
+      <c r="AT4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
@@ -1772,7 +1810,9 @@
       <c r="AS7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AT7" s="4"/>
+      <c r="AT7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
@@ -1924,7 +1964,9 @@
       <c r="AS8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AT8" s="4"/>
+      <c r="AT8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
@@ -2076,7 +2118,9 @@
       <c r="AS9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AT9" s="4"/>
+      <c r="AT9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
       <c r="AW9" s="4"/>
@@ -2228,7 +2272,9 @@
       <c r="AS10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT10" s="4"/>
+      <c r="AT10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
@@ -2380,7 +2426,9 @@
       <c r="AS11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT11" s="4"/>
+      <c r="AT11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
@@ -2505,20 +2553,36 @@
       <c r="AJ12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AO12" s="4"/>
+      <c r="AK12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AP12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AQ12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AS12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AT12" s="4"/>
+      <c r="AT12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
@@ -2670,7 +2734,9 @@
       <c r="AS13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT13" s="4"/>
+      <c r="AT13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
@@ -2822,7 +2888,9 @@
       <c r="AS14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT14" s="4"/>
+      <c r="AT14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
@@ -2974,7 +3042,9 @@
       <c r="AS15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT15" s="4"/>
+      <c r="AT15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
@@ -3126,7 +3196,9 @@
       <c r="AS16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT16" s="4"/>
+      <c r="AT16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
@@ -3278,7 +3350,9 @@
       <c r="AS17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT17" s="4"/>
+      <c r="AT17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
@@ -3430,7 +3504,9 @@
       <c r="AS18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT18" s="4"/>
+      <c r="AT18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
@@ -3582,7 +3658,9 @@
       <c r="AS19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT19" s="4"/>
+      <c r="AT19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU19" s="4"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
@@ -3734,7 +3812,9 @@
       <c r="AS20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT20" s="4"/>
+      <c r="AT20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU20" s="4"/>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
@@ -3886,7 +3966,9 @@
       <c r="AS21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT21" s="4"/>
+      <c r="AT21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AU21" s="4"/>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4"/>
@@ -4038,7 +4120,9 @@
       <c r="AS22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT22" s="4"/>
+      <c r="AT22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU22" s="4"/>
       <c r="AV22" s="4"/>
       <c r="AW22" s="4"/>
@@ -4190,7 +4274,9 @@
       <c r="AS23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT23" s="4"/>
+      <c r="AT23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU23" s="4"/>
       <c r="AV23" s="4"/>
       <c r="AW23" s="4"/>
@@ -4208,7 +4294,7 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -4342,7 +4428,9 @@
       <c r="AS24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT24" s="4"/>
+      <c r="AT24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AU24" s="4"/>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
@@ -4494,7 +4582,9 @@
       <c r="AS25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT25" s="4"/>
+      <c r="AT25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU25" s="4"/>
       <c r="AV25" s="4"/>
       <c r="AW25" s="4"/>
@@ -4646,7 +4736,9 @@
       <c r="AS26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT26" s="4"/>
+      <c r="AT26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU26" s="4"/>
       <c r="AV26" s="4"/>
       <c r="AW26" s="4"/>
@@ -4798,7 +4890,9 @@
       <c r="AS27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT27" s="4"/>
+      <c r="AT27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU27" s="4"/>
       <c r="AV27" s="4"/>
       <c r="AW27" s="4"/>
@@ -4950,7 +5044,9 @@
       <c r="AS28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT28" s="4"/>
+      <c r="AT28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU28" s="4"/>
       <c r="AV28" s="4"/>
       <c r="AW28" s="4"/>
@@ -5102,7 +5198,9 @@
       <c r="AS29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT29" s="4"/>
+      <c r="AT29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU29" s="4"/>
       <c r="AV29" s="4"/>
       <c r="AW29" s="4"/>
@@ -5254,7 +5352,9 @@
       <c r="AS30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT30" s="4"/>
+      <c r="AT30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU30" s="4"/>
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
@@ -5406,7 +5506,9 @@
       <c r="AS31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT31" s="4"/>
+      <c r="AT31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AU31" s="4"/>
       <c r="AV31" s="4"/>
       <c r="AW31" s="4"/>
@@ -5433,7 +5535,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A7:G7 A8:H22 A23:J31 A4:AG6 A32:XFD1048576 I7:I22 J11:J22 J8:M10 K11:M31 M7:AG7 N8:AG31 BI3:XFD31 A1:XFD2 A3:BH3 AH4:BH31">
+  <conditionalFormatting sqref="A7:G7 A8:H22 A23:J31 A4:AG6 A32:XFD1048576 I7:I22 J11:J22 J8:M10 K11:M31 M7:AG7 N8:AG31 BI3:XFD31 A3:BH3 AH4:BH31 A1:XFD2">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -7103,7 +7205,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.12941078610410306</v>
+        <v>0.88000838335422282</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7112,7 +7214,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49943400305748042</v>
+        <v>0.6332134933903959</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7121,7 +7223,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89038150396849247</v>
+        <v>0.41123832056890708</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7130,7 +7232,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5941882441455888</v>
+        <v>9.9480877529230627E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7139,7 +7241,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36122050426840568</v>
+        <v>0.40719858505979689</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7148,7 +7250,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87631482080228518</v>
+        <v>0.39903933049397833</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7157,7 +7259,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33976371442435749</v>
+        <v>0.70103266350588878</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7166,7 +7268,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99907852197104074</v>
+        <v>0.39894095002765628</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7175,7 +7277,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89249126508544807</v>
+        <v>2.5002627382069265E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7184,7 +7286,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86784219556996978</v>
+        <v>0.87974455450866096</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7193,7 +7295,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16717688628074079</v>
+        <v>0.89190771718674511</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7202,7 +7304,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1218071151611606E-2</v>
+        <v>0.89730052604142785</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7211,7 +7313,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78346437615776443</v>
+        <v>0.11509854034287037</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7220,7 +7322,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18285309733018063</v>
+        <v>0.63292708271480058</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7229,7 +7331,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0712934833303951E-2</v>
+        <v>0.22109146939431112</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7238,7 +7340,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53177027713911795</v>
+        <v>0.12100272393770173</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7247,7 +7349,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13531534078013829</v>
+        <v>0.32693875703911335</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7256,7 +7358,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69146922305321812</v>
+        <v>0.97161228478002459</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7265,7 +7367,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13788718620610574</v>
+        <v>8.7044010800324867E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7274,7 +7376,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73130284921770383</v>
+        <v>0.77199089727372483</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7283,7 +7385,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99636611771568373</v>
+        <v>0.52724083690035861</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7292,7 +7394,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44320250307740361</v>
+        <v>0.44261901188641573</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7301,7 +7403,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56179093025966997</v>
+        <v>0.82938323818190818</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7310,7 +7412,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56966168608227696</v>
+        <v>9.7689113452522514E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7319,7 +7421,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28879395704275779</v>
+        <v>0.37153035795404277</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7328,7 +7430,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62720739543180493</v>
+        <v>0.4404640291613946</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7337,7 +7439,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76502461026709778</v>
+        <v>0.75368934512962338</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C723F50-CDB4-4057-B89D-1A1BB3F7C877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C371EF95-EB89-4C63-839F-9ADDD5DADED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="AT22" sqref="AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,7 +3967,7 @@
         <v>39</v>
       </c>
       <c r="AT21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AU21" s="4"/>
       <c r="AV21" s="4"/>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.88000838335422282</v>
+        <v>0.76398332384577639</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6332134933903959</v>
+        <v>0.55686661913238633</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41123832056890708</v>
+        <v>0.88488947604724089</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9480877529230627E-2</v>
+        <v>0.68280295056231122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40719858505979689</v>
+        <v>0.28427025006744167</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39903933049397833</v>
+        <v>0.16566713781684594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70103266350588878</v>
+        <v>6.4782981961353014E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39894095002765628</v>
+        <v>0.66773441144163503</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5002627382069265E-2</v>
+        <v>0.41748084798124896</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87974455450866096</v>
+        <v>0.70335085479009452</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89190771718674511</v>
+        <v>0.34851162168494432</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89730052604142785</v>
+        <v>0.39824302433968684</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11509854034287037</v>
+        <v>0.22940622833181867</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63292708271480058</v>
+        <v>0.63113050036398788</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22109146939431112</v>
+        <v>0.93891776787104597</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12100272393770173</v>
+        <v>0.14488220951580966</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32693875703911335</v>
+        <v>0.69771692905484117</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97161228478002459</v>
+        <v>0.81972683149851788</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7044010800324867E-2</v>
+        <v>0.61664132662039206</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77199089727372483</v>
+        <v>0.10267874506339691</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52724083690035861</v>
+        <v>0.30220694333413411</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44261901188641573</v>
+        <v>0.23065221618152998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82938323818190818</v>
+        <v>6.8542234115208545E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7689113452522514E-2</v>
+        <v>0.55286327247832401</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37153035795404277</v>
+        <v>0.10538576955819101</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4404640291613946</v>
+        <v>0.43949717795802645</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75368934512962338</v>
+        <v>0.26690464005725634</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C371EF95-EB89-4C63-839F-9ADDD5DADED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303677C5-91B5-4901-B857-168B3D460DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="46">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -737,7 +737,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT22" sqref="AT22"/>
+      <selection pane="bottomRight" activeCell="AU31" sqref="AU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,9 @@
       <c r="AT3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU3" s="4"/>
+      <c r="AU3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV3" s="4"/>
       <c r="AW3" s="4"/>
       <c r="AX3" s="4"/>
@@ -1383,7 +1385,9 @@
       <c r="AT4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU4" s="4"/>
+      <c r="AU4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
       <c r="AX4" s="4"/>
@@ -1813,7 +1817,9 @@
       <c r="AT7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AU7" s="4"/>
+      <c r="AU7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
@@ -1967,7 +1973,9 @@
       <c r="AT8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU8" s="4"/>
+      <c r="AU8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
       <c r="AX8" s="4"/>
@@ -2121,7 +2129,9 @@
       <c r="AT9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU9" s="4"/>
+      <c r="AU9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AV9" s="4"/>
       <c r="AW9" s="4"/>
       <c r="AX9" s="4"/>
@@ -2275,7 +2285,9 @@
       <c r="AT10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU10" s="4"/>
+      <c r="AU10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
       <c r="AX10" s="4"/>
@@ -2429,7 +2441,9 @@
       <c r="AT11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU11" s="4"/>
+      <c r="AU11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
@@ -2583,7 +2597,9 @@
       <c r="AT12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AU12" s="4"/>
+      <c r="AU12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
       <c r="AX12" s="4"/>
@@ -2737,7 +2753,9 @@
       <c r="AT13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU13" s="4"/>
+      <c r="AU13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
       <c r="AX13" s="4"/>
@@ -2891,7 +2909,9 @@
       <c r="AT14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU14" s="4"/>
+      <c r="AU14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
       <c r="AX14" s="4"/>
@@ -3045,7 +3065,9 @@
       <c r="AT15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU15" s="4"/>
+      <c r="AU15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
       <c r="AX15" s="4"/>
@@ -3199,7 +3221,9 @@
       <c r="AT16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU16" s="4"/>
+      <c r="AU16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
@@ -3353,7 +3377,9 @@
       <c r="AT17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU17" s="4"/>
+      <c r="AU17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
       <c r="AX17" s="4"/>
@@ -3507,7 +3533,9 @@
       <c r="AT18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU18" s="4"/>
+      <c r="AU18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
@@ -3661,7 +3689,9 @@
       <c r="AT19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU19" s="4"/>
+      <c r="AU19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
@@ -3815,7 +3845,9 @@
       <c r="AT20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU20" s="4"/>
+      <c r="AU20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
@@ -3969,7 +4001,9 @@
       <c r="AT21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU21" s="4"/>
+      <c r="AU21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
@@ -4123,7 +4157,9 @@
       <c r="AT22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU22" s="4"/>
+      <c r="AU22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV22" s="4"/>
       <c r="AW22" s="4"/>
       <c r="AX22" s="4"/>
@@ -4277,7 +4313,9 @@
       <c r="AT23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU23" s="4"/>
+      <c r="AU23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV23" s="4"/>
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
@@ -4431,7 +4469,9 @@
       <c r="AT24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AU24" s="4"/>
+      <c r="AU24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
@@ -4585,7 +4625,9 @@
       <c r="AT25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU25" s="4"/>
+      <c r="AU25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV25" s="4"/>
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
@@ -4739,7 +4781,9 @@
       <c r="AT26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU26" s="4"/>
+      <c r="AU26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV26" s="4"/>
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
@@ -4893,7 +4937,9 @@
       <c r="AT27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU27" s="4"/>
+      <c r="AU27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV27" s="4"/>
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
@@ -5047,7 +5093,9 @@
       <c r="AT28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU28" s="4"/>
+      <c r="AU28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV28" s="4"/>
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
@@ -5201,7 +5249,9 @@
       <c r="AT29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU29" s="4"/>
+      <c r="AU29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV29" s="4"/>
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
@@ -5355,7 +5405,9 @@
       <c r="AT30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU30" s="4"/>
+      <c r="AU30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
@@ -5509,7 +5561,9 @@
       <c r="AT31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU31" s="4"/>
+      <c r="AU31" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AV31" s="4"/>
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
@@ -7205,7 +7259,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.76398332384577639</v>
+        <v>0.62550274859817856</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7214,7 +7268,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55686661913238633</v>
+        <v>0.54176172278196677</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7223,7 +7277,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88488947604724089</v>
+        <v>0.17487528729205315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7232,7 +7286,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68280295056231122</v>
+        <v>7.3153621012809866E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7241,7 +7295,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28427025006744167</v>
+        <v>0.64121204726471115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7250,7 +7304,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16566713781684594</v>
+        <v>0.18926786587801303</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7259,7 +7313,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4782981961353014E-2</v>
+        <v>0.35853438866065723</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7322,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66773441144163503</v>
+        <v>0.7863268120749225</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7277,7 +7331,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41748084798124896</v>
+        <v>0.46019986512851363</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7286,7 +7340,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70335085479009452</v>
+        <v>0.23545023072477567</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7295,7 +7349,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34851162168494432</v>
+        <v>0.5038078828615361</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7304,7 +7358,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39824302433968684</v>
+        <v>0.57390625536504214</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7313,7 +7367,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22940622833181867</v>
+        <v>0.10776936899656142</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7322,7 +7376,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63113050036398788</v>
+        <v>0.28853665973489384</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7331,7 +7385,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93891776787104597</v>
+        <v>0.55573626288158984</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7394,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14488220951580966</v>
+        <v>0.75578363797671166</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7349,7 +7403,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69771692905484117</v>
+        <v>6.6208332678191595E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7358,7 +7412,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81972683149851788</v>
+        <v>0.34303414464744653</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7367,7 +7421,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61664132662039206</v>
+        <v>0.81248529449777984</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7376,7 +7430,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10267874506339691</v>
+        <v>0.89870097079721434</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7385,7 +7439,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30220694333413411</v>
+        <v>0.47103123800131452</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7394,7 +7448,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23065221618152998</v>
+        <v>0.14247318265401043</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7403,7 +7457,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8542234115208545E-2</v>
+        <v>0.48734976693651799</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7466,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55286327247832401</v>
+        <v>0.71409483201510182</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7421,7 +7475,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10538576955819101</v>
+        <v>0.68384332234435163</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7430,7 +7484,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43949717795802645</v>
+        <v>0.29082845315745631</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7439,7 +7493,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26690464005725634</v>
+        <v>0.82224928957770949</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303677C5-91B5-4901-B857-168B3D460DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0202B81-C965-406F-B5DB-9C0C29272143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="46">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -734,10 +734,10 @@
   <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU31" sqref="AU31"/>
+      <selection pane="bottomRight" activeCell="AU32" sqref="AU32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,9 @@
       <c r="AU3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV3" s="4"/>
+      <c r="AV3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW3" s="4"/>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
@@ -1388,7 +1390,9 @@
       <c r="AU4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV4" s="4"/>
+      <c r="AV4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW4" s="4"/>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
@@ -1820,7 +1824,9 @@
       <c r="AU7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV7" s="4"/>
+      <c r="AV7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
       <c r="AY7" s="4"/>
@@ -1976,7 +1982,9 @@
       <c r="AU8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV8" s="4"/>
+      <c r="AV8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW8" s="4"/>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
@@ -2132,7 +2140,9 @@
       <c r="AU9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AV9" s="4"/>
+      <c r="AV9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW9" s="4"/>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
@@ -2288,7 +2298,9 @@
       <c r="AU10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV10" s="4"/>
+      <c r="AV10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AW10" s="4"/>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
@@ -2444,7 +2456,9 @@
       <c r="AU11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV11" s="4"/>
+      <c r="AV11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
@@ -2600,7 +2614,9 @@
       <c r="AU12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AV12" s="4"/>
+      <c r="AV12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AW12" s="4"/>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
@@ -2756,7 +2772,9 @@
       <c r="AU13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV13" s="4"/>
+      <c r="AV13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
@@ -2912,7 +2930,9 @@
       <c r="AU14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV14" s="4"/>
+      <c r="AV14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW14" s="4"/>
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
@@ -3068,7 +3088,9 @@
       <c r="AU15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV15" s="4"/>
+      <c r="AV15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
@@ -3224,7 +3246,9 @@
       <c r="AU16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV16" s="4"/>
+      <c r="AV16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
@@ -3380,7 +3404,9 @@
       <c r="AU17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV17" s="4"/>
+      <c r="AV17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW17" s="4"/>
       <c r="AX17" s="4"/>
       <c r="AY17" s="4"/>
@@ -3536,7 +3562,9 @@
       <c r="AU18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV18" s="4"/>
+      <c r="AV18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
       <c r="AY18" s="4"/>
@@ -3692,7 +3720,9 @@
       <c r="AU19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV19" s="4"/>
+      <c r="AV19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
       <c r="AY19" s="4"/>
@@ -3848,7 +3878,9 @@
       <c r="AU20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV20" s="4"/>
+      <c r="AV20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
       <c r="AY20" s="4"/>
@@ -4004,7 +4036,9 @@
       <c r="AU21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV21" s="4"/>
+      <c r="AV21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
@@ -4160,7 +4194,9 @@
       <c r="AU22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV22" s="4"/>
+      <c r="AV22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW22" s="4"/>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4"/>
@@ -4316,7 +4352,9 @@
       <c r="AU23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV23" s="4"/>
+      <c r="AV23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4"/>
@@ -4472,7 +4510,9 @@
       <c r="AU24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AV24" s="4"/>
+      <c r="AV24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4"/>
@@ -4628,7 +4668,9 @@
       <c r="AU25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV25" s="4"/>
+      <c r="AV25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4"/>
@@ -4784,7 +4826,9 @@
       <c r="AU26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV26" s="4"/>
+      <c r="AV26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
@@ -4940,7 +4984,9 @@
       <c r="AU27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV27" s="4"/>
+      <c r="AV27" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4"/>
@@ -5096,7 +5142,9 @@
       <c r="AU28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV28" s="4"/>
+      <c r="AV28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4"/>
@@ -5252,7 +5300,9 @@
       <c r="AU29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV29" s="4"/>
+      <c r="AV29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
@@ -5408,7 +5458,9 @@
       <c r="AU30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV30" s="4"/>
+      <c r="AV30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4"/>
@@ -5562,9 +5614,11 @@
         <v>39</v>
       </c>
       <c r="AU31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV31" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="AV31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4"/>
@@ -7259,7 +7313,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.62550274859817856</v>
+        <v>0.38234780383380895</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7322,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54176172278196677</v>
+        <v>0.45517263720932655</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7277,7 +7331,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17487528729205315</v>
+        <v>0.82782588813668434</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7286,7 +7340,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3153621012809866E-2</v>
+        <v>0.6605704100712193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7295,7 +7349,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64121204726471115</v>
+        <v>0.94714617576201365</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7304,7 +7358,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18926786587801303</v>
+        <v>0.91785724173850547</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7313,7 +7367,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35853438866065723</v>
+        <v>0.7051431902517018</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7322,7 +7376,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7863268120749225</v>
+        <v>0.16953272395670782</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7331,7 +7385,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46019986512851363</v>
+        <v>0.3452797111892989</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7394,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23545023072477567</v>
+        <v>0.81471743184847445</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7349,7 +7403,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5038078828615361</v>
+        <v>0.39993453945842505</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7358,7 +7412,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57390625536504214</v>
+        <v>0.96418841469920979</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7367,7 +7421,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10776936899656142</v>
+        <v>0.72311288250419337</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7376,7 +7430,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28853665973489384</v>
+        <v>0.64588650165725281</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7385,7 +7439,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55573626288158984</v>
+        <v>0.61865008586816628</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7394,7 +7448,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75578363797671166</v>
+        <v>0.63007233287317987</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7403,7 +7457,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6208332678191595E-2</v>
+        <v>0.64660993643257081</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7466,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34303414464744653</v>
+        <v>0.26206644672030088</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7421,7 +7475,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81248529449777984</v>
+        <v>0.49568579731034468</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7430,7 +7484,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89870097079721434</v>
+        <v>0.11745126163598862</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7439,7 +7493,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47103123800131452</v>
+        <v>0.37526868027420934</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7448,7 +7502,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14247318265401043</v>
+        <v>0.94666791581674981</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7457,7 +7511,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48734976693651799</v>
+        <v>0.87671302824038566</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7466,7 +7520,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71409483201510182</v>
+        <v>0.4538866546252166</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7475,7 +7529,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68384332234435163</v>
+        <v>0.33516433331802531</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7538,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29082845315745631</v>
+        <v>0.54876358551541027</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7493,7 +7547,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82224928957770949</v>
+        <v>0.16027821472848447</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0202B81-C965-406F-B5DB-9C0C29272143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8A1C5F-1051-4C96-92C0-31B3972B6C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="46">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -737,7 +737,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU32" sqref="AU32"/>
+      <selection pane="bottomRight" activeCell="AW27" sqref="AW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1235,9 @@
       <c r="AV3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW3" s="4"/>
+      <c r="AW3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
@@ -1393,7 +1395,9 @@
       <c r="AV4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="4"/>
+      <c r="AW4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4"/>
@@ -1827,7 +1831,9 @@
       <c r="AV7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW7" s="4"/>
+      <c r="AW7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX7" s="4"/>
       <c r="AY7" s="4"/>
       <c r="AZ7" s="4"/>
@@ -1985,7 +1991,9 @@
       <c r="AV8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW8" s="4"/>
+      <c r="AW8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
       <c r="AZ8" s="4"/>
@@ -2143,7 +2151,9 @@
       <c r="AV9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW9" s="4"/>
+      <c r="AW9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
@@ -2301,7 +2311,9 @@
       <c r="AV10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AW10" s="4"/>
+      <c r="AW10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4"/>
@@ -2459,7 +2471,9 @@
       <c r="AV11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW11" s="4"/>
+      <c r="AW11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
@@ -2617,7 +2631,9 @@
       <c r="AV12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AW12" s="4"/>
+      <c r="AW12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
@@ -2775,7 +2791,9 @@
       <c r="AV13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW13" s="4"/>
+      <c r="AW13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
@@ -2933,7 +2951,9 @@
       <c r="AV14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW14" s="4"/>
+      <c r="AW14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
@@ -3091,7 +3111,9 @@
       <c r="AV15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW15" s="4"/>
+      <c r="AW15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
@@ -3249,7 +3271,9 @@
       <c r="AV16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW16" s="4"/>
+      <c r="AW16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
       <c r="AZ16" s="4"/>
@@ -3407,7 +3431,9 @@
       <c r="AV17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW17" s="4"/>
+      <c r="AW17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX17" s="4"/>
       <c r="AY17" s="4"/>
       <c r="AZ17" s="4"/>
@@ -3565,7 +3591,9 @@
       <c r="AV18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW18" s="4"/>
+      <c r="AW18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX18" s="4"/>
       <c r="AY18" s="4"/>
       <c r="AZ18" s="4"/>
@@ -3723,7 +3751,9 @@
       <c r="AV19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW19" s="4"/>
+      <c r="AW19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX19" s="4"/>
       <c r="AY19" s="4"/>
       <c r="AZ19" s="4"/>
@@ -3881,7 +3911,9 @@
       <c r="AV20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW20" s="4"/>
+      <c r="AW20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX20" s="4"/>
       <c r="AY20" s="4"/>
       <c r="AZ20" s="4"/>
@@ -4039,7 +4071,9 @@
       <c r="AV21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW21" s="4"/>
+      <c r="AW21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
       <c r="AZ21" s="4"/>
@@ -4197,7 +4231,9 @@
       <c r="AV22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW22" s="4"/>
+      <c r="AW22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
@@ -4355,7 +4391,9 @@
       <c r="AV23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW23" s="4"/>
+      <c r="AW23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4"/>
       <c r="AZ23" s="4"/>
@@ -4513,7 +4551,9 @@
       <c r="AV24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW24" s="4"/>
+      <c r="AW24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4"/>
       <c r="AZ24" s="4"/>
@@ -4671,7 +4711,9 @@
       <c r="AV25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW25" s="4"/>
+      <c r="AW25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4"/>
       <c r="AZ25" s="4"/>
@@ -4829,7 +4871,9 @@
       <c r="AV26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW26" s="4"/>
+      <c r="AW26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
       <c r="AZ26" s="4"/>
@@ -4987,7 +5031,9 @@
       <c r="AV27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AW27" s="4"/>
+      <c r="AW27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4"/>
       <c r="AZ27" s="4"/>
@@ -5145,7 +5191,9 @@
       <c r="AV28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW28" s="4"/>
+      <c r="AW28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4"/>
       <c r="AZ28" s="4"/>
@@ -5303,7 +5351,9 @@
       <c r="AV29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW29" s="4"/>
+      <c r="AW29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
       <c r="AZ29" s="4"/>
@@ -5461,7 +5511,9 @@
       <c r="AV30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW30" s="4"/>
+      <c r="AW30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4"/>
       <c r="AZ30" s="4"/>
@@ -5619,7 +5671,9 @@
       <c r="AV31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AW31" s="4"/>
+      <c r="AW31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4"/>
       <c r="AZ31" s="4"/>
@@ -7313,7 +7367,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.38234780383380895</v>
+        <v>0.73465621251192403</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7322,7 +7376,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45517263720932655</v>
+        <v>0.88790281028064499</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7331,7 +7385,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82782588813668434</v>
+        <v>3.2070658308525846E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7394,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6605704100712193</v>
+        <v>0.28317055590180096</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7349,7 +7403,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94714617576201365</v>
+        <v>0.36868261388722012</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7358,7 +7412,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91785724173850547</v>
+        <v>0.47751521735725333</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7367,7 +7421,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7051431902517018</v>
+        <v>0.53819374003817377</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7376,7 +7430,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16953272395670782</v>
+        <v>0.92177691256058936</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7385,7 +7439,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3452797111892989</v>
+        <v>0.82546978338049926</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7394,7 +7448,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81471743184847445</v>
+        <v>0.25219036109853932</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7403,7 +7457,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39993453945842505</v>
+        <v>0.51526921197095332</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7466,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96418841469920979</v>
+        <v>0.12546134102470186</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7421,7 +7475,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72311288250419337</v>
+        <v>0.90854668580045672</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7430,7 +7484,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64588650165725281</v>
+        <v>0.28421979288550203</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7439,7 +7493,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61865008586816628</v>
+        <v>0.30373432309685511</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7448,7 +7502,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63007233287317987</v>
+        <v>5.1477130088761203E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7457,7 +7511,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64660993643257081</v>
+        <v>0.70081532412811387</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7466,7 +7520,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26206644672030088</v>
+        <v>0.63134818006255244</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7475,7 +7529,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49568579731034468</v>
+        <v>0.56075383048513616</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7538,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11745126163598862</v>
+        <v>0.81407825849157844</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7493,7 +7547,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37526868027420934</v>
+        <v>0.83448050689706899</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7502,7 +7556,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94666791581674981</v>
+        <v>1.6181348138129215E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7511,7 +7565,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87671302824038566</v>
+        <v>0.83211384520575138</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7520,7 +7574,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4538866546252166</v>
+        <v>0.5443598323312826</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7529,7 +7583,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33516433331802531</v>
+        <v>0.62758530497964826</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7538,7 +7592,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54876358551541027</v>
+        <v>0.98962356280681951</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7547,7 +7601,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16027821472848447</v>
+        <v>0.56073944740624238</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8A1C5F-1051-4C96-92C0-31B3972B6C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8831BE71-7573-4B97-AE8C-71AE0F213D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="46">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -737,7 +737,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW27" sqref="AW27"/>
+      <selection pane="bottomRight" activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1238,9 @@
       <c r="AW3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX3" s="4"/>
+      <c r="AX3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4"/>
@@ -1398,7 +1400,9 @@
       <c r="AW4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX4" s="4"/>
+      <c r="AX4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
@@ -1834,7 +1838,9 @@
       <c r="AW7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX7" s="4"/>
+      <c r="AX7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY7" s="4"/>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4"/>
@@ -1994,7 +2000,9 @@
       <c r="AW8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX8" s="4"/>
+      <c r="AX8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY8" s="4"/>
       <c r="AZ8" s="4"/>
       <c r="BA8" s="4"/>
@@ -2154,7 +2162,9 @@
       <c r="AW9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AX9" s="4"/>
+      <c r="AX9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
       <c r="BA9" s="4"/>
@@ -2314,7 +2324,9 @@
       <c r="AW10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX10" s="4"/>
+      <c r="AX10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4"/>
       <c r="BA10" s="4"/>
@@ -2474,7 +2486,9 @@
       <c r="AW11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX11" s="4"/>
+      <c r="AX11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="4"/>
@@ -2634,7 +2648,9 @@
       <c r="AW12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AX12" s="4"/>
+      <c r="AX12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
@@ -2794,7 +2810,9 @@
       <c r="AW13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX13" s="4"/>
+      <c r="AX13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
@@ -2954,7 +2972,9 @@
       <c r="AW14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX14" s="4"/>
+      <c r="AX14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
@@ -3114,7 +3134,9 @@
       <c r="AW15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX15" s="4"/>
+      <c r="AX15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
@@ -3274,7 +3296,9 @@
       <c r="AW16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX16" s="4"/>
+      <c r="AX16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY16" s="4"/>
       <c r="AZ16" s="4"/>
       <c r="BA16" s="4"/>
@@ -3434,7 +3458,9 @@
       <c r="AW17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX17" s="4"/>
+      <c r="AX17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY17" s="4"/>
       <c r="AZ17" s="4"/>
       <c r="BA17" s="4"/>
@@ -3594,7 +3620,9 @@
       <c r="AW18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX18" s="4"/>
+      <c r="AX18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY18" s="4"/>
       <c r="AZ18" s="4"/>
       <c r="BA18" s="4"/>
@@ -3754,7 +3782,9 @@
       <c r="AW19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX19" s="4"/>
+      <c r="AX19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY19" s="4"/>
       <c r="AZ19" s="4"/>
       <c r="BA19" s="4"/>
@@ -3914,7 +3944,9 @@
       <c r="AW20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX20" s="4"/>
+      <c r="AX20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY20" s="4"/>
       <c r="AZ20" s="4"/>
       <c r="BA20" s="4"/>
@@ -4074,7 +4106,9 @@
       <c r="AW21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX21" s="4"/>
+      <c r="AX21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY21" s="4"/>
       <c r="AZ21" s="4"/>
       <c r="BA21" s="4"/>
@@ -4234,7 +4268,9 @@
       <c r="AW22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AX22" s="4"/>
+      <c r="AX22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4"/>
@@ -4394,7 +4430,9 @@
       <c r="AW23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX23" s="4"/>
+      <c r="AX23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY23" s="4"/>
       <c r="AZ23" s="4"/>
       <c r="BA23" s="4"/>
@@ -4554,7 +4592,9 @@
       <c r="AW24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX24" s="4"/>
+      <c r="AX24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY24" s="4"/>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="4"/>
@@ -4714,7 +4754,9 @@
       <c r="AW25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX25" s="4"/>
+      <c r="AX25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY25" s="4"/>
       <c r="AZ25" s="4"/>
       <c r="BA25" s="4"/>
@@ -4874,7 +4916,9 @@
       <c r="AW26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX26" s="4"/>
+      <c r="AX26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY26" s="4"/>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="4"/>
@@ -5034,7 +5078,9 @@
       <c r="AW27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX27" s="4"/>
+      <c r="AX27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY27" s="4"/>
       <c r="AZ27" s="4"/>
       <c r="BA27" s="4"/>
@@ -5194,7 +5240,9 @@
       <c r="AW28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX28" s="4"/>
+      <c r="AX28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY28" s="4"/>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
@@ -5354,7 +5402,9 @@
       <c r="AW29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX29" s="4"/>
+      <c r="AX29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY29" s="4"/>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
@@ -5514,7 +5564,9 @@
       <c r="AW30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX30" s="4"/>
+      <c r="AX30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY30" s="4"/>
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
@@ -5674,7 +5726,9 @@
       <c r="AW31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AX31" s="4"/>
+      <c r="AX31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AY31" s="4"/>
       <c r="AZ31" s="4"/>
       <c r="BA31" s="4"/>
@@ -7367,7 +7421,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.73465621251192403</v>
+        <v>0.90117384642744081</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7376,7 +7430,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88790281028064499</v>
+        <v>0.52555814676985768</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7385,7 +7439,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2070658308525846E-2</v>
+        <v>0.25310086184070091</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7394,7 +7448,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28317055590180096</v>
+        <v>0.74683914278759433</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7403,7 +7457,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36868261388722012</v>
+        <v>0.74581302744913125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7466,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47751521735725333</v>
+        <v>0.38091781775095446</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7421,7 +7475,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53819374003817377</v>
+        <v>0.13887095879023637</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7430,7 +7484,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92177691256058936</v>
+        <v>0.7858898055171375</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7439,7 +7493,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82546978338049926</v>
+        <v>0.83912903240073089</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7448,7 +7502,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25219036109853932</v>
+        <v>0.32976540871273563</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7457,7 +7511,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51526921197095332</v>
+        <v>0.67744575564750997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7466,7 +7520,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12546134102470186</v>
+        <v>9.0036883733908168E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7475,7 +7529,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90854668580045672</v>
+        <v>0.18170944332160033</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7538,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28421979288550203</v>
+        <v>0.33059794366518136</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7493,7 +7547,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30373432309685511</v>
+        <v>0.83634944826739843</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7502,7 +7556,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1477130088761203E-2</v>
+        <v>0.61125803708778825</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7511,7 +7565,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70081532412811387</v>
+        <v>8.4686206840617451E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7520,7 +7574,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63134818006255244</v>
+        <v>7.3993366097484969E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7529,7 +7583,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56075383048513616</v>
+        <v>0.43317143241906653</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7538,7 +7592,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81407825849157844</v>
+        <v>5.2184486507542927E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7547,7 +7601,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83448050689706899</v>
+        <v>0.36521707115594426</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7610,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6181348138129215E-2</v>
+        <v>0.80825385619473755</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7565,7 +7619,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83211384520575138</v>
+        <v>0.69841851424894941</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7574,7 +7628,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5443598323312826</v>
+        <v>0.26803105257480475</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7583,7 +7637,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62758530497964826</v>
+        <v>0.43987820535743949</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7592,7 +7646,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98962356280681951</v>
+        <v>0.7255834088802533</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7601,7 +7655,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56073944740624238</v>
+        <v>6.675753339273971E-2</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8831BE71-7573-4B97-AE8C-71AE0F213D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F525F999-3C21-48F6-B429-678CEDA762EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="46">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -737,7 +737,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX3" sqref="AX3"/>
+      <selection pane="bottomRight" activeCell="AY7" sqref="AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1241,9 @@
       <c r="AX3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY3" s="4"/>
+      <c r="AY3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4"/>
       <c r="BB3" s="4"/>
@@ -1403,7 +1405,9 @@
       <c r="AX4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AY4" s="4"/>
+      <c r="AY4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
@@ -1841,7 +1845,9 @@
       <c r="AX7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY7" s="4"/>
+      <c r="AY7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
@@ -2003,7 +2009,9 @@
       <c r="AX8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY8" s="4"/>
+      <c r="AY8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ8" s="4"/>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
@@ -2165,7 +2173,9 @@
       <c r="AX9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY9" s="4"/>
+      <c r="AY9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ9" s="4"/>
       <c r="BA9" s="4"/>
       <c r="BB9" s="4"/>
@@ -2327,7 +2337,9 @@
       <c r="AX10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY10" s="4"/>
+      <c r="AY10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ10" s="4"/>
       <c r="BA10" s="4"/>
       <c r="BB10" s="4"/>
@@ -2489,7 +2501,9 @@
       <c r="AX11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY11" s="4"/>
+      <c r="AY11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
@@ -2651,7 +2665,9 @@
       <c r="AX12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AY12" s="4"/>
+      <c r="AY12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
@@ -2813,7 +2829,9 @@
       <c r="AX13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY13" s="4"/>
+      <c r="AY13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
@@ -2975,7 +2993,9 @@
       <c r="AX14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY14" s="4"/>
+      <c r="AY14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
@@ -3137,7 +3157,9 @@
       <c r="AX15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY15" s="4"/>
+      <c r="AY15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
@@ -3299,7 +3321,9 @@
       <c r="AX16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY16" s="4"/>
+      <c r="AY16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ16" s="4"/>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
@@ -3461,7 +3485,9 @@
       <c r="AX17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY17" s="4"/>
+      <c r="AY17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ17" s="4"/>
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
@@ -3623,7 +3649,9 @@
       <c r="AX18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY18" s="4"/>
+      <c r="AY18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ18" s="4"/>
       <c r="BA18" s="4"/>
       <c r="BB18" s="4"/>
@@ -3785,7 +3813,9 @@
       <c r="AX19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY19" s="4"/>
+      <c r="AY19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ19" s="4"/>
       <c r="BA19" s="4"/>
       <c r="BB19" s="4"/>
@@ -3947,7 +3977,9 @@
       <c r="AX20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY20" s="4"/>
+      <c r="AY20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ20" s="4"/>
       <c r="BA20" s="4"/>
       <c r="BB20" s="4"/>
@@ -4109,7 +4141,9 @@
       <c r="AX21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY21" s="4"/>
+      <c r="AY21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ21" s="4"/>
       <c r="BA21" s="4"/>
       <c r="BB21" s="4"/>
@@ -4271,7 +4305,9 @@
       <c r="AX22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY22" s="4"/>
+      <c r="AY22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4"/>
       <c r="BB22" s="4"/>
@@ -4433,7 +4469,9 @@
       <c r="AX23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY23" s="4"/>
+      <c r="AY23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ23" s="4"/>
       <c r="BA23" s="4"/>
       <c r="BB23" s="4"/>
@@ -4595,7 +4633,9 @@
       <c r="AX24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY24" s="4"/>
+      <c r="AY24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="4"/>
       <c r="BB24" s="4"/>
@@ -4757,7 +4797,9 @@
       <c r="AX25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY25" s="4"/>
+      <c r="AY25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ25" s="4"/>
       <c r="BA25" s="4"/>
       <c r="BB25" s="4"/>
@@ -4919,7 +4961,9 @@
       <c r="AX26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY26" s="4"/>
+      <c r="AY26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="4"/>
       <c r="BB26" s="4"/>
@@ -5081,7 +5125,9 @@
       <c r="AX27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY27" s="4"/>
+      <c r="AY27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ27" s="4"/>
       <c r="BA27" s="4"/>
       <c r="BB27" s="4"/>
@@ -5243,7 +5289,9 @@
       <c r="AX28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY28" s="4"/>
+      <c r="AY28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
       <c r="BB28" s="4"/>
@@ -5405,7 +5453,9 @@
       <c r="AX29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY29" s="4"/>
+      <c r="AY29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4"/>
@@ -5567,7 +5617,9 @@
       <c r="AX30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY30" s="4"/>
+      <c r="AY30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
       <c r="BB30" s="4"/>
@@ -5729,7 +5781,9 @@
       <c r="AX31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AY31" s="4"/>
+      <c r="AY31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AZ31" s="4"/>
       <c r="BA31" s="4"/>
       <c r="BB31" s="4"/>
@@ -6451,7 +6505,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7421,7 +7475,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.90117384642744081</v>
+        <v>0.92033680106113958</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7430,7 +7484,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52555814676985768</v>
+        <v>0.31355892096414884</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7439,7 +7493,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25310086184070091</v>
+        <v>0.75171063636473856</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7448,7 +7502,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74683914278759433</v>
+        <v>0.72025117714268261</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7457,7 +7511,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74581302744913125</v>
+        <v>0.76319831798179261</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7466,7 +7520,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38091781775095446</v>
+        <v>0.58731756814258196</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7475,7 +7529,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13887095879023637</v>
+        <v>0.77604067772151974</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7538,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7858898055171375</v>
+        <v>0.83436285687036915</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7493,7 +7547,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83912903240073089</v>
+        <v>0.91600823888470273</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7502,7 +7556,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32976540871273563</v>
+        <v>2.3037841867152076E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7511,7 +7565,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67744575564750997</v>
+        <v>0.61855057394810009</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7520,7 +7574,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0036883733908168E-2</v>
+        <v>0.21383245477334956</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7529,7 +7583,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18170944332160033</v>
+        <v>0.96054045323246073</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7538,7 +7592,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33059794366518136</v>
+        <v>0.44095022845935428</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7547,7 +7601,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83634944826739843</v>
+        <v>0.88889739210854435</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7610,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61125803708778825</v>
+        <v>0.68860885071887756</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7565,7 +7619,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4686206840617451E-2</v>
+        <v>0.46706000275452986</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7574,7 +7628,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3993366097484969E-2</v>
+        <v>0.85358279046024799</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7583,7 +7637,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43317143241906653</v>
+        <v>0.40719994914039381</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7592,7 +7646,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2184486507542927E-2</v>
+        <v>0.75351064484375696</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7601,7 +7655,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36521707115594426</v>
+        <v>0.12488727310351433</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7610,7 +7664,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80825385619473755</v>
+        <v>0.2540544284955476</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7619,7 +7673,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69841851424894941</v>
+        <v>0.78145462110948039</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7628,7 +7682,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26803105257480475</v>
+        <v>0.48452211851858173</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7637,7 +7691,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43987820535743949</v>
+        <v>0.72832145373642432</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7646,7 +7700,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7255834088802533</v>
+        <v>0.5390546687314075</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7655,7 +7709,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>6.675753339273971E-2</v>
+        <v>0.976410657858924</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F525F999-3C21-48F6-B429-678CEDA762EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5F771D-F205-48B5-B519-62C097A028B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author>Aluno</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{221AFFBC-E3A3-4997-98AA-437C41A6A2DE}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{221AFFBC-E3A3-4997-98AA-437C41A6A2DE}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="48">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -203,6 +203,12 @@
   <si>
     <t>Matheus De Oliveira Cavalcante</t>
   </si>
+  <si>
+    <t>VPR01</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
 </sst>
 </file>
 
@@ -290,7 +296,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -320,6 +326,26 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -733,11 +759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY7" sqref="AY7"/>
+      <selection pane="bottomRight" activeCell="BA31" sqref="BA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,8 +1270,12 @@
       <c r="AY3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
+      <c r="AZ3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB3" s="4"/>
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
@@ -1408,8 +1438,12 @@
       <c r="AY4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
+      <c r="AZ4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
@@ -1848,8 +1882,12 @@
       <c r="AY7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
+      <c r="AZ7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
@@ -2012,8 +2050,12 @@
       <c r="AY8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
+      <c r="AZ8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB8" s="4"/>
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
@@ -2176,8 +2218,12 @@
       <c r="AY9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
+      <c r="AZ9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB9" s="4"/>
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
@@ -2340,8 +2386,12 @@
       <c r="AY10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
+      <c r="AZ10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB10" s="4"/>
       <c r="BC10" s="4"/>
       <c r="BD10" s="4"/>
@@ -2504,8 +2554,12 @@
       <c r="AY11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
+      <c r="AZ11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB11" s="4"/>
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
@@ -2668,8 +2722,12 @@
       <c r="AY12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
+      <c r="AZ12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BB12" s="4"/>
       <c r="BC12" s="4"/>
       <c r="BD12" s="4"/>
@@ -2832,8 +2890,12 @@
       <c r="AY13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
+      <c r="AZ13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB13" s="4"/>
       <c r="BC13" s="4"/>
       <c r="BD13" s="4"/>
@@ -2996,8 +3058,12 @@
       <c r="AY14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
+      <c r="AZ14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB14" s="4"/>
       <c r="BC14" s="4"/>
       <c r="BD14" s="4"/>
@@ -3160,8 +3226,12 @@
       <c r="AY15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
+      <c r="AZ15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB15" s="4"/>
       <c r="BC15" s="4"/>
       <c r="BD15" s="4"/>
@@ -3324,8 +3394,12 @@
       <c r="AY16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
+      <c r="AZ16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB16" s="4"/>
       <c r="BC16" s="4"/>
       <c r="BD16" s="4"/>
@@ -3488,8 +3562,12 @@
       <c r="AY17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
+      <c r="AZ17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB17" s="4"/>
       <c r="BC17" s="4"/>
       <c r="BD17" s="4"/>
@@ -3652,8 +3730,12 @@
       <c r="AY18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
+      <c r="AZ18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB18" s="4"/>
       <c r="BC18" s="4"/>
       <c r="BD18" s="4"/>
@@ -3816,8 +3898,12 @@
       <c r="AY19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
+      <c r="AZ19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB19" s="4"/>
       <c r="BC19" s="4"/>
       <c r="BD19" s="4"/>
@@ -3980,8 +4066,12 @@
       <c r="AY20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
+      <c r="AZ20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB20" s="4"/>
       <c r="BC20" s="4"/>
       <c r="BD20" s="4"/>
@@ -4144,8 +4234,12 @@
       <c r="AY21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
+      <c r="AZ21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BB21" s="4"/>
       <c r="BC21" s="4"/>
       <c r="BD21" s="4"/>
@@ -4308,8 +4402,12 @@
       <c r="AY22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
+      <c r="AZ22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB22" s="4"/>
       <c r="BC22" s="4"/>
       <c r="BD22" s="4"/>
@@ -4472,8 +4570,12 @@
       <c r="AY23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
+      <c r="AZ23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA23" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BB23" s="4"/>
       <c r="BC23" s="4"/>
       <c r="BD23" s="4"/>
@@ -4636,8 +4738,12 @@
       <c r="AY24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
+      <c r="AZ24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB24" s="4"/>
       <c r="BC24" s="4"/>
       <c r="BD24" s="4"/>
@@ -4800,8 +4906,12 @@
       <c r="AY25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="4"/>
+      <c r="AZ25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB25" s="4"/>
       <c r="BC25" s="4"/>
       <c r="BD25" s="4"/>
@@ -4964,8 +5074,12 @@
       <c r="AY26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ26" s="4"/>
-      <c r="BA26" s="4"/>
+      <c r="AZ26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB26" s="4"/>
       <c r="BC26" s="4"/>
       <c r="BD26" s="4"/>
@@ -5128,8 +5242,12 @@
       <c r="AY27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ27" s="4"/>
-      <c r="BA27" s="4"/>
+      <c r="AZ27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB27" s="4"/>
       <c r="BC27" s="4"/>
       <c r="BD27" s="4"/>
@@ -5292,8 +5410,12 @@
       <c r="AY28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ28" s="4"/>
-      <c r="BA28" s="4"/>
+      <c r="AZ28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB28" s="4"/>
       <c r="BC28" s="4"/>
       <c r="BD28" s="4"/>
@@ -5456,8 +5578,12 @@
       <c r="AY29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ29" s="4"/>
-      <c r="BA29" s="4"/>
+      <c r="AZ29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB29" s="4"/>
       <c r="BC29" s="4"/>
       <c r="BD29" s="4"/>
@@ -5620,8 +5746,12 @@
       <c r="AY30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ30" s="4"/>
-      <c r="BA30" s="4"/>
+      <c r="AZ30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB30" s="4"/>
       <c r="BC30" s="4"/>
       <c r="BD30" s="4"/>
@@ -5784,8 +5914,12 @@
       <c r="AY31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ31" s="4"/>
-      <c r="BA31" s="4"/>
+      <c r="AZ31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BB31" s="4"/>
       <c r="BC31" s="4"/>
       <c r="BD31" s="4"/>
@@ -5806,10 +5940,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A7:G7 A8:H22 A23:J31 A4:AG6 A32:XFD1048576 I7:I22 J11:J22 J8:M10 K11:M31 M7:AG7 N8:AG31 BI3:XFD31 A3:BH3 AH4:BH31 A1:XFD2">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6144,15 +6278,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E30">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6483,15 +6617,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6502,603 +6636,702 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:C30" si="0">IF(H2&gt;B2,H2,B2)</f>
+        <v>70</v>
+      </c>
       <c r="D2" s="1">
-        <f>AVERAGE(B2:C2)</f>
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1">
+        <v>70</v>
+      </c>
+      <c r="I2">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D30" si="0">AVERAGE(B3:C3)</f>
+        <v>50</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>40</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1">
+        <v>85</v>
+      </c>
+      <c r="I6">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1">
+        <v>95</v>
+      </c>
+      <c r="I7">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>45</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1">
+        <v>95</v>
+      </c>
+      <c r="I8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>80</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1">
+        <v>95</v>
+      </c>
+      <c r="I9">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>20</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="H10" s="1">
+        <v>55</v>
+      </c>
+      <c r="I10">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="H12" s="1">
+        <v>85</v>
+      </c>
+      <c r="I12">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>80</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1">
+        <v>95</v>
+      </c>
+      <c r="I13">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>40</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="H14" s="1">
+        <v>95</v>
+      </c>
+      <c r="I14">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>80</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="H15" s="1">
+        <v>95</v>
+      </c>
+      <c r="I15">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>80</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="G16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>20</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="H17" s="1">
+        <v>55</v>
+      </c>
+      <c r="I17">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>70</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="H18" s="1">
+        <v>95</v>
+      </c>
+      <c r="I18">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>70</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="H19" s="1">
+        <v>95</v>
+      </c>
+      <c r="I19">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>65</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="H20" s="1">
+        <v>85</v>
+      </c>
+      <c r="I20">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>80</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="H21" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="H22" s="1">
+        <v>90</v>
+      </c>
+      <c r="I22">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>80</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="H23" s="1">
+        <v>95</v>
+      </c>
+      <c r="I23">
         <v>80</v>
       </c>
-      <c r="E23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>30</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="H24" s="1">
+        <v>90</v>
+      </c>
+      <c r="I24">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>30</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>80</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="H26" s="1">
+        <v>90</v>
+      </c>
+      <c r="I26">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>30</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="H27" s="1">
+        <v>60</v>
+      </c>
+      <c r="I27">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>40</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="H28" s="1">
+        <v>85</v>
+      </c>
+      <c r="I28">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>50</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="1"/>
+      <c r="H29" s="1">
+        <v>95</v>
+      </c>
+      <c r="I29">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="1">
         <v>50</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="1"/>
+      <c r="H30" s="1">
+        <v>85</v>
+      </c>
+      <c r="I30">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="C2:F30">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B30">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H30">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7475,7 +7708,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.92033680106113958</v>
+        <v>0.28393781239074356</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7717,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31355892096414884</v>
+        <v>0.6027983414435466</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7493,7 +7726,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75171063636473856</v>
+        <v>5.9650226727600342E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7502,7 +7735,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72025117714268261</v>
+        <v>0.20287346308592302</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7511,7 +7744,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76319831798179261</v>
+        <v>0.55397785005848921</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7520,7 +7753,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58731756814258196</v>
+        <v>0.98133959480867639</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7529,7 +7762,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77604067772151974</v>
+        <v>0.46945128443877615</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7538,7 +7771,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83436285687036915</v>
+        <v>0.42968306287351188</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7547,7 +7780,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91600823888470273</v>
+        <v>0.92892442336850012</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7789,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3037841867152076E-2</v>
+        <v>9.0708670864303897E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7565,7 +7798,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61855057394810009</v>
+        <v>4.4989767666582692E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7574,7 +7807,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21383245477334956</v>
+        <v>0.44955569554023112</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7583,7 +7816,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96054045323246073</v>
+        <v>0.69846660795302173</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7592,7 +7825,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44095022845935428</v>
+        <v>0.62756404016452771</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7601,7 +7834,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88889739210854435</v>
+        <v>0.6781539191563124</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7610,7 +7843,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68860885071887756</v>
+        <v>0.85988126700420675</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7619,7 +7852,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46706000275452986</v>
+        <v>3.41458303935398E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7628,7 +7861,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85358279046024799</v>
+        <v>0.14617838006809591</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7637,7 +7870,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40719994914039381</v>
+        <v>0.99258233362298898</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7646,7 +7879,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75351064484375696</v>
+        <v>0.80737200293679101</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7655,7 +7888,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12488727310351433</v>
+        <v>0.92691982748760504</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7664,7 +7897,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2540544284955476</v>
+        <v>0.94475835302318589</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7673,7 +7906,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78145462110948039</v>
+        <v>9.9339907225357238E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7682,7 +7915,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48452211851858173</v>
+        <v>0.67792806915928805</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7691,7 +7924,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72832145373642432</v>
+        <v>0.24346331385357023</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7700,7 +7933,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5390546687314075</v>
+        <v>0.47546355457145217</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7709,7 +7942,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.976410657858924</v>
+        <v>0.27254022964509272</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A58C60-B033-417C-92A4-B4BEFEE73A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58938DB9-D310-46AC-94C7-217155CB8F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="49">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Nota</t>
+  </si>
+  <si>
+    <t>TRABs</t>
   </si>
 </sst>
 </file>
@@ -759,11 +762,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA31" sqref="BA31"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5957,7 +5960,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5980,7 +5983,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>34</v>
@@ -5990,291 +5993,187 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="e">
-        <f>AVERAGE(B2:D2)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="e">
-        <f t="shared" ref="E3:E30" si="0">AVERAGE(B3:D3)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D13">
+        <v>9.5</v>
+      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D22">
+        <v>7.5</v>
+      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D26">
+        <v>9.5</v>
+      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E30" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
@@ -6285,7 +6184,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E30">
+  <conditionalFormatting sqref="B2:C30 E2:E30">
     <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
@@ -6638,7 +6537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -7737,7 +7636,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>2.8437348083138025E-2</v>
+        <v>0.52948468936123616</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7746,7 +7645,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92267318157609812</v>
+        <v>0.47853756995834595</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7755,7 +7654,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57673966424532885</v>
+        <v>0.60684708563310197</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7764,7 +7663,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29546885298250036</v>
+        <v>0.87568480546150607</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7773,7 +7672,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0792577218009818E-2</v>
+        <v>0.47935395376640422</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7782,7 +7681,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3720476900272964E-2</v>
+        <v>0.12113444815415209</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7791,7 +7690,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33249674615981528</v>
+        <v>0.53398758592151518</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7800,7 +7699,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87935569936253721</v>
+        <v>0.25916442226141767</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7809,7 +7708,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41658984219679862</v>
+        <v>0.55830139328510608</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7818,7 +7717,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39097734907865622</v>
+        <v>0.86892483470129911</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7827,7 +7726,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77459320301731127</v>
+        <v>0.45165358087832963</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7836,7 +7735,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49998132930810679</v>
+        <v>0.19336789751469241</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7845,7 +7744,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25285315633698335</v>
+        <v>5.2585506006528004E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7854,7 +7753,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83182347132528611</v>
+        <v>0.40644802177714578</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7863,7 +7762,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85412184103052047</v>
+        <v>0.81118961223785446</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7872,7 +7771,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3240033619014463</v>
+        <v>0.93109547159395234</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7881,7 +7780,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3157732803181158</v>
+        <v>5.7411911745151811E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7890,7 +7789,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99002865406875673</v>
+        <v>3.2592302379668925E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7899,7 +7798,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8177804293580215E-2</v>
+        <v>0.37463308259074513</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7908,7 +7807,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60800209540796113</v>
+        <v>0.57160820052580696</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7917,7 +7816,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.325820351302467</v>
+        <v>0.17505337008531696</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7926,7 +7825,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>8.293739121520749E-2</v>
+        <v>0.18328415407995402</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7935,7 +7834,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78972249181292054</v>
+        <v>0.34205441914117829</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7944,7 +7843,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82780698563809452</v>
+        <v>0.83746137499077877</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7953,7 +7852,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2375770485785029E-2</v>
+        <v>0.33723009379926305</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7962,7 +7861,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24274812162154824</v>
+        <v>0.23690313798718421</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7971,7 +7870,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51986329570841228</v>
+        <v>0.46608767875960666</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58938DB9-D310-46AC-94C7-217155CB8F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9F2F5B-4181-4FA4-B87E-5E4F351895D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="50">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>TRABs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -763,10 +766,10 @@
   <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,6 +954,21 @@
       <c r="BC1" s="2">
         <v>45023</v>
       </c>
+      <c r="BD1" s="2">
+        <v>45026</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>45027</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>45028</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>45029</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>45030</v>
+      </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1118,6 +1136,21 @@
       <c r="BC2" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="BD2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1279,8 +1312,12 @@
       <c r="BA3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
+      <c r="BB3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD3" s="4"/>
       <c r="BE3" s="4"/>
       <c r="BF3" s="4"/>
@@ -1447,8 +1484,12 @@
       <c r="BA4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
+      <c r="BB4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD4" s="4"/>
       <c r="BE4" s="4"/>
       <c r="BF4" s="4"/>
@@ -1586,7 +1627,9 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
+      <c r="BC5" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD5" s="4"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
@@ -1724,7 +1767,9 @@
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
+      <c r="BC6" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
       <c r="BF6" s="4"/>
@@ -1891,8 +1936,12 @@
       <c r="BA7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
+      <c r="BB7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD7" s="4"/>
       <c r="BE7" s="4"/>
       <c r="BF7" s="4"/>
@@ -2059,8 +2108,12 @@
       <c r="BA8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
+      <c r="BB8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC8" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
       <c r="BF8" s="4"/>
@@ -2227,8 +2280,12 @@
       <c r="BA9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
+      <c r="BB9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC9" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD9" s="4"/>
       <c r="BE9" s="4"/>
       <c r="BF9" s="4"/>
@@ -2395,8 +2452,12 @@
       <c r="BA10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
+      <c r="BB10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC10" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD10" s="4"/>
       <c r="BE10" s="4"/>
       <c r="BF10" s="4"/>
@@ -2563,8 +2624,12 @@
       <c r="BA11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
+      <c r="BB11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC11" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD11" s="4"/>
       <c r="BE11" s="4"/>
       <c r="BF11" s="4"/>
@@ -2731,8 +2796,12 @@
       <c r="BA12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
+      <c r="BB12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC12" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD12" s="4"/>
       <c r="BE12" s="4"/>
       <c r="BF12" s="4"/>
@@ -2899,8 +2968,12 @@
       <c r="BA13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
+      <c r="BB13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC13" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD13" s="4"/>
       <c r="BE13" s="4"/>
       <c r="BF13" s="4"/>
@@ -3067,8 +3140,12 @@
       <c r="BA14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
+      <c r="BB14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC14" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD14" s="4"/>
       <c r="BE14" s="4"/>
       <c r="BF14" s="4"/>
@@ -3235,8 +3312,12 @@
       <c r="BA15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
+      <c r="BB15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC15" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD15" s="4"/>
       <c r="BE15" s="4"/>
       <c r="BF15" s="4"/>
@@ -3403,8 +3484,12 @@
       <c r="BA16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4"/>
+      <c r="BB16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC16" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD16" s="4"/>
       <c r="BE16" s="4"/>
       <c r="BF16" s="4"/>
@@ -3571,8 +3656,12 @@
       <c r="BA17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
+      <c r="BB17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC17" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD17" s="4"/>
       <c r="BE17" s="4"/>
       <c r="BF17" s="4"/>
@@ -3739,8 +3828,12 @@
       <c r="BA18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
+      <c r="BB18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC18" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD18" s="4"/>
       <c r="BE18" s="4"/>
       <c r="BF18" s="4"/>
@@ -3907,8 +4000,12 @@
       <c r="BA19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
+      <c r="BB19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC19" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD19" s="4"/>
       <c r="BE19" s="4"/>
       <c r="BF19" s="4"/>
@@ -4075,8 +4172,12 @@
       <c r="BA20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
+      <c r="BB20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC20" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD20" s="4"/>
       <c r="BE20" s="4"/>
       <c r="BF20" s="4"/>
@@ -4243,8 +4344,12 @@
       <c r="BA21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
+      <c r="BB21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC21" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
       <c r="BF21" s="4"/>
@@ -4411,8 +4516,12 @@
       <c r="BA22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
+      <c r="BB22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC22" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD22" s="4"/>
       <c r="BE22" s="4"/>
       <c r="BF22" s="4"/>
@@ -4579,8 +4688,12 @@
       <c r="BA23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
+      <c r="BB23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC23" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD23" s="4"/>
       <c r="BE23" s="4"/>
       <c r="BF23" s="4"/>
@@ -4747,8 +4860,12 @@
       <c r="BA24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
+      <c r="BB24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC24" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD24" s="4"/>
       <c r="BE24" s="4"/>
       <c r="BF24" s="4"/>
@@ -4915,8 +5032,12 @@
       <c r="BA25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
+      <c r="BB25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC25" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD25" s="4"/>
       <c r="BE25" s="4"/>
       <c r="BF25" s="4"/>
@@ -5083,8 +5204,12 @@
       <c r="BA26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="4"/>
+      <c r="BB26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC26" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD26" s="4"/>
       <c r="BE26" s="4"/>
       <c r="BF26" s="4"/>
@@ -5251,8 +5376,12 @@
       <c r="BA27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
+      <c r="BB27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC27" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD27" s="4"/>
       <c r="BE27" s="4"/>
       <c r="BF27" s="4"/>
@@ -5419,8 +5548,12 @@
       <c r="BA28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB28" s="4"/>
-      <c r="BC28" s="4"/>
+      <c r="BB28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC28" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD28" s="4"/>
       <c r="BE28" s="4"/>
       <c r="BF28" s="4"/>
@@ -5587,8 +5720,12 @@
       <c r="BA29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB29" s="4"/>
-      <c r="BC29" s="4"/>
+      <c r="BB29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC29" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD29" s="4"/>
       <c r="BE29" s="4"/>
       <c r="BF29" s="4"/>
@@ -5755,8 +5892,12 @@
       <c r="BA30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB30" s="4"/>
-      <c r="BC30" s="4"/>
+      <c r="BB30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC30" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD30" s="4"/>
       <c r="BE30" s="4"/>
       <c r="BF30" s="4"/>
@@ -5923,8 +6064,12 @@
       <c r="BA31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BB31" s="4"/>
-      <c r="BC31" s="4"/>
+      <c r="BB31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC31" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="BD31" s="4"/>
       <c r="BE31" s="4"/>
       <c r="BF31" s="4"/>
@@ -5942,7 +6087,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A7:G7 A8:H22 A23:J31 A4:AG6 A32:XFD1048576 I7:I22 J11:J22 J8:M10 K11:M31 M7:AG7 N8:AG31 BI3:XFD31 A3:BH3 AH4:BH31 A1:XFD2">
+  <conditionalFormatting sqref="A7:G7 A8:H22 A23:J31 A4:AG6 A32:XFD1048576 I7:I22 J11:J22 J8:M10 K11:M31 M7:AG7 N8:AG31 BI3:XFD31 A3:BH3 A1:XFD2 AH4:BH31">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -7636,7 +7781,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.52948468936123616</v>
+        <v>2.1761586576838465E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7645,7 +7790,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47853756995834595</v>
+        <v>0.306806500855348</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7654,7 +7799,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60684708563310197</v>
+        <v>0.61266014599848517</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7663,7 +7808,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87568480546150607</v>
+        <v>0.10226727116374712</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7672,7 +7817,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47935395376640422</v>
+        <v>0.34324933266716751</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7681,7 +7826,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12113444815415209</v>
+        <v>0.36989142160005917</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7690,7 +7835,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53398758592151518</v>
+        <v>0.52667660397506855</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7699,7 +7844,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25916442226141767</v>
+        <v>0.24677330685313881</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7708,7 +7853,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55830139328510608</v>
+        <v>0.46190528556401411</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7717,7 +7862,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86892483470129911</v>
+        <v>0.1108548553556884</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7726,7 +7871,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45165358087832963</v>
+        <v>0.90320561780761377</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7735,7 +7880,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19336789751469241</v>
+        <v>0.24734551223054624</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7744,7 +7889,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2585506006528004E-2</v>
+        <v>0.90351261232880975</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7753,7 +7898,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40644802177714578</v>
+        <v>0.18044154281729297</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7762,7 +7907,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81118961223785446</v>
+        <v>0.98167923139728119</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7771,7 +7916,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93109547159395234</v>
+        <v>0.59716446903855758</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7780,7 +7925,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7411911745151811E-2</v>
+        <v>0.25187328649921936</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7789,7 +7934,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2592302379668925E-2</v>
+        <v>0.82292509079012921</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7798,7 +7943,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37463308259074513</v>
+        <v>0.47123233124767683</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7807,7 +7952,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57160820052580696</v>
+        <v>0.36495127133711625</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7816,7 +7961,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17505337008531696</v>
+        <v>0.70633000345545816</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7825,7 +7970,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18328415407995402</v>
+        <v>0.64045802226228776</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7834,7 +7979,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34205441914117829</v>
+        <v>0.90360929761305864</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7843,7 +7988,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83746137499077877</v>
+        <v>0.75579546197560121</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7852,7 +7997,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33723009379926305</v>
+        <v>0.98647366150925464</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7861,7 +8006,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23690313798718421</v>
+        <v>0.88231129193930491</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7870,7 +8015,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46608767875960666</v>
+        <v>0.35821865203156522</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9F2F5B-4181-4FA4-B87E-5E4F351895D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9964CE42-78F9-45FC-AB87-F88A6A7B2649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="50">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -766,10 +766,10 @@
   <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ8" sqref="AJ8"/>
+      <selection pane="bottomRight" activeCell="BD32" sqref="BD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1318,9 @@
       <c r="BC3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD3" s="4"/>
+      <c r="BD3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE3" s="4"/>
       <c r="BF3" s="4"/>
       <c r="BG3" s="4"/>
@@ -1490,7 +1492,9 @@
       <c r="BC4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD4" s="4"/>
+      <c r="BD4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BE4" s="4"/>
       <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
@@ -1942,7 +1946,9 @@
       <c r="BC7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD7" s="4"/>
+      <c r="BD7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE7" s="4"/>
       <c r="BF7" s="4"/>
       <c r="BG7" s="4"/>
@@ -2114,7 +2120,9 @@
       <c r="BC8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD8" s="4"/>
+      <c r="BD8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE8" s="4"/>
       <c r="BF8" s="4"/>
       <c r="BG8" s="4"/>
@@ -2286,7 +2294,9 @@
       <c r="BC9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD9" s="4"/>
+      <c r="BD9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BE9" s="4"/>
       <c r="BF9" s="4"/>
       <c r="BG9" s="4"/>
@@ -2458,7 +2468,9 @@
       <c r="BC10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD10" s="4"/>
+      <c r="BD10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE10" s="4"/>
       <c r="BF10" s="4"/>
       <c r="BG10" s="4"/>
@@ -2630,7 +2642,9 @@
       <c r="BC11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD11" s="4"/>
+      <c r="BD11" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BE11" s="4"/>
       <c r="BF11" s="4"/>
       <c r="BG11" s="4"/>
@@ -2802,7 +2816,9 @@
       <c r="BC12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD12" s="4"/>
+      <c r="BD12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BE12" s="4"/>
       <c r="BF12" s="4"/>
       <c r="BG12" s="4"/>
@@ -2974,7 +2990,9 @@
       <c r="BC13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD13" s="4"/>
+      <c r="BD13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE13" s="4"/>
       <c r="BF13" s="4"/>
       <c r="BG13" s="4"/>
@@ -3146,7 +3164,9 @@
       <c r="BC14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD14" s="4"/>
+      <c r="BD14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE14" s="4"/>
       <c r="BF14" s="4"/>
       <c r="BG14" s="4"/>
@@ -3318,7 +3338,9 @@
       <c r="BC15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD15" s="4"/>
+      <c r="BD15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BE15" s="4"/>
       <c r="BF15" s="4"/>
       <c r="BG15" s="4"/>
@@ -3490,7 +3512,9 @@
       <c r="BC16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD16" s="4"/>
+      <c r="BD16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE16" s="4"/>
       <c r="BF16" s="4"/>
       <c r="BG16" s="4"/>
@@ -3662,7 +3686,9 @@
       <c r="BC17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD17" s="4"/>
+      <c r="BD17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE17" s="4"/>
       <c r="BF17" s="4"/>
       <c r="BG17" s="4"/>
@@ -3834,7 +3860,9 @@
       <c r="BC18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD18" s="4"/>
+      <c r="BD18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE18" s="4"/>
       <c r="BF18" s="4"/>
       <c r="BG18" s="4"/>
@@ -4006,7 +4034,9 @@
       <c r="BC19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD19" s="4"/>
+      <c r="BD19" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BE19" s="4"/>
       <c r="BF19" s="4"/>
       <c r="BG19" s="4"/>
@@ -4178,7 +4208,9 @@
       <c r="BC20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD20" s="4"/>
+      <c r="BD20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE20" s="4"/>
       <c r="BF20" s="4"/>
       <c r="BG20" s="4"/>
@@ -4350,7 +4382,9 @@
       <c r="BC21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD21" s="4"/>
+      <c r="BD21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BE21" s="4"/>
       <c r="BF21" s="4"/>
       <c r="BG21" s="4"/>
@@ -4522,7 +4556,9 @@
       <c r="BC22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD22" s="4"/>
+      <c r="BD22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BE22" s="4"/>
       <c r="BF22" s="4"/>
       <c r="BG22" s="4"/>
@@ -4694,7 +4730,9 @@
       <c r="BC23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD23" s="4"/>
+      <c r="BD23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE23" s="4"/>
       <c r="BF23" s="4"/>
       <c r="BG23" s="4"/>
@@ -4866,7 +4904,9 @@
       <c r="BC24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD24" s="4"/>
+      <c r="BD24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BE24" s="4"/>
       <c r="BF24" s="4"/>
       <c r="BG24" s="4"/>
@@ -5038,7 +5078,9 @@
       <c r="BC25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD25" s="4"/>
+      <c r="BD25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE25" s="4"/>
       <c r="BF25" s="4"/>
       <c r="BG25" s="4"/>
@@ -5210,7 +5252,9 @@
       <c r="BC26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD26" s="4"/>
+      <c r="BD26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE26" s="4"/>
       <c r="BF26" s="4"/>
       <c r="BG26" s="4"/>
@@ -5382,7 +5426,9 @@
       <c r="BC27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD27" s="4"/>
+      <c r="BD27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE27" s="4"/>
       <c r="BF27" s="4"/>
       <c r="BG27" s="4"/>
@@ -5554,7 +5600,9 @@
       <c r="BC28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD28" s="4"/>
+      <c r="BD28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE28" s="4"/>
       <c r="BF28" s="4"/>
       <c r="BG28" s="4"/>
@@ -5726,7 +5774,9 @@
       <c r="BC29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD29" s="4"/>
+      <c r="BD29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE29" s="4"/>
       <c r="BF29" s="4"/>
       <c r="BG29" s="4"/>
@@ -5898,7 +5948,9 @@
       <c r="BC30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD30" s="4"/>
+      <c r="BD30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE30" s="4"/>
       <c r="BF30" s="4"/>
       <c r="BG30" s="4"/>
@@ -6070,7 +6122,9 @@
       <c r="BC31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD31" s="4"/>
+      <c r="BD31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BE31" s="4"/>
       <c r="BF31" s="4"/>
       <c r="BG31" s="4"/>
@@ -7781,7 +7835,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>2.1761586576838465E-2</v>
+        <v>0.18874723092556001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7790,7 +7844,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.306806500855348</v>
+        <v>0.3307920087939481</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7799,7 +7853,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61266014599848517</v>
+        <v>0.64631691394003954</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7808,7 +7862,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10226727116374712</v>
+        <v>0.59125660092431276</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7817,7 +7871,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34324933266716751</v>
+        <v>0.94720259932145434</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7826,7 +7880,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36989142160005917</v>
+        <v>0.35777893059618715</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7835,7 +7889,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52667660397506855</v>
+        <v>0.72241125701913367</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7844,7 +7898,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24677330685313881</v>
+        <v>0.87832314312219739</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7853,7 +7907,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46190528556401411</v>
+        <v>0.93919890406195072</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7862,7 +7916,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1108548553556884</v>
+        <v>0.4839673573753146</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7871,7 +7925,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90320561780761377</v>
+        <v>0.25731180644600882</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7880,7 +7934,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24734551223054624</v>
+        <v>8.6492761175861355E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7889,7 +7943,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90351261232880975</v>
+        <v>0.61013068013020055</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7898,7 +7952,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18044154281729297</v>
+        <v>0.72976781949235547</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7907,7 +7961,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98167923139728119</v>
+        <v>0.57811620029045641</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7916,7 +7970,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59716446903855758</v>
+        <v>0.43646221882078717</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7925,7 +7979,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25187328649921936</v>
+        <v>0.51820631500220127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7934,7 +7988,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82292509079012921</v>
+        <v>0.97038488409229973</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7943,7 +7997,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47123233124767683</v>
+        <v>0.42447473530831858</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7952,7 +8006,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36495127133711625</v>
+        <v>0.95856785126642008</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7961,7 +8015,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70633000345545816</v>
+        <v>0.63608068721555522</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7970,7 +8024,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64045802226228776</v>
+        <v>0.13316897429066155</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7979,7 +8033,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90360929761305864</v>
+        <v>0.77658705395093164</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7988,7 +8042,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75579546197560121</v>
+        <v>0.57117485098540888</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7997,7 +8051,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98647366150925464</v>
+        <v>0.8295208745920486</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8006,7 +8060,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88231129193930491</v>
+        <v>0.92980787420684607</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8015,7 +8069,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35821865203156522</v>
+        <v>0.35884630731973022</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9964CE42-78F9-45FC-AB87-F88A6A7B2649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1568EE0-ED26-49B7-B652-790FB6BA3FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="50">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -769,7 +769,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BD32" sqref="BD32"/>
+      <selection pane="bottomRight" activeCell="BD11" sqref="BD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1321,9 @@
       <c r="BD3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE3" s="4"/>
+      <c r="BE3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF3" s="4"/>
       <c r="BG3" s="4"/>
       <c r="BH3" s="4"/>
@@ -1495,7 +1497,9 @@
       <c r="BD4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BE4" s="4"/>
+      <c r="BE4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
       <c r="BH4" s="4"/>
@@ -1949,7 +1953,9 @@
       <c r="BD7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="4"/>
+      <c r="BE7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF7" s="4"/>
       <c r="BG7" s="4"/>
       <c r="BH7" s="4"/>
@@ -2123,7 +2129,9 @@
       <c r="BD8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE8" s="4"/>
+      <c r="BE8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF8" s="4"/>
       <c r="BG8" s="4"/>
       <c r="BH8" s="4"/>
@@ -2297,7 +2305,9 @@
       <c r="BD9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BE9" s="4"/>
+      <c r="BE9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF9" s="4"/>
       <c r="BG9" s="4"/>
       <c r="BH9" s="4"/>
@@ -2471,7 +2481,9 @@
       <c r="BD10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE10" s="4"/>
+      <c r="BE10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF10" s="4"/>
       <c r="BG10" s="4"/>
       <c r="BH10" s="4"/>
@@ -2645,7 +2657,9 @@
       <c r="BD11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BE11" s="4"/>
+      <c r="BE11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF11" s="4"/>
       <c r="BG11" s="4"/>
       <c r="BH11" s="4"/>
@@ -2819,7 +2833,9 @@
       <c r="BD12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BE12" s="4"/>
+      <c r="BE12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BF12" s="4"/>
       <c r="BG12" s="4"/>
       <c r="BH12" s="4"/>
@@ -2993,7 +3009,9 @@
       <c r="BD13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE13" s="4"/>
+      <c r="BE13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF13" s="4"/>
       <c r="BG13" s="4"/>
       <c r="BH13" s="4"/>
@@ -3167,7 +3185,9 @@
       <c r="BD14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE14" s="4"/>
+      <c r="BE14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF14" s="4"/>
       <c r="BG14" s="4"/>
       <c r="BH14" s="4"/>
@@ -3341,7 +3361,9 @@
       <c r="BD15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BE15" s="4"/>
+      <c r="BE15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF15" s="4"/>
       <c r="BG15" s="4"/>
       <c r="BH15" s="4"/>
@@ -3515,7 +3537,9 @@
       <c r="BD16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE16" s="4"/>
+      <c r="BE16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF16" s="4"/>
       <c r="BG16" s="4"/>
       <c r="BH16" s="4"/>
@@ -3689,7 +3713,9 @@
       <c r="BD17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE17" s="4"/>
+      <c r="BE17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF17" s="4"/>
       <c r="BG17" s="4"/>
       <c r="BH17" s="4"/>
@@ -3863,7 +3889,9 @@
       <c r="BD18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE18" s="4"/>
+      <c r="BE18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF18" s="4"/>
       <c r="BG18" s="4"/>
       <c r="BH18" s="4"/>
@@ -4037,7 +4065,9 @@
       <c r="BD19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BE19" s="4"/>
+      <c r="BE19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF19" s="4"/>
       <c r="BG19" s="4"/>
       <c r="BH19" s="4"/>
@@ -4211,7 +4241,9 @@
       <c r="BD20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE20" s="4"/>
+      <c r="BE20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF20" s="4"/>
       <c r="BG20" s="4"/>
       <c r="BH20" s="4"/>
@@ -4383,9 +4415,11 @@
         <v>49</v>
       </c>
       <c r="BD21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE21" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="BE21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF21" s="4"/>
       <c r="BG21" s="4"/>
       <c r="BH21" s="4"/>
@@ -4557,9 +4591,11 @@
         <v>49</v>
       </c>
       <c r="BD22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE22" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="BE22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF22" s="4"/>
       <c r="BG22" s="4"/>
       <c r="BH22" s="4"/>
@@ -4733,7 +4769,9 @@
       <c r="BD23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE23" s="4"/>
+      <c r="BE23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF23" s="4"/>
       <c r="BG23" s="4"/>
       <c r="BH23" s="4"/>
@@ -4907,7 +4945,9 @@
       <c r="BD24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BE24" s="4"/>
+      <c r="BE24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF24" s="4"/>
       <c r="BG24" s="4"/>
       <c r="BH24" s="4"/>
@@ -5081,7 +5121,9 @@
       <c r="BD25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE25" s="4"/>
+      <c r="BE25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF25" s="4"/>
       <c r="BG25" s="4"/>
       <c r="BH25" s="4"/>
@@ -5255,7 +5297,9 @@
       <c r="BD26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE26" s="4"/>
+      <c r="BE26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF26" s="4"/>
       <c r="BG26" s="4"/>
       <c r="BH26" s="4"/>
@@ -5429,7 +5473,9 @@
       <c r="BD27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE27" s="4"/>
+      <c r="BE27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF27" s="4"/>
       <c r="BG27" s="4"/>
       <c r="BH27" s="4"/>
@@ -5603,7 +5649,9 @@
       <c r="BD28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE28" s="4"/>
+      <c r="BE28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF28" s="4"/>
       <c r="BG28" s="4"/>
       <c r="BH28" s="4"/>
@@ -5777,7 +5825,9 @@
       <c r="BD29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE29" s="4"/>
+      <c r="BE29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF29" s="4"/>
       <c r="BG29" s="4"/>
       <c r="BH29" s="4"/>
@@ -5951,7 +6001,9 @@
       <c r="BD30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE30" s="4"/>
+      <c r="BE30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF30" s="4"/>
       <c r="BG30" s="4"/>
       <c r="BH30" s="4"/>
@@ -6125,7 +6177,9 @@
       <c r="BD31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BE31" s="4"/>
+      <c r="BE31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BF31" s="4"/>
       <c r="BG31" s="4"/>
       <c r="BH31" s="4"/>
@@ -7835,7 +7889,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.18874723092556001</v>
+        <v>0.30311144625871245</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7844,7 +7898,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3307920087939481</v>
+        <v>0.13725449160183578</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7853,7 +7907,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64631691394003954</v>
+        <v>0.54270545006606097</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7862,7 +7916,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59125660092431276</v>
+        <v>0.24909586752265322</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7871,7 +7925,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94720259932145434</v>
+        <v>0.5760246347780813</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7880,7 +7934,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35777893059618715</v>
+        <v>0.51527640063740077</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7889,7 +7943,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72241125701913367</v>
+        <v>0.43658467679695334</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7898,7 +7952,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87832314312219739</v>
+        <v>0.37770341309110855</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7907,7 +7961,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93919890406195072</v>
+        <v>0.51806297502465004</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7916,7 +7970,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4839673573753146</v>
+        <v>0.71963827943337655</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7925,7 +7979,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25731180644600882</v>
+        <v>0.78686361321485221</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7934,7 +7988,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6492761175861355E-2</v>
+        <v>0.87150388899586129</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7943,7 +7997,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61013068013020055</v>
+        <v>0.94866480296760813</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7952,7 +8006,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72976781949235547</v>
+        <v>0.28856038966493835</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7961,7 +8015,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57811620029045641</v>
+        <v>0.15921818944030453</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7970,7 +8024,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43646221882078717</v>
+        <v>0.4985550811560403</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7979,7 +8033,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51820631500220127</v>
+        <v>0.63513801634168765</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7988,7 +8042,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97038488409229973</v>
+        <v>0.69590036303706493</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7997,7 +8051,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42447473530831858</v>
+        <v>1.4120455919753194E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8006,7 +8060,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95856785126642008</v>
+        <v>0.35993656696100329</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8015,7 +8069,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63608068721555522</v>
+        <v>0.31070754485794483</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8024,7 +8078,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13316897429066155</v>
+        <v>0.91475987646040546</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8033,7 +8087,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77658705395093164</v>
+        <v>0.29931373520975835</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8042,7 +8096,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57117485098540888</v>
+        <v>0.74133830409710644</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8051,7 +8105,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8295208745920486</v>
+        <v>0.37191534496152678</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8060,7 +8114,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92980787420684607</v>
+        <v>0.14446709992600248</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8069,7 +8123,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35884630731973022</v>
+        <v>0.89674781228890776</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1568EE0-ED26-49B7-B652-790FB6BA3FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D166B9-3736-4909-A0C7-3DFBCAA2EC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="50">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -769,7 +769,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BD11" sqref="BD11"/>
+      <selection pane="bottomRight" activeCell="BF30" sqref="BF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1324,9 @@
       <c r="BE3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF3" s="4"/>
+      <c r="BF3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG3" s="4"/>
       <c r="BH3" s="4"/>
     </row>
@@ -1500,7 +1502,9 @@
       <c r="BE4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BF4" s="4"/>
+      <c r="BF4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BG4" s="4"/>
       <c r="BH4" s="4"/>
     </row>
@@ -1956,7 +1960,9 @@
       <c r="BE7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF7" s="4"/>
+      <c r="BF7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG7" s="4"/>
       <c r="BH7" s="4"/>
     </row>
@@ -2132,7 +2138,9 @@
       <c r="BE8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF8" s="4"/>
+      <c r="BF8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG8" s="4"/>
       <c r="BH8" s="4"/>
     </row>
@@ -2308,7 +2316,9 @@
       <c r="BE9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF9" s="4"/>
+      <c r="BF9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG9" s="4"/>
       <c r="BH9" s="4"/>
     </row>
@@ -2484,7 +2494,9 @@
       <c r="BE10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF10" s="4"/>
+      <c r="BF10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG10" s="4"/>
       <c r="BH10" s="4"/>
     </row>
@@ -2660,7 +2672,9 @@
       <c r="BE11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF11" s="4"/>
+      <c r="BF11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG11" s="4"/>
       <c r="BH11" s="4"/>
     </row>
@@ -2836,7 +2850,9 @@
       <c r="BE12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BF12" s="4"/>
+      <c r="BF12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BG12" s="4"/>
       <c r="BH12" s="4"/>
     </row>
@@ -3012,7 +3028,9 @@
       <c r="BE13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF13" s="4"/>
+      <c r="BF13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG13" s="4"/>
       <c r="BH13" s="4"/>
     </row>
@@ -3188,7 +3206,9 @@
       <c r="BE14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF14" s="4"/>
+      <c r="BF14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG14" s="4"/>
       <c r="BH14" s="4"/>
     </row>
@@ -3364,7 +3384,9 @@
       <c r="BE15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF15" s="4"/>
+      <c r="BF15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG15" s="4"/>
       <c r="BH15" s="4"/>
     </row>
@@ -3540,7 +3562,9 @@
       <c r="BE16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF16" s="4"/>
+      <c r="BF16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG16" s="4"/>
       <c r="BH16" s="4"/>
     </row>
@@ -3716,7 +3740,9 @@
       <c r="BE17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF17" s="4"/>
+      <c r="BF17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG17" s="4"/>
       <c r="BH17" s="4"/>
     </row>
@@ -3892,7 +3918,9 @@
       <c r="BE18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF18" s="4"/>
+      <c r="BF18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BG18" s="4"/>
       <c r="BH18" s="4"/>
     </row>
@@ -4068,7 +4096,9 @@
       <c r="BE19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF19" s="4"/>
+      <c r="BF19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG19" s="4"/>
       <c r="BH19" s="4"/>
     </row>
@@ -4244,7 +4274,9 @@
       <c r="BE20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF20" s="4"/>
+      <c r="BF20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG20" s="4"/>
       <c r="BH20" s="4"/>
     </row>
@@ -4420,7 +4452,9 @@
       <c r="BE21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF21" s="4"/>
+      <c r="BF21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG21" s="4"/>
       <c r="BH21" s="4"/>
     </row>
@@ -4596,7 +4630,9 @@
       <c r="BE22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF22" s="4"/>
+      <c r="BF22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG22" s="4"/>
       <c r="BH22" s="4"/>
     </row>
@@ -4772,7 +4808,9 @@
       <c r="BE23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF23" s="4"/>
+      <c r="BF23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG23" s="4"/>
       <c r="BH23" s="4"/>
     </row>
@@ -4948,7 +4986,9 @@
       <c r="BE24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF24" s="4"/>
+      <c r="BF24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG24" s="4"/>
       <c r="BH24" s="4"/>
     </row>
@@ -5124,7 +5164,9 @@
       <c r="BE25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF25" s="4"/>
+      <c r="BF25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG25" s="4"/>
       <c r="BH25" s="4"/>
     </row>
@@ -5300,7 +5342,9 @@
       <c r="BE26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF26" s="4"/>
+      <c r="BF26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG26" s="4"/>
       <c r="BH26" s="4"/>
     </row>
@@ -5476,7 +5520,9 @@
       <c r="BE27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF27" s="4"/>
+      <c r="BF27" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BG27" s="4"/>
       <c r="BH27" s="4"/>
     </row>
@@ -5652,7 +5698,9 @@
       <c r="BE28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF28" s="4"/>
+      <c r="BF28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG28" s="4"/>
       <c r="BH28" s="4"/>
     </row>
@@ -5828,7 +5876,9 @@
       <c r="BE29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF29" s="4"/>
+      <c r="BF29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG29" s="4"/>
       <c r="BH29" s="4"/>
     </row>
@@ -6004,7 +6054,9 @@
       <c r="BE30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF30" s="4"/>
+      <c r="BF30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG30" s="4"/>
       <c r="BH30" s="4"/>
     </row>
@@ -6180,7 +6232,9 @@
       <c r="BE31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BF31" s="4"/>
+      <c r="BF31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BG31" s="4"/>
       <c r="BH31" s="4"/>
     </row>
@@ -7889,7 +7943,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.30311144625871245</v>
+        <v>0.84172183685876889</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7898,7 +7952,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13725449160183578</v>
+        <v>0.33455943193086113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7907,7 +7961,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54270545006606097</v>
+        <v>0.11920230531862241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7916,7 +7970,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24909586752265322</v>
+        <v>3.8481430548552575E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7925,7 +7979,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5760246347780813</v>
+        <v>0.82598388223880581</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7934,7 +7988,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51527640063740077</v>
+        <v>0.42775445310180171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7943,7 +7997,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43658467679695334</v>
+        <v>0.68868458089391782</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7952,7 +8006,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37770341309110855</v>
+        <v>0.44222814679335654</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7961,7 +8015,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51806297502465004</v>
+        <v>0.45881495747535472</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7970,7 +8024,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71963827943337655</v>
+        <v>0.43005202276510257</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7979,7 +8033,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78686361321485221</v>
+        <v>0.37182598633600072</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7988,7 +8042,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87150388899586129</v>
+        <v>0.32942691643310207</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7997,7 +8051,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94866480296760813</v>
+        <v>0.4903254299220885</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8006,7 +8060,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28856038966493835</v>
+        <v>0.72005792496876664</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8015,7 +8069,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15921818944030453</v>
+        <v>0.92434476755791917</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8024,7 +8078,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4985550811560403</v>
+        <v>0.18349599331723931</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8033,7 +8087,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63513801634168765</v>
+        <v>0.13011061151441883</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8042,7 +8096,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69590036303706493</v>
+        <v>0.16968351193504616</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8051,7 +8105,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4120455919753194E-2</v>
+        <v>0.76797163502932742</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8060,7 +8114,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35993656696100329</v>
+        <v>0.41819788570125782</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8069,7 +8123,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31070754485794483</v>
+        <v>0.79462634123164111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8078,7 +8132,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91475987646040546</v>
+        <v>0.11995753285828059</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8087,7 +8141,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29931373520975835</v>
+        <v>0.46742752939208443</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8096,7 +8150,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74133830409710644</v>
+        <v>6.295287004806438E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8105,7 +8159,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37191534496152678</v>
+        <v>0.43235976436746526</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8114,7 +8168,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14446709992600248</v>
+        <v>0.98893672116444531</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8123,7 +8177,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89674781228890776</v>
+        <v>5.3693970624029586E-2</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D166B9-3736-4909-A0C7-3DFBCAA2EC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E7AA5E-E6DA-498E-99CD-AD8475A60892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="50">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -763,13 +763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH38"/>
+  <dimension ref="A1:BR38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BF30" sqref="BF30"/>
+      <selection pane="bottomRight" activeCell="BK27" sqref="BK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,10 +787,10 @@
     <col min="24" max="24" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="40" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="55" width="7.5703125" customWidth="1"/>
+    <col min="41" max="70" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -969,8 +969,38 @@
       <c r="BH1" s="2">
         <v>45030</v>
       </c>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI1" s="2">
+        <v>45033</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>45034</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>45035</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>45036</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>45037</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>45040</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>45041</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>45042</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>45043</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1151,8 +1181,38 @@
       <c r="BH2" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1327,10 +1387,14 @@
       <c r="BF3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG3" s="4"/>
-      <c r="BH3" s="4"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BG3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1505,10 +1569,14 @@
       <c r="BF4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-    </row>
-    <row r="5" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BG4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1716,7 @@
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
     </row>
-    <row r="6" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1788,7 +1856,7 @@
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1963,10 +2031,14 @@
       <c r="BF7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BG7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2141,10 +2213,14 @@
       <c r="BF8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BG8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2319,10 +2395,14 @@
       <c r="BF9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG9" s="4"/>
-      <c r="BH9" s="4"/>
-    </row>
-    <row r="10" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2497,10 +2577,14 @@
       <c r="BF10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG10" s="4"/>
-      <c r="BH10" s="4"/>
-    </row>
-    <row r="11" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2675,10 +2759,14 @@
       <c r="BF11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG11" s="4"/>
-      <c r="BH11" s="4"/>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BG11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2853,10 +2941,14 @@
       <c r="BF12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BG12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3031,10 +3123,14 @@
       <c r="BF13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-    </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BG13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3209,10 +3305,14 @@
       <c r="BF14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BG14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3387,10 +3487,14 @@
       <c r="BF15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BG15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3565,8 +3669,12 @@
       <c r="BF16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG16" s="4"/>
-      <c r="BH16" s="4"/>
+      <c r="BG16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH16" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3743,8 +3851,12 @@
       <c r="BF17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
+      <c r="BG17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH17" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3921,8 +4033,12 @@
       <c r="BF18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
+      <c r="BG18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH18" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4099,8 +4215,12 @@
       <c r="BF19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
+      <c r="BG19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH19" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4277,8 +4397,12 @@
       <c r="BF20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
+      <c r="BG20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH20" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4455,8 +4579,12 @@
       <c r="BF21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG21" s="4"/>
-      <c r="BH21" s="4"/>
+      <c r="BG21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH21" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4633,8 +4761,12 @@
       <c r="BF22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
+      <c r="BG22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH22" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4811,8 +4943,12 @@
       <c r="BF23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
+      <c r="BG23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH23" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4989,8 +5125,12 @@
       <c r="BF24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG24" s="4"/>
-      <c r="BH24" s="4"/>
+      <c r="BG24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH24" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5167,8 +5307,12 @@
       <c r="BF25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG25" s="4"/>
-      <c r="BH25" s="4"/>
+      <c r="BG25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH25" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5345,8 +5489,12 @@
       <c r="BF26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG26" s="4"/>
-      <c r="BH26" s="4"/>
+      <c r="BG26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH26" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5523,8 +5671,12 @@
       <c r="BF27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BG27" s="4"/>
-      <c r="BH27" s="4"/>
+      <c r="BG27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH27" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5701,8 +5853,12 @@
       <c r="BF28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG28" s="4"/>
-      <c r="BH28" s="4"/>
+      <c r="BG28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH28" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5879,8 +6035,12 @@
       <c r="BF29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG29" s="4"/>
-      <c r="BH29" s="4"/>
+      <c r="BG29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH29" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6057,8 +6217,12 @@
       <c r="BF30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG30" s="4"/>
-      <c r="BH30" s="4"/>
+      <c r="BG30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH30" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6235,8 +6399,12 @@
       <c r="BF31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BG31" s="4"/>
-      <c r="BH31" s="4"/>
+      <c r="BG31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH31" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="38" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG38" s="5"/>
@@ -6249,7 +6417,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A7:G7 A8:H22 A23:J31 A4:AG6 A32:XFD1048576 I7:I22 J11:J22 J8:M10 K11:M31 M7:AG7 N8:AG31 BI3:XFD31 A3:BH3 A1:XFD2 AH4:BH31">
+  <conditionalFormatting sqref="A7:G7 A8:H22 A23:J31 A4:AG6 A32:XFD1048576 I7:I22 J11:J22 J8:M10 K11:M31 M7:AG7 N8:AG31 BI3:XFD31 A3:BH3 AH4:BH31 A1:XFD2">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -7943,7 +8111,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.84172183685876889</v>
+        <v>0.49199256650935874</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7952,7 +8120,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33455943193086113</v>
+        <v>0.35179500803799946</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7961,7 +8129,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11920230531862241</v>
+        <v>0.4905754262816725</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7970,7 +8138,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8481430548552575E-2</v>
+        <v>0.99868904700866079</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7979,7 +8147,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82598388223880581</v>
+        <v>0.77967162326550787</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7988,7 +8156,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42775445310180171</v>
+        <v>0.68602884192010671</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7997,7 +8165,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68868458089391782</v>
+        <v>0.4075432852812616</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8006,7 +8174,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44222814679335654</v>
+        <v>0.27344677471959777</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8015,7 +8183,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45881495747535472</v>
+        <v>0.8120868627137604</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8024,7 +8192,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43005202276510257</v>
+        <v>0.13709271512043975</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8033,7 +8201,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37182598633600072</v>
+        <v>0.78759040562933935</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8042,7 +8210,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32942691643310207</v>
+        <v>0.84761171547739633</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8051,7 +8219,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4903254299220885</v>
+        <v>0.85262779795804811</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8060,7 +8228,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72005792496876664</v>
+        <v>0.97294650190910781</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8069,7 +8237,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92434476755791917</v>
+        <v>0.24292298546613145</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8078,7 +8246,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18349599331723931</v>
+        <v>0.514778163179057</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8087,7 +8255,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13011061151441883</v>
+        <v>0.65963057222713584</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8096,7 +8264,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16968351193504616</v>
+        <v>0.80535838342064159</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8105,7 +8273,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76797163502932742</v>
+        <v>0.42205875848760366</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8114,7 +8282,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41819788570125782</v>
+        <v>0.55824501248050695</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8123,7 +8291,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79462634123164111</v>
+        <v>0.84241270689321801</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8132,7 +8300,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11995753285828059</v>
+        <v>0.62979701605741056</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8141,7 +8309,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46742752939208443</v>
+        <v>0.48307388381031657</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8150,7 +8318,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>6.295287004806438E-2</v>
+        <v>0.19621764828290433</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8159,7 +8327,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43235976436746526</v>
+        <v>0.9291768964659306</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8168,7 +8336,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98893672116444531</v>
+        <v>1.4609567196840256E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8177,7 +8345,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3693970624029586E-2</v>
+        <v>0.42686011615916286</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E7AA5E-E6DA-498E-99CD-AD8475A60892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00E2A2-854E-4ABE-B15C-BD436A6E2A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="50">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -322,6 +322,21 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -412,21 +427,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -766,10 +766,10 @@
   <dimension ref="A1:BR38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AV21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BK27" sqref="BK27"/>
+      <selection pane="bottomRight" activeCell="BI31" sqref="BI31:BJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,6 +1393,12 @@
       <c r="BH3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BI3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1574,6 +1580,12 @@
       </c>
       <c r="BH4" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
@@ -2037,6 +2049,12 @@
       <c r="BH7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BI7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ7" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2219,6 +2237,12 @@
       <c r="BH8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BI8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ8" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2401,6 +2425,12 @@
       <c r="BH9" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BI9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ9" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2583,6 +2613,12 @@
       <c r="BH10" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BI10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ10" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2765,6 +2801,12 @@
       <c r="BH11" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BI11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ11" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2947,6 +2989,12 @@
       <c r="BH12" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BI12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ12" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3129,6 +3177,12 @@
       <c r="BH13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BI13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ13" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3311,6 +3365,12 @@
       <c r="BH14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BI14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ14" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3493,6 +3553,12 @@
       <c r="BH15" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BI15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ15" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3675,8 +3741,14 @@
       <c r="BH16" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3857,8 +3929,14 @@
       <c r="BH17" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BI17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4039,8 +4117,14 @@
       <c r="BH18" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BI18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4221,8 +4305,14 @@
       <c r="BH19" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4403,8 +4493,14 @@
       <c r="BH20" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4585,8 +4681,14 @@
       <c r="BH21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4767,8 +4869,14 @@
       <c r="BH22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4949,8 +5057,14 @@
       <c r="BH23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5131,8 +5245,14 @@
       <c r="BH24" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5313,8 +5433,14 @@
       <c r="BH25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5495,8 +5621,14 @@
       <c r="BH26" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -5677,8 +5809,14 @@
       <c r="BH27" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BI27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5859,8 +5997,14 @@
       <c r="BH28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -6041,8 +6185,14 @@
       <c r="BH29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -6223,8 +6373,14 @@
       <c r="BH30" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ30" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -6403,6 +6559,12 @@
         <v>39</v>
       </c>
       <c r="BH31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ31" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6417,11 +6579,11 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A7:G7 A8:H22 A23:J31 A4:AG6 A32:XFD1048576 I7:I22 J11:J22 J8:M10 K11:M31 M7:AG7 N8:AG31 BI3:XFD31 A3:BH3 AH4:BH31 A1:XFD2">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD2 A3:BH3 A4:AG6 AH4:BH31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:XFD1048576 BI3:XFD31">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6652,15 +6814,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C30 E2:E30">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6991,15 +7153,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7716,25 +7878,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D30 F2:F30">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="B2:D30">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B30">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="F2:F30">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H30">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8066,15 +8228,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8111,7 +8273,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.49199256650935874</v>
+        <v>0.45679132504141717</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8120,7 +8282,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35179500803799946</v>
+        <v>0.82539265928104899</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8129,7 +8291,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4905754262816725</v>
+        <v>1.4514312891232839E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8138,7 +8300,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99868904700866079</v>
+        <v>0.94824023530754253</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8147,7 +8309,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77967162326550787</v>
+        <v>0.5981947866701316</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8156,7 +8318,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68602884192010671</v>
+        <v>0.54840959385425914</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8165,7 +8327,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4075432852812616</v>
+        <v>0.47696885380047671</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8174,7 +8336,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27344677471959777</v>
+        <v>0.34178199991562219</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8183,7 +8345,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8120868627137604</v>
+        <v>0.45852748528313536</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8192,7 +8354,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13709271512043975</v>
+        <v>0.54091686115993176</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8201,7 +8363,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78759040562933935</v>
+        <v>3.1624954898882063E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8210,7 +8372,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84761171547739633</v>
+        <v>0.43105734696220221</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8219,7 +8381,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85262779795804811</v>
+        <v>0.15070256686202521</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8228,7 +8390,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97294650190910781</v>
+        <v>0.99994688225452477</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8237,7 +8399,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24292298546613145</v>
+        <v>0.36134478005143889</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8246,7 +8408,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.514778163179057</v>
+        <v>0.4300277803363477</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8255,7 +8417,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65963057222713584</v>
+        <v>0.43403802169185313</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8264,7 +8426,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80535838342064159</v>
+        <v>0.4425582487784897</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8273,7 +8435,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42205875848760366</v>
+        <v>0.21962063933914011</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8282,7 +8444,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55824501248050695</v>
+        <v>0.11853668000842488</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8291,7 +8453,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84241270689321801</v>
+        <v>0.35538748591438696</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8300,7 +8462,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62979701605741056</v>
+        <v>0.41934671764232478</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8309,7 +8471,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48307388381031657</v>
+        <v>0.53184996257833927</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8318,7 +8480,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19621764828290433</v>
+        <v>0.1132726022650451</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8327,7 +8489,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9291768964659306</v>
+        <v>0.90889302912680259</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8336,7 +8498,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4609567196840256E-2</v>
+        <v>0.23887268649897064</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8345,7 +8507,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42686011615916286</v>
+        <v>0.78916506618120796</v>
       </c>
     </row>
   </sheetData>
@@ -8353,10 +8515,10 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00E2A2-854E-4ABE-B15C-BD436A6E2A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49642D5-9F74-4258-847A-11BBE4B76781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="50">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -766,10 +766,10 @@
   <dimension ref="A1:BR38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BI31" sqref="BI31:BJ31"/>
+      <selection pane="bottomRight" activeCell="BL22" sqref="BL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,6 +1399,18 @@
       <c r="BJ3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BK3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1587,6 +1599,18 @@
       <c r="BJ4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BK4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
     </row>
     <row r="5" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1727,6 +1751,12 @@
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
     </row>
     <row r="6" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1867,6 +1897,12 @@
       <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2055,6 +2091,18 @@
       <c r="BJ7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BK7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
+      <c r="BR7" s="4"/>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2243,6 +2291,18 @@
       <c r="BJ8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BK8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="4"/>
+      <c r="BR8" s="4"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2431,6 +2491,18 @@
       <c r="BJ9" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BK9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+      <c r="BQ9" s="4"/>
+      <c r="BR9" s="4"/>
     </row>
     <row r="10" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2619,6 +2691,18 @@
       <c r="BJ10" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BK10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
+      <c r="BR10" s="4"/>
     </row>
     <row r="11" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2807,6 +2891,18 @@
       <c r="BJ11" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BK11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
+      <c r="BO11" s="4"/>
+      <c r="BP11" s="4"/>
+      <c r="BQ11" s="4"/>
+      <c r="BR11" s="4"/>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2995,6 +3091,18 @@
       <c r="BJ12" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BK12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM12" s="4"/>
+      <c r="BN12" s="4"/>
+      <c r="BO12" s="4"/>
+      <c r="BP12" s="4"/>
+      <c r="BQ12" s="4"/>
+      <c r="BR12" s="4"/>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3183,6 +3291,18 @@
       <c r="BJ13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BK13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="4"/>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3371,6 +3491,18 @@
       <c r="BJ14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BK14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="4"/>
+      <c r="BR14" s="4"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3559,6 +3691,18 @@
       <c r="BJ15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BK15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="4"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3747,8 +3891,20 @@
       <c r="BJ16" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+      <c r="BR16" s="4"/>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3935,8 +4091,20 @@
       <c r="BJ17" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BK17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="4"/>
+      <c r="BQ17" s="4"/>
+      <c r="BR17" s="4"/>
+    </row>
+    <row r="18" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4123,8 +4291,20 @@
       <c r="BJ18" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BK18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
+      <c r="BP18" s="4"/>
+      <c r="BQ18" s="4"/>
+      <c r="BR18" s="4"/>
+    </row>
+    <row r="19" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4311,8 +4491,20 @@
       <c r="BJ19" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
+      <c r="BP19" s="4"/>
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="4"/>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4499,8 +4691,20 @@
       <c r="BJ20" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4"/>
+      <c r="BO20" s="4"/>
+      <c r="BP20" s="4"/>
+      <c r="BQ20" s="4"/>
+      <c r="BR20" s="4"/>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4687,8 +4891,20 @@
       <c r="BJ21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
+      <c r="BO21" s="4"/>
+      <c r="BP21" s="4"/>
+      <c r="BQ21" s="4"/>
+      <c r="BR21" s="4"/>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4875,8 +5091,20 @@
       <c r="BJ22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="4"/>
+      <c r="BP22" s="4"/>
+      <c r="BQ22" s="4"/>
+      <c r="BR22" s="4"/>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5063,8 +5291,20 @@
       <c r="BJ23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
+      <c r="BO23" s="4"/>
+      <c r="BP23" s="4"/>
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="4"/>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5251,8 +5491,20 @@
       <c r="BJ24" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="4"/>
+      <c r="BO24" s="4"/>
+      <c r="BP24" s="4"/>
+      <c r="BQ24" s="4"/>
+      <c r="BR24" s="4"/>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5439,8 +5691,20 @@
       <c r="BJ25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM25" s="4"/>
+      <c r="BN25" s="4"/>
+      <c r="BO25" s="4"/>
+      <c r="BP25" s="4"/>
+      <c r="BQ25" s="4"/>
+      <c r="BR25" s="4"/>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5627,8 +5891,20 @@
       <c r="BJ26" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM26" s="4"/>
+      <c r="BN26" s="4"/>
+      <c r="BO26" s="4"/>
+      <c r="BP26" s="4"/>
+      <c r="BQ26" s="4"/>
+      <c r="BR26" s="4"/>
+    </row>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -5815,8 +6091,20 @@
       <c r="BJ27" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BK27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM27" s="4"/>
+      <c r="BN27" s="4"/>
+      <c r="BO27" s="4"/>
+      <c r="BP27" s="4"/>
+      <c r="BQ27" s="4"/>
+      <c r="BR27" s="4"/>
+    </row>
+    <row r="28" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6003,8 +6291,20 @@
       <c r="BJ28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM28" s="4"/>
+      <c r="BN28" s="4"/>
+      <c r="BO28" s="4"/>
+      <c r="BP28" s="4"/>
+      <c r="BQ28" s="4"/>
+      <c r="BR28" s="4"/>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -6191,8 +6491,20 @@
       <c r="BJ29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM29" s="4"/>
+      <c r="BN29" s="4"/>
+      <c r="BO29" s="4"/>
+      <c r="BP29" s="4"/>
+      <c r="BQ29" s="4"/>
+      <c r="BR29" s="4"/>
+    </row>
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -6379,8 +6691,20 @@
       <c r="BJ30" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM30" s="4"/>
+      <c r="BN30" s="4"/>
+      <c r="BO30" s="4"/>
+      <c r="BP30" s="4"/>
+      <c r="BQ30" s="4"/>
+      <c r="BR30" s="4"/>
+    </row>
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -6567,6 +6891,18 @@
       <c r="BJ31" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BK31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM31" s="4"/>
+      <c r="BN31" s="4"/>
+      <c r="BO31" s="4"/>
+      <c r="BP31" s="4"/>
+      <c r="BQ31" s="4"/>
+      <c r="BR31" s="4"/>
     </row>
     <row r="38" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG38" s="5"/>
@@ -8273,7 +8609,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.45679132504141717</v>
+        <v>6.5206636731883316E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8282,7 +8618,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82539265928104899</v>
+        <v>0.53130256686197197</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8291,7 +8627,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4514312891232839E-3</v>
+        <v>0.89804463288302783</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8300,7 +8636,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94824023530754253</v>
+        <v>0.63445290688905165</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8309,7 +8645,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5981947866701316</v>
+        <v>0.49814924341342548</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8318,7 +8654,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54840959385425914</v>
+        <v>0.15648628685445665</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8327,7 +8663,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47696885380047671</v>
+        <v>0.31141362397485084</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8336,7 +8672,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34178199991562219</v>
+        <v>0.52544236577174408</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8345,7 +8681,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45852748528313536</v>
+        <v>0.33612620614245847</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8354,7 +8690,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54091686115993176</v>
+        <v>0.45686998147858904</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8363,7 +8699,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1624954898882063E-2</v>
+        <v>0.12075231408605269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8372,7 +8708,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43105734696220221</v>
+        <v>0.87384331033681439</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8381,7 +8717,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15070256686202521</v>
+        <v>0.34513782957093697</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8390,7 +8726,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99994688225452477</v>
+        <v>0.66841389371325877</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8399,7 +8735,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36134478005143889</v>
+        <v>0.25436052084824945</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8408,7 +8744,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4300277803363477</v>
+        <v>0.70125731519349521</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8417,7 +8753,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43403802169185313</v>
+        <v>0.92584462954677271</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8426,7 +8762,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4425582487784897</v>
+        <v>0.85609600661089524</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8435,7 +8771,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21962063933914011</v>
+        <v>0.45109214863152836</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8444,7 +8780,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11853668000842488</v>
+        <v>0.8792336694263585</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8453,7 +8789,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35538748591438696</v>
+        <v>0.93168625983060727</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8462,7 +8798,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41934671764232478</v>
+        <v>0.23915837109465055</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8471,7 +8807,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53184996257833927</v>
+        <v>0.79271079516786747</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8480,7 +8816,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1132726022650451</v>
+        <v>0.79908217183317509</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8489,7 +8825,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90889302912680259</v>
+        <v>0.21041072152093709</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8498,7 +8834,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23887268649897064</v>
+        <v>0.32200912317715336</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8507,7 +8843,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78916506618120796</v>
+        <v>0.43878992362416025</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49642D5-9F74-4258-847A-11BBE4B76781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0451CDB1-AA19-4160-8F6D-FBC4843AA4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="51">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -215,6 +215,9 @@
   <si>
     <t xml:space="preserve"> -</t>
   </si>
+  <si>
+    <t>Feriado</t>
+  </si>
 </sst>
 </file>
 
@@ -303,21 +306,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -427,6 +415,21 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -769,7 +772,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BL22" sqref="BL22"/>
+      <selection pane="bottomRight" activeCell="BL31" sqref="BL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,8 +1408,12 @@
       <c r="BL3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
+      <c r="BM3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO3" s="4"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
@@ -1605,8 +1612,12 @@
       <c r="BL4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
+      <c r="BM4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
       <c r="BQ4" s="4"/>
@@ -1751,7 +1762,9 @@
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
-      <c r="BM5" s="4"/>
+      <c r="BM5" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="BN5" s="4"/>
       <c r="BO5" s="4"/>
       <c r="BP5" s="4"/>
@@ -1897,7 +1910,9 @@
       <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
-      <c r="BM6" s="4"/>
+      <c r="BM6" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="BN6" s="4"/>
       <c r="BO6" s="4"/>
       <c r="BP6" s="4"/>
@@ -2097,8 +2112,12 @@
       <c r="BL7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BM7" s="4"/>
-      <c r="BN7" s="4"/>
+      <c r="BM7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BO7" s="4"/>
       <c r="BP7" s="4"/>
       <c r="BQ7" s="4"/>
@@ -2297,8 +2316,12 @@
       <c r="BL8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM8" s="4"/>
-      <c r="BN8" s="4"/>
+      <c r="BM8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO8" s="4"/>
       <c r="BP8" s="4"/>
       <c r="BQ8" s="4"/>
@@ -2497,8 +2520,12 @@
       <c r="BL9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BM9" s="4"/>
-      <c r="BN9" s="4"/>
+      <c r="BM9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BO9" s="4"/>
       <c r="BP9" s="4"/>
       <c r="BQ9" s="4"/>
@@ -2697,8 +2724,12 @@
       <c r="BL10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM10" s="4"/>
-      <c r="BN10" s="4"/>
+      <c r="BM10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO10" s="4"/>
       <c r="BP10" s="4"/>
       <c r="BQ10" s="4"/>
@@ -2897,8 +2928,12 @@
       <c r="BL11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM11" s="4"/>
-      <c r="BN11" s="4"/>
+      <c r="BM11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO11" s="4"/>
       <c r="BP11" s="4"/>
       <c r="BQ11" s="4"/>
@@ -3097,8 +3132,12 @@
       <c r="BL12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BM12" s="4"/>
-      <c r="BN12" s="4"/>
+      <c r="BM12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BO12" s="4"/>
       <c r="BP12" s="4"/>
       <c r="BQ12" s="4"/>
@@ -3297,8 +3336,12 @@
       <c r="BL13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM13" s="4"/>
-      <c r="BN13" s="4"/>
+      <c r="BM13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO13" s="4"/>
       <c r="BP13" s="4"/>
       <c r="BQ13" s="4"/>
@@ -3497,8 +3540,12 @@
       <c r="BL14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM14" s="4"/>
-      <c r="BN14" s="4"/>
+      <c r="BM14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO14" s="4"/>
       <c r="BP14" s="4"/>
       <c r="BQ14" s="4"/>
@@ -3697,8 +3744,12 @@
       <c r="BL15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM15" s="4"/>
-      <c r="BN15" s="4"/>
+      <c r="BM15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO15" s="4"/>
       <c r="BP15" s="4"/>
       <c r="BQ15" s="4"/>
@@ -3897,8 +3948,12 @@
       <c r="BL16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM16" s="4"/>
-      <c r="BN16" s="4"/>
+      <c r="BM16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO16" s="4"/>
       <c r="BP16" s="4"/>
       <c r="BQ16" s="4"/>
@@ -4097,8 +4152,12 @@
       <c r="BL17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BM17" s="4"/>
-      <c r="BN17" s="4"/>
+      <c r="BM17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO17" s="4"/>
       <c r="BP17" s="4"/>
       <c r="BQ17" s="4"/>
@@ -4297,8 +4356,12 @@
       <c r="BL18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BM18" s="4"/>
-      <c r="BN18" s="4"/>
+      <c r="BM18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO18" s="4"/>
       <c r="BP18" s="4"/>
       <c r="BQ18" s="4"/>
@@ -4497,8 +4560,12 @@
       <c r="BL19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="4"/>
+      <c r="BM19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO19" s="4"/>
       <c r="BP19" s="4"/>
       <c r="BQ19" s="4"/>
@@ -4697,8 +4764,12 @@
       <c r="BL20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM20" s="4"/>
-      <c r="BN20" s="4"/>
+      <c r="BM20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO20" s="4"/>
       <c r="BP20" s="4"/>
       <c r="BQ20" s="4"/>
@@ -4897,8 +4968,12 @@
       <c r="BL21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BM21" s="4"/>
-      <c r="BN21" s="4"/>
+      <c r="BM21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4"/>
       <c r="BQ21" s="4"/>
@@ -5097,8 +5172,12 @@
       <c r="BL22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM22" s="4"/>
-      <c r="BN22" s="4"/>
+      <c r="BM22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO22" s="4"/>
       <c r="BP22" s="4"/>
       <c r="BQ22" s="4"/>
@@ -5297,8 +5376,12 @@
       <c r="BL23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BM23" s="4"/>
-      <c r="BN23" s="4"/>
+      <c r="BM23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO23" s="4"/>
       <c r="BP23" s="4"/>
       <c r="BQ23" s="4"/>
@@ -5497,8 +5580,12 @@
       <c r="BL24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM24" s="4"/>
-      <c r="BN24" s="4"/>
+      <c r="BM24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO24" s="4"/>
       <c r="BP24" s="4"/>
       <c r="BQ24" s="4"/>
@@ -5697,8 +5784,12 @@
       <c r="BL25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM25" s="4"/>
-      <c r="BN25" s="4"/>
+      <c r="BM25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO25" s="4"/>
       <c r="BP25" s="4"/>
       <c r="BQ25" s="4"/>
@@ -5897,8 +5988,12 @@
       <c r="BL26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM26" s="4"/>
-      <c r="BN26" s="4"/>
+      <c r="BM26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO26" s="4"/>
       <c r="BP26" s="4"/>
       <c r="BQ26" s="4"/>
@@ -6097,8 +6192,12 @@
       <c r="BL27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM27" s="4"/>
-      <c r="BN27" s="4"/>
+      <c r="BM27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO27" s="4"/>
       <c r="BP27" s="4"/>
       <c r="BQ27" s="4"/>
@@ -6297,8 +6396,12 @@
       <c r="BL28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM28" s="4"/>
-      <c r="BN28" s="4"/>
+      <c r="BM28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO28" s="4"/>
       <c r="BP28" s="4"/>
       <c r="BQ28" s="4"/>
@@ -6497,8 +6600,12 @@
       <c r="BL29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM29" s="4"/>
-      <c r="BN29" s="4"/>
+      <c r="BM29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO29" s="4"/>
       <c r="BP29" s="4"/>
       <c r="BQ29" s="4"/>
@@ -6697,8 +6804,12 @@
       <c r="BL30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BM30" s="4"/>
-      <c r="BN30" s="4"/>
+      <c r="BM30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO30" s="4"/>
       <c r="BP30" s="4"/>
       <c r="BQ30" s="4"/>
@@ -6895,10 +7006,14 @@
         <v>39</v>
       </c>
       <c r="BL31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM31" s="4"/>
-      <c r="BN31" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="BM31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BO31" s="4"/>
       <c r="BP31" s="4"/>
       <c r="BQ31" s="4"/>
@@ -6915,11 +7030,11 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD2 A3:BH3 A4:AG6 AH4:BH31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:XFD1048576 BI3:XFD31">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD2 A3:BH3 BI3:XFD31 A4:AG6 AH4:BH31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:XFD1048576">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7150,15 +7265,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C30 E2:E30">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7489,15 +7604,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8214,25 +8329,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H30">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8564,15 +8679,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8609,7 +8724,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>6.5206636731883316E-2</v>
+        <v>0.84740313668839817</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8618,7 +8733,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53130256686197197</v>
+        <v>0.28614054591887428</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8627,7 +8742,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89804463288302783</v>
+        <v>0.6764254413479508</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8636,7 +8751,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63445290688905165</v>
+        <v>0.84954284902368593</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8645,7 +8760,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49814924341342548</v>
+        <v>0.14208079413291075</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8654,7 +8769,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15648628685445665</v>
+        <v>0.92402101238098733</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8663,7 +8778,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31141362397485084</v>
+        <v>0.27785332002886065</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8672,7 +8787,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52544236577174408</v>
+        <v>0.57710569439905768</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8681,7 +8796,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33612620614245847</v>
+        <v>0.87834170485111518</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8690,7 +8805,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45686998147858904</v>
+        <v>0.43208494249460272</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8699,7 +8814,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12075231408605269</v>
+        <v>0.45273016752776474</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8708,7 +8823,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87384331033681439</v>
+        <v>0.30759548738722076</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8717,7 +8832,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34513782957093697</v>
+        <v>0.20398457227995492</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8726,7 +8841,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66841389371325877</v>
+        <v>0.74743719303727896</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8735,7 +8850,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25436052084824945</v>
+        <v>0.52006298713563659</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8744,7 +8859,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70125731519349521</v>
+        <v>0.22895427622213049</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8753,7 +8868,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92584462954677271</v>
+        <v>0.25640778381822504</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8762,7 +8877,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85609600661089524</v>
+        <v>0.73247366745789644</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8771,7 +8886,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45109214863152836</v>
+        <v>0.57124757192978659</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8780,7 +8895,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8792336694263585</v>
+        <v>0.48914066339358542</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8789,7 +8904,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93168625983060727</v>
+        <v>0.43933070566957144</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8798,7 +8913,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23915837109465055</v>
+        <v>0.17276139352418829</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8807,7 +8922,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79271079516786747</v>
+        <v>0.21964748130988132</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8816,7 +8931,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79908217183317509</v>
+        <v>0.7964796952328046</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8825,7 +8940,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21041072152093709</v>
+        <v>0.71288005067964466</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8834,7 +8949,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32200912317715336</v>
+        <v>0.65607171011402465</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8843,7 +8958,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43878992362416025</v>
+        <v>0.43921270960845382</v>
       </c>
     </row>
   </sheetData>
@@ -8851,10 +8966,10 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0451CDB1-AA19-4160-8F6D-FBC4843AA4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A183D426-7312-4808-8135-084C94842894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="51">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -772,7 +772,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BL31" sqref="BL31"/>
+      <selection pane="bottomRight" activeCell="BO29" sqref="BO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1414,9 @@
       <c r="BN3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO3" s="4"/>
+      <c r="BO3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
       <c r="BR3" s="4"/>
@@ -1618,7 +1620,9 @@
       <c r="BN4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO4" s="4"/>
+      <c r="BO4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP4" s="4"/>
       <c r="BQ4" s="4"/>
       <c r="BR4" s="4"/>
@@ -2118,7 +2122,9 @@
       <c r="BN7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BO7" s="4"/>
+      <c r="BO7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BP7" s="4"/>
       <c r="BQ7" s="4"/>
       <c r="BR7" s="4"/>
@@ -2322,7 +2328,9 @@
       <c r="BN8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO8" s="4"/>
+      <c r="BO8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP8" s="4"/>
       <c r="BQ8" s="4"/>
       <c r="BR8" s="4"/>
@@ -2526,7 +2534,9 @@
       <c r="BN9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BO9" s="4"/>
+      <c r="BO9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BP9" s="4"/>
       <c r="BQ9" s="4"/>
       <c r="BR9" s="4"/>
@@ -2730,7 +2740,9 @@
       <c r="BN10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO10" s="4"/>
+      <c r="BO10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BP10" s="4"/>
       <c r="BQ10" s="4"/>
       <c r="BR10" s="4"/>
@@ -2934,7 +2946,9 @@
       <c r="BN11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO11" s="4"/>
+      <c r="BO11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP11" s="4"/>
       <c r="BQ11" s="4"/>
       <c r="BR11" s="4"/>
@@ -3138,7 +3152,9 @@
       <c r="BN12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BO12" s="4"/>
+      <c r="BO12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BP12" s="4"/>
       <c r="BQ12" s="4"/>
       <c r="BR12" s="4"/>
@@ -3342,7 +3358,9 @@
       <c r="BN13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO13" s="4"/>
+      <c r="BO13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP13" s="4"/>
       <c r="BQ13" s="4"/>
       <c r="BR13" s="4"/>
@@ -3546,7 +3564,9 @@
       <c r="BN14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO14" s="4"/>
+      <c r="BO14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP14" s="4"/>
       <c r="BQ14" s="4"/>
       <c r="BR14" s="4"/>
@@ -3750,7 +3770,9 @@
       <c r="BN15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO15" s="4"/>
+      <c r="BO15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP15" s="4"/>
       <c r="BQ15" s="4"/>
       <c r="BR15" s="4"/>
@@ -3954,7 +3976,9 @@
       <c r="BN16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO16" s="4"/>
+      <c r="BO16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP16" s="4"/>
       <c r="BQ16" s="4"/>
       <c r="BR16" s="4"/>
@@ -4158,7 +4182,9 @@
       <c r="BN17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO17" s="4"/>
+      <c r="BO17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP17" s="4"/>
       <c r="BQ17" s="4"/>
       <c r="BR17" s="4"/>
@@ -4362,7 +4388,9 @@
       <c r="BN18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO18" s="4"/>
+      <c r="BO18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP18" s="4"/>
       <c r="BQ18" s="4"/>
       <c r="BR18" s="4"/>
@@ -4566,7 +4594,9 @@
       <c r="BN19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO19" s="4"/>
+      <c r="BO19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP19" s="4"/>
       <c r="BQ19" s="4"/>
       <c r="BR19" s="4"/>
@@ -4770,7 +4800,9 @@
       <c r="BN20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO20" s="4"/>
+      <c r="BO20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP20" s="4"/>
       <c r="BQ20" s="4"/>
       <c r="BR20" s="4"/>
@@ -4974,7 +5006,9 @@
       <c r="BN21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BO21" s="4"/>
+      <c r="BO21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP21" s="4"/>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
@@ -5178,7 +5212,9 @@
       <c r="BN22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO22" s="4"/>
+      <c r="BO22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BP22" s="4"/>
       <c r="BQ22" s="4"/>
       <c r="BR22" s="4"/>
@@ -5382,7 +5418,9 @@
       <c r="BN23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO23" s="4"/>
+      <c r="BO23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP23" s="4"/>
       <c r="BQ23" s="4"/>
       <c r="BR23" s="4"/>
@@ -5586,7 +5624,9 @@
       <c r="BN24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO24" s="4"/>
+      <c r="BO24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BP24" s="4"/>
       <c r="BQ24" s="4"/>
       <c r="BR24" s="4"/>
@@ -5790,7 +5830,9 @@
       <c r="BN25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO25" s="4"/>
+      <c r="BO25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP25" s="4"/>
       <c r="BQ25" s="4"/>
       <c r="BR25" s="4"/>
@@ -5994,7 +6036,9 @@
       <c r="BN26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO26" s="4"/>
+      <c r="BO26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP26" s="4"/>
       <c r="BQ26" s="4"/>
       <c r="BR26" s="4"/>
@@ -6198,7 +6242,9 @@
       <c r="BN27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO27" s="4"/>
+      <c r="BO27" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BP27" s="4"/>
       <c r="BQ27" s="4"/>
       <c r="BR27" s="4"/>
@@ -6402,7 +6448,9 @@
       <c r="BN28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO28" s="4"/>
+      <c r="BO28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP28" s="4"/>
       <c r="BQ28" s="4"/>
       <c r="BR28" s="4"/>
@@ -6606,7 +6654,9 @@
       <c r="BN29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO29" s="4"/>
+      <c r="BO29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP29" s="4"/>
       <c r="BQ29" s="4"/>
       <c r="BR29" s="4"/>
@@ -6810,7 +6860,9 @@
       <c r="BN30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO30" s="4"/>
+      <c r="BO30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP30" s="4"/>
       <c r="BQ30" s="4"/>
       <c r="BR30" s="4"/>
@@ -7014,7 +7066,9 @@
       <c r="BN31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BO31" s="4"/>
+      <c r="BO31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BP31" s="4"/>
       <c r="BQ31" s="4"/>
       <c r="BR31" s="4"/>
@@ -8724,7 +8778,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.84740313668839817</v>
+        <v>0.40612789400929372</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8733,7 +8787,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28614054591887428</v>
+        <v>0.84093553252567443</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8742,7 +8796,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6764254413479508</v>
+        <v>0.47989995913186312</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8751,7 +8805,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84954284902368593</v>
+        <v>0.31488055324066466</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8760,7 +8814,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14208079413291075</v>
+        <v>0.61509500716014065</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8769,7 +8823,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92402101238098733</v>
+        <v>0.75081924974120118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8778,7 +8832,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27785332002886065</v>
+        <v>0.47779155587350142</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8787,7 +8841,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57710569439905768</v>
+        <v>0.12657010674954883</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8796,7 +8850,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87834170485111518</v>
+        <v>4.6275289465095293E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8805,7 +8859,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43208494249460272</v>
+        <v>0.35519936943692076</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8814,7 +8868,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45273016752776474</v>
+        <v>0.82771654645822201</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8823,7 +8877,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30759548738722076</v>
+        <v>0.86655689147863979</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8832,7 +8886,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20398457227995492</v>
+        <v>0.65170943486417032</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8841,7 +8895,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74743719303727896</v>
+        <v>0.98381512841016316</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8850,7 +8904,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52006298713563659</v>
+        <v>2.0677854165819021E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8859,7 +8913,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22895427622213049</v>
+        <v>2.6110764374628337E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8868,7 +8922,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25640778381822504</v>
+        <v>0.72035148104761781</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8877,7 +8931,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73247366745789644</v>
+        <v>0.4250598368218681</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8886,7 +8940,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57124757192978659</v>
+        <v>0.83090697862619978</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8895,7 +8949,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48914066339358542</v>
+        <v>0.3231996209394743</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8904,7 +8958,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43933070566957144</v>
+        <v>0.61701187749214115</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8913,7 +8967,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17276139352418829</v>
+        <v>0.24450140317399471</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8922,7 +8976,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21964748130988132</v>
+        <v>0.90000445430519305</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8931,7 +8985,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7964796952328046</v>
+        <v>0.28375175682484521</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8940,7 +8994,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71288005067964466</v>
+        <v>0.53369338080882189</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8949,7 +9003,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65607171011402465</v>
+        <v>0.48499627403877987</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8958,7 +9012,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43921270960845382</v>
+        <v>0.76305338514888232</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0451CDB1-AA19-4160-8F6D-FBC4843AA4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B2E63F-A2B5-4130-BC40-846414F7655D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -769,10 +780,10 @@
   <dimension ref="A1:BR38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BL31" sqref="BL31"/>
+      <selection pane="bottomRight" activeCell="BL23" sqref="BL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8724,7 +8735,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.84740313668839817</v>
+        <v>9.3770503299090979E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8733,7 +8744,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28614054591887428</v>
+        <v>3.308541110243024E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8742,7 +8753,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6764254413479508</v>
+        <v>0.23953945984795089</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8751,7 +8762,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84954284902368593</v>
+        <v>0.95158658071983371</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8760,7 +8771,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14208079413291075</v>
+        <v>0.89479150023033138</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8769,7 +8780,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92402101238098733</v>
+        <v>0.23838784191616524</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8778,7 +8789,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27785332002886065</v>
+        <v>0.55469246308622966</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8787,7 +8798,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57710569439905768</v>
+        <v>0.85220813857723587</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8796,7 +8807,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87834170485111518</v>
+        <v>0.58218430928592213</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8805,7 +8816,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43208494249460272</v>
+        <v>0.97801027586438816</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8814,7 +8825,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45273016752776474</v>
+        <v>0.55887720502630844</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8823,7 +8834,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30759548738722076</v>
+        <v>0.37419498826996489</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8832,7 +8843,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20398457227995492</v>
+        <v>4.0775197566420229E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8841,7 +8852,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74743719303727896</v>
+        <v>0.35288043923354628</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8850,7 +8861,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52006298713563659</v>
+        <v>0.36230508650909798</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8859,7 +8870,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22895427622213049</v>
+        <v>0.29204321184239512</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8868,7 +8879,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25640778381822504</v>
+        <v>0.34953120262233173</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8877,7 +8888,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73247366745789644</v>
+        <v>0.99434418022183058</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8886,7 +8897,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57124757192978659</v>
+        <v>0.78264665372449171</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8895,7 +8906,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48914066339358542</v>
+        <v>0.11916216544068603</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8904,7 +8915,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43933070566957144</v>
+        <v>0.27192694977277054</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8913,7 +8924,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17276139352418829</v>
+        <v>9.3806922389890524E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8922,7 +8933,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21964748130988132</v>
+        <v>0.2101530915378802</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8931,7 +8942,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7964796952328046</v>
+        <v>0.92288463417019195</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8940,7 +8951,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71288005067964466</v>
+        <v>0.7601970315950799</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8949,7 +8960,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65607171011402465</v>
+        <v>0.221034649288952</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8958,7 +8969,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43921270960845382</v>
+        <v>0.10464147321307204</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A183D426-7312-4808-8135-084C94842894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1C37A0-8011-4C7A-907B-6BAFFCA36B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="51">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -772,7 +772,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BO29" sqref="BO29"/>
+      <selection pane="bottomRight" activeCell="BP27" sqref="BP27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1417,9 @@
       <c r="BO3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP3" s="4"/>
+      <c r="BP3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ3" s="4"/>
       <c r="BR3" s="4"/>
     </row>
@@ -1623,7 +1625,9 @@
       <c r="BO4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP4" s="4"/>
+      <c r="BP4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ4" s="4"/>
       <c r="BR4" s="4"/>
     </row>
@@ -2125,7 +2129,9 @@
       <c r="BO7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BP7" s="4"/>
+      <c r="BP7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BQ7" s="4"/>
       <c r="BR7" s="4"/>
     </row>
@@ -2331,7 +2337,9 @@
       <c r="BO8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP8" s="4"/>
+      <c r="BP8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ8" s="4"/>
       <c r="BR8" s="4"/>
     </row>
@@ -2537,7 +2545,9 @@
       <c r="BO9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BP9" s="4"/>
+      <c r="BP9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BQ9" s="4"/>
       <c r="BR9" s="4"/>
     </row>
@@ -2743,7 +2753,9 @@
       <c r="BO10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BP10" s="4"/>
+      <c r="BP10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BQ10" s="4"/>
       <c r="BR10" s="4"/>
     </row>
@@ -2949,7 +2961,9 @@
       <c r="BO11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP11" s="4"/>
+      <c r="BP11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ11" s="4"/>
       <c r="BR11" s="4"/>
     </row>
@@ -3155,7 +3169,9 @@
       <c r="BO12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BP12" s="4"/>
+      <c r="BP12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BQ12" s="4"/>
       <c r="BR12" s="4"/>
     </row>
@@ -3361,7 +3377,9 @@
       <c r="BO13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP13" s="4"/>
+      <c r="BP13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ13" s="4"/>
       <c r="BR13" s="4"/>
     </row>
@@ -3567,7 +3585,9 @@
       <c r="BO14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP14" s="4"/>
+      <c r="BP14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ14" s="4"/>
       <c r="BR14" s="4"/>
     </row>
@@ -3773,7 +3793,9 @@
       <c r="BO15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP15" s="4"/>
+      <c r="BP15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ15" s="4"/>
       <c r="BR15" s="4"/>
     </row>
@@ -3979,7 +4001,9 @@
       <c r="BO16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP16" s="4"/>
+      <c r="BP16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ16" s="4"/>
       <c r="BR16" s="4"/>
     </row>
@@ -4185,7 +4209,9 @@
       <c r="BO17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP17" s="4"/>
+      <c r="BP17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ17" s="4"/>
       <c r="BR17" s="4"/>
     </row>
@@ -4391,7 +4417,9 @@
       <c r="BO18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP18" s="4"/>
+      <c r="BP18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ18" s="4"/>
       <c r="BR18" s="4"/>
     </row>
@@ -4597,7 +4625,9 @@
       <c r="BO19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP19" s="4"/>
+      <c r="BP19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ19" s="4"/>
       <c r="BR19" s="4"/>
     </row>
@@ -4803,7 +4833,9 @@
       <c r="BO20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP20" s="4"/>
+      <c r="BP20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ20" s="4"/>
       <c r="BR20" s="4"/>
     </row>
@@ -5009,7 +5041,9 @@
       <c r="BO21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP21" s="4"/>
+      <c r="BP21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
     </row>
@@ -5215,7 +5249,9 @@
       <c r="BO22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BP22" s="4"/>
+      <c r="BP22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ22" s="4"/>
       <c r="BR22" s="4"/>
     </row>
@@ -5421,7 +5457,9 @@
       <c r="BO23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP23" s="4"/>
+      <c r="BP23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ23" s="4"/>
       <c r="BR23" s="4"/>
     </row>
@@ -5627,7 +5665,9 @@
       <c r="BO24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BP24" s="4"/>
+      <c r="BP24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BQ24" s="4"/>
       <c r="BR24" s="4"/>
     </row>
@@ -5833,7 +5873,9 @@
       <c r="BO25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP25" s="4"/>
+      <c r="BP25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ25" s="4"/>
       <c r="BR25" s="4"/>
     </row>
@@ -6039,7 +6081,9 @@
       <c r="BO26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP26" s="4"/>
+      <c r="BP26" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BQ26" s="4"/>
       <c r="BR26" s="4"/>
     </row>
@@ -6245,7 +6289,9 @@
       <c r="BO27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BP27" s="4"/>
+      <c r="BP27" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BQ27" s="4"/>
       <c r="BR27" s="4"/>
     </row>
@@ -6451,7 +6497,9 @@
       <c r="BO28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP28" s="4"/>
+      <c r="BP28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ28" s="4"/>
       <c r="BR28" s="4"/>
     </row>
@@ -6657,7 +6705,9 @@
       <c r="BO29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP29" s="4"/>
+      <c r="BP29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ29" s="4"/>
       <c r="BR29" s="4"/>
     </row>
@@ -6863,7 +6913,9 @@
       <c r="BO30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP30" s="4"/>
+      <c r="BP30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ30" s="4"/>
       <c r="BR30" s="4"/>
     </row>
@@ -7069,7 +7121,9 @@
       <c r="BO31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BP31" s="4"/>
+      <c r="BP31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BQ31" s="4"/>
       <c r="BR31" s="4"/>
     </row>
@@ -8778,7 +8832,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.40612789400929372</v>
+        <v>0.24648002290568816</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8787,7 +8841,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84093553252567443</v>
+        <v>0.24539806564415367</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8796,7 +8850,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47989995913186312</v>
+        <v>0.74739872757200165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8805,7 +8859,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31488055324066466</v>
+        <v>0.78386090172303069</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8814,7 +8868,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61509500716014065</v>
+        <v>0.20896359775100382</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8823,7 +8877,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75081924974120118</v>
+        <v>0.57371992983905873</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8832,7 +8886,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47779155587350142</v>
+        <v>0.36194587824848046</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8841,7 +8895,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12657010674954883</v>
+        <v>0.42675553055416016</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8850,7 +8904,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6275289465095293E-3</v>
+        <v>0.98252706623180441</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8859,7 +8913,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35519936943692076</v>
+        <v>0.14866212469792839</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8868,7 +8922,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82771654645822201</v>
+        <v>0.85100792783628665</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8877,7 +8931,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86655689147863979</v>
+        <v>0.51879750084234177</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8886,7 +8940,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65170943486417032</v>
+        <v>0.81677351955133859</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8895,7 +8949,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98381512841016316</v>
+        <v>0.32717279471732308</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8904,7 +8958,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0677854165819021E-2</v>
+        <v>0.45514842148757728</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8913,7 +8967,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6110764374628337E-3</v>
+        <v>0.99301493893468828</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8922,7 +8976,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72035148104761781</v>
+        <v>0.8277867421033468</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8931,7 +8985,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4250598368218681</v>
+        <v>5.3710859389024312E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8940,7 +8994,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83090697862619978</v>
+        <v>0.1323928113312669</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8949,7 +9003,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3231996209394743</v>
+        <v>0.483288500281018</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8958,7 +9012,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61701187749214115</v>
+        <v>2.9397175949052001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8967,7 +9021,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24450140317399471</v>
+        <v>0.50683425944335625</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8976,7 +9030,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90000445430519305</v>
+        <v>0.38884742785397119</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8985,7 +9039,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28375175682484521</v>
+        <v>0.60766410453536268</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8994,7 +9048,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53369338080882189</v>
+        <v>0.13298863249158244</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -9003,7 +9057,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48499627403877987</v>
+        <v>0.80084414008578741</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -9012,7 +9066,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76305338514888232</v>
+        <v>0.40870964835693391</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1C37A0-8011-4C7A-907B-6BAFFCA36B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2257C1-BECA-4F10-9430-91760C31D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="51">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -772,7 +772,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BP27" sqref="BP27"/>
+      <selection pane="bottomRight" activeCell="BS13" sqref="BS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1421,9 @@
         <v>39</v>
       </c>
       <c r="BQ3" s="4"/>
-      <c r="BR3" s="4"/>
+      <c r="BR3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1629,7 +1631,9 @@
         <v>39</v>
       </c>
       <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
+      <c r="BR4" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2133,7 +2137,9 @@
         <v>40</v>
       </c>
       <c r="BQ7" s="4"/>
-      <c r="BR7" s="4"/>
+      <c r="BR7" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2341,7 +2347,9 @@
         <v>39</v>
       </c>
       <c r="BQ8" s="4"/>
-      <c r="BR8" s="4"/>
+      <c r="BR8" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2549,7 +2557,9 @@
         <v>40</v>
       </c>
       <c r="BQ9" s="4"/>
-      <c r="BR9" s="4"/>
+      <c r="BR9" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2757,7 +2767,9 @@
         <v>40</v>
       </c>
       <c r="BQ10" s="4"/>
-      <c r="BR10" s="4"/>
+      <c r="BR10" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2965,7 +2977,9 @@
         <v>39</v>
       </c>
       <c r="BQ11" s="4"/>
-      <c r="BR11" s="4"/>
+      <c r="BR11" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3173,7 +3187,9 @@
         <v>40</v>
       </c>
       <c r="BQ12" s="4"/>
-      <c r="BR12" s="4"/>
+      <c r="BR12" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3381,7 +3397,9 @@
         <v>39</v>
       </c>
       <c r="BQ13" s="4"/>
-      <c r="BR13" s="4"/>
+      <c r="BR13" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3589,7 +3607,9 @@
         <v>39</v>
       </c>
       <c r="BQ14" s="4"/>
-      <c r="BR14" s="4"/>
+      <c r="BR14" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3797,7 +3817,9 @@
         <v>39</v>
       </c>
       <c r="BQ15" s="4"/>
-      <c r="BR15" s="4"/>
+      <c r="BR15" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4005,7 +4027,9 @@
         <v>39</v>
       </c>
       <c r="BQ16" s="4"/>
-      <c r="BR16" s="4"/>
+      <c r="BR16" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4213,7 +4237,9 @@
         <v>39</v>
       </c>
       <c r="BQ17" s="4"/>
-      <c r="BR17" s="4"/>
+      <c r="BR17" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4421,7 +4447,9 @@
         <v>39</v>
       </c>
       <c r="BQ18" s="4"/>
-      <c r="BR18" s="4"/>
+      <c r="BR18" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4629,7 +4657,9 @@
         <v>39</v>
       </c>
       <c r="BQ19" s="4"/>
-      <c r="BR19" s="4"/>
+      <c r="BR19" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4837,7 +4867,9 @@
         <v>39</v>
       </c>
       <c r="BQ20" s="4"/>
-      <c r="BR20" s="4"/>
+      <c r="BR20" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5045,7 +5077,9 @@
         <v>39</v>
       </c>
       <c r="BQ21" s="4"/>
-      <c r="BR21" s="4"/>
+      <c r="BR21" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -5253,7 +5287,9 @@
         <v>39</v>
       </c>
       <c r="BQ22" s="4"/>
-      <c r="BR22" s="4"/>
+      <c r="BR22" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -5461,7 +5497,9 @@
         <v>39</v>
       </c>
       <c r="BQ23" s="4"/>
-      <c r="BR23" s="4"/>
+      <c r="BR23" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5669,7 +5707,9 @@
         <v>40</v>
       </c>
       <c r="BQ24" s="4"/>
-      <c r="BR24" s="4"/>
+      <c r="BR24" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5877,7 +5917,9 @@
         <v>39</v>
       </c>
       <c r="BQ25" s="4"/>
-      <c r="BR25" s="4"/>
+      <c r="BR25" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6085,7 +6127,9 @@
         <v>40</v>
       </c>
       <c r="BQ26" s="4"/>
-      <c r="BR26" s="4"/>
+      <c r="BR26" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6293,7 +6337,9 @@
         <v>40</v>
       </c>
       <c r="BQ27" s="4"/>
-      <c r="BR27" s="4"/>
+      <c r="BR27" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6501,7 +6547,9 @@
         <v>39</v>
       </c>
       <c r="BQ28" s="4"/>
-      <c r="BR28" s="4"/>
+      <c r="BR28" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6709,7 +6757,9 @@
         <v>39</v>
       </c>
       <c r="BQ29" s="4"/>
-      <c r="BR29" s="4"/>
+      <c r="BR29" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6917,7 +6967,9 @@
         <v>39</v>
       </c>
       <c r="BQ30" s="4"/>
-      <c r="BR30" s="4"/>
+      <c r="BR30" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -7125,7 +7177,9 @@
         <v>39</v>
       </c>
       <c r="BQ31" s="4"/>
-      <c r="BR31" s="4"/>
+      <c r="BR31" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="38" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG38" s="5"/>
@@ -8832,7 +8886,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.24648002290568816</v>
+        <v>0.30058744014951266</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8841,7 +8895,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24539806564415367</v>
+        <v>0.28463263269636796</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8850,7 +8904,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74739872757200165</v>
+        <v>0.8912606070302086</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8859,7 +8913,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78386090172303069</v>
+        <v>0.87142194141532103</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8868,7 +8922,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20896359775100382</v>
+        <v>0.87299634098476708</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8877,7 +8931,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57371992983905873</v>
+        <v>0.58549143826543137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8886,7 +8940,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36194587824848046</v>
+        <v>0.95233843029662102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8895,7 +8949,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42675553055416016</v>
+        <v>0.61447379231240296</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8904,7 +8958,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98252706623180441</v>
+        <v>0.8828764773886032</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8913,7 +8967,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14866212469792839</v>
+        <v>0.19065762583730683</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8922,7 +8976,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85100792783628665</v>
+        <v>0.65506932461847411</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8931,7 +8985,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51879750084234177</v>
+        <v>0.32604650281275716</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8940,7 +8994,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81677351955133859</v>
+        <v>0.57316628418032434</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8949,7 +9003,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32717279471732308</v>
+        <v>0.8613570111567066</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8958,7 +9012,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45514842148757728</v>
+        <v>0.33968694878762806</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8967,7 +9021,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99301493893468828</v>
+        <v>0.87148040302089469</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8976,7 +9030,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8277867421033468</v>
+        <v>0.40374201478219596</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8985,7 +9039,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3710859389024312E-2</v>
+        <v>0.54540044851541536</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8994,7 +9048,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1323928113312669</v>
+        <v>0.31469595173784393</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -9003,7 +9057,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.483288500281018</v>
+        <v>0.33112150977843502</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -9012,7 +9066,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9397175949052001E-2</v>
+        <v>0.34166176981077545</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9021,7 +9075,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50683425944335625</v>
+        <v>0.69980469266824452</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -9030,7 +9084,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38884742785397119</v>
+        <v>0.95868901311681154</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -9039,7 +9093,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60766410453536268</v>
+        <v>0.37224869526350834</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9048,7 +9102,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13298863249158244</v>
+        <v>0.76495218352290217</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -9057,7 +9111,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80084414008578741</v>
+        <v>0.4691926363735367</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -9066,7 +9120,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40870964835693391</v>
+        <v>0.87838231277370427</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2257C1-BECA-4F10-9430-91760C31D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED29A38-2AB3-4CEC-A027-C4DB3FDC3AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -64,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="51">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -223,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +277,14 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -299,6 +318,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -766,13 +788,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR38"/>
+  <dimension ref="A1:BV38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BS13" sqref="BS13"/>
+      <selection pane="bottomRight" activeCell="BS31" sqref="BS31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +815,7 @@
     <col min="41" max="70" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1002,8 +1024,20 @@
       <c r="BR1" s="2">
         <v>45044</v>
       </c>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS1" s="2">
+        <v>45018</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>45019</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>45020</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1214,8 +1248,20 @@
       <c r="BR2" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1424,8 +1470,11 @@
       <c r="BR3" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1634,8 +1683,11 @@
       <c r="BR4" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BS4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1783,7 +1835,7 @@
       <c r="BQ5" s="4"/>
       <c r="BR5" s="4"/>
     </row>
-    <row r="6" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1931,7 +1983,7 @@
       <c r="BQ6" s="4"/>
       <c r="BR6" s="4"/>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2140,8 +2192,11 @@
       <c r="BR7" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2350,8 +2405,11 @@
       <c r="BR8" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2560,8 +2618,11 @@
       <c r="BR9" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BS9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2770,8 +2831,11 @@
       <c r="BR10" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BS10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2980,8 +3044,11 @@
       <c r="BR11" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3190,8 +3257,11 @@
       <c r="BR12" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3400,8 +3470,11 @@
       <c r="BR13" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3610,8 +3683,11 @@
       <c r="BR14" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3820,8 +3896,11 @@
       <c r="BR15" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4030,8 +4109,11 @@
       <c r="BR16" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4240,8 +4322,11 @@
       <c r="BR17" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BS17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4450,8 +4535,11 @@
       <c r="BR18" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BS18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4660,8 +4748,11 @@
       <c r="BR19" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4870,8 +4961,11 @@
       <c r="BR20" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5080,8 +5174,11 @@
       <c r="BR21" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5290,8 +5387,11 @@
       <c r="BR22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5500,8 +5600,11 @@
       <c r="BR23" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5710,8 +5813,11 @@
       <c r="BR24" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5920,8 +6026,11 @@
       <c r="BR25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6130,8 +6239,11 @@
       <c r="BR26" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -6340,8 +6452,11 @@
       <c r="BR27" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BS27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6550,8 +6665,11 @@
       <c r="BR28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -6760,8 +6878,11 @@
       <c r="BR29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -6970,8 +7091,11 @@
       <c r="BR30" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -7178,6 +7302,9 @@
       </c>
       <c r="BQ31" s="4"/>
       <c r="BR31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS31" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7192,7 +7319,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD2 A3:BH3 BI3:XFD31 A4:AG6 AH4:BH31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:XFD1048576">
+  <conditionalFormatting sqref="A3:BH3 A4:AG6 AH4:BH31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:XFD1048576 A1:XFD1 BX2:XFD2 A2:BV2 BI3:XFD31">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -8886,7 +9013,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.30058744014951266</v>
+        <v>0.9610600470437578</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8895,7 +9022,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28463263269636796</v>
+        <v>0.48698600416564708</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8904,7 +9031,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8912606070302086</v>
+        <v>9.1387274123644224E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8913,7 +9040,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87142194141532103</v>
+        <v>0.99724103292628596</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8922,7 +9049,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87299634098476708</v>
+        <v>0.22724770427294261</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8931,7 +9058,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58549143826543137</v>
+        <v>2.4325211775236721E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8940,7 +9067,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95233843029662102</v>
+        <v>0.10944631083197931</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8949,7 +9076,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61447379231240296</v>
+        <v>0.48412879353431915</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8958,7 +9085,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8828764773886032</v>
+        <v>0.32189718172422932</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8967,7 +9094,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19065762583730683</v>
+        <v>0.8552727355426174</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8976,7 +9103,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65506932461847411</v>
+        <v>5.7116709705293034E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8985,7 +9112,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32604650281275716</v>
+        <v>0.72530875649605253</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8994,7 +9121,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57316628418032434</v>
+        <v>7.0491870370622101E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -9003,7 +9130,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8613570111567066</v>
+        <v>9.0524342674143665E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -9012,7 +9139,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33968694878762806</v>
+        <v>9.389375485661422E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9021,7 +9148,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87148040302089469</v>
+        <v>0.92540370543261052</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -9030,7 +9157,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40374201478219596</v>
+        <v>0.17675946787200414</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -9039,7 +9166,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54540044851541536</v>
+        <v>0.38486298396425511</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -9048,7 +9175,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31469595173784393</v>
+        <v>0.30232061677202404</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -9057,7 +9184,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33112150977843502</v>
+        <v>0.17716612299133749</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -9066,7 +9193,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34166176981077545</v>
+        <v>0.98888121134973994</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9075,7 +9202,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69980469266824452</v>
+        <v>0.76229208697250384</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -9084,7 +9211,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95868901311681154</v>
+        <v>0.71607978505200554</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -9093,7 +9220,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37224869526350834</v>
+        <v>0.51007053517232825</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9102,7 +9229,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76495218352290217</v>
+        <v>0.20954902876390691</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -9111,7 +9238,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4691926363735367</v>
+        <v>0.66387034745817175</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -9120,7 +9247,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87838231277370427</v>
+        <v>0.46276568111635275</v>
       </c>
     </row>
   </sheetData>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\well\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED29A38-2AB3-4CEC-A027-C4DB3FDC3AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6479A6EF-5635-42D0-BEAA-9821175179E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="51">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -234,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,14 +277,6 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -320,14 +312,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -788,34 +795,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV38"/>
+  <dimension ref="A1:BW38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BS31" sqref="BS31"/>
+      <selection pane="bottomRight" activeCell="BD11" sqref="BD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="40" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="70" width="7.5703125" customWidth="1"/>
+    <col min="25" max="27" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="40" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="50" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="58" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="63" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1025,19 +1047,22 @@
         <v>45044</v>
       </c>
       <c r="BS1" s="2">
+        <v>45017</v>
+      </c>
+      <c r="BT1" s="2">
         <v>45018</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="BU1" s="2">
         <v>45019</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="BV1" s="2">
         <v>45020</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="BW1" s="2">
         <v>45021</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1249,19 +1274,22 @@
         <v>37</v>
       </c>
       <c r="BS2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BT2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BT2" s="5" t="s">
+      <c r="BU2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="BU2" s="4" t="s">
+      <c r="BV2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="BV2" s="4" t="s">
+      <c r="BW2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1466,15 +1494,23 @@
       <c r="BP3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ3" s="4"/>
+      <c r="BQ3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="BS3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1679,15 +1715,23 @@
       <c r="BP4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ4" s="4"/>
+      <c r="BQ4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="BS4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:74" hidden="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1834,8 +1878,11 @@
       <c r="BP5" s="4"/>
       <c r="BQ5" s="4"/>
       <c r="BR5" s="4"/>
-    </row>
-    <row r="6" spans="1:74" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BS5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1982,8 +2029,11 @@
       <c r="BP6" s="4"/>
       <c r="BQ6" s="4"/>
       <c r="BR6" s="4"/>
-    </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BS6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2188,15 +2238,23 @@
       <c r="BP7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BQ7" s="4"/>
+      <c r="BQ7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BR7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="BS7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2401,15 +2459,23 @@
       <c r="BP8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ8" s="4"/>
+      <c r="BQ8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2614,15 +2680,23 @@
       <c r="BP9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BQ9" s="4"/>
+      <c r="BQ9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2827,15 +2901,23 @@
       <c r="BP10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BQ10" s="4"/>
+      <c r="BQ10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BR10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="BS10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3040,15 +3122,23 @@
       <c r="BP11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ11" s="4"/>
+      <c r="BQ11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3253,15 +3343,23 @@
       <c r="BP12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BQ12" s="4"/>
+      <c r="BQ12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="BR12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="BS12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3466,15 +3564,23 @@
       <c r="BP13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ13" s="4"/>
+      <c r="BQ13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3679,15 +3785,23 @@
       <c r="BP14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ14" s="4"/>
+      <c r="BQ14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3892,15 +4006,23 @@
       <c r="BP15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ15" s="4"/>
+      <c r="BQ15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4105,15 +4227,23 @@
       <c r="BP16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ16" s="4"/>
+      <c r="BQ16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR16" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4318,15 +4448,23 @@
       <c r="BP17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ17" s="4"/>
+      <c r="BQ17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4531,15 +4669,23 @@
       <c r="BP18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ18" s="4"/>
+      <c r="BQ18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR18" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4744,15 +4890,23 @@
       <c r="BP19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ19" s="4"/>
+      <c r="BQ19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4957,15 +5111,23 @@
       <c r="BP20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ20" s="4"/>
+      <c r="BQ20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5170,15 +5332,23 @@
       <c r="BP21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ21" s="4"/>
+      <c r="BQ21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="BS21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5383,15 +5553,23 @@
       <c r="BP22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ22" s="4"/>
+      <c r="BQ22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5596,15 +5774,23 @@
       <c r="BP23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ23" s="4"/>
+      <c r="BQ23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="BS23" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5809,15 +5995,23 @@
       <c r="BP24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BQ24" s="4"/>
+      <c r="BQ24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="BS24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6022,15 +6216,23 @@
       <c r="BP25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ25" s="4"/>
+      <c r="BQ25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS25" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6235,15 +6437,23 @@
       <c r="BP26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BQ26" s="4"/>
+      <c r="BQ26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR26" s="4" t="s">
         <v>40</v>
       </c>
       <c r="BS26" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -6448,15 +6658,23 @@
       <c r="BP27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BQ27" s="4"/>
+      <c r="BQ27" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS27" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU27" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6661,15 +6879,23 @@
       <c r="BP28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ28" s="4"/>
+      <c r="BQ28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR28" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS28" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -6874,15 +7100,23 @@
       <c r="BP29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ29" s="4"/>
+      <c r="BQ29" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS29" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -7087,15 +7321,23 @@
       <c r="BP30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ30" s="4"/>
+      <c r="BQ30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BS30" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="BT30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -7300,11 +7542,19 @@
       <c r="BP31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BQ31" s="4"/>
+      <c r="BQ31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="BR31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BS31" s="7" t="s">
+      <c r="BS31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BT31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU31" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7319,11 +7569,19 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A3:BH3 A4:AG6 AH4:BH31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:XFD1048576 A1:XFD1 BX2:XFD2 A2:BV2 BI3:XFD31">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+  <conditionalFormatting sqref="A3:BH3 A4:AG6 AH4:BH31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:XFD1048576 BT1:XFD31 BI3:BR31 A1:BS2">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS3:BS31">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7554,15 +7812,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C30 E2:E30">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7893,15 +8151,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8618,25 +8876,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H30">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8968,15 +9226,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9013,7 +9271,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.9610600470437578</v>
+        <v>6.9981135142990647E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9022,7 +9280,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48698600416564708</v>
+        <v>0.62908618516072023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9031,7 +9289,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1387274123644224E-2</v>
+        <v>0.98045391238597357</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9040,7 +9298,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99724103292628596</v>
+        <v>9.5525218630686415E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -9049,7 +9307,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22724770427294261</v>
+        <v>0.2152082593204</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9058,7 +9316,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4325211775236721E-2</v>
+        <v>0.29030961967451474</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9067,7 +9325,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10944631083197931</v>
+        <v>0.40118521635838233</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -9076,7 +9334,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48412879353431915</v>
+        <v>0.9523918070531272</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9085,7 +9343,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32189718172422932</v>
+        <v>0.74045927370590459</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9094,7 +9352,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8552727355426174</v>
+        <v>0.82861803717175442</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -9103,7 +9361,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7116709705293034E-2</v>
+        <v>0.85826981596202223</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9112,7 +9370,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72530875649605253</v>
+        <v>0.13963719358831328</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -9121,7 +9379,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0491870370622101E-2</v>
+        <v>0.32413077678641222</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -9130,7 +9388,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0524342674143665E-2</v>
+        <v>0.69237074744572003</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -9139,7 +9397,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.389375485661422E-2</v>
+        <v>0.54391543094684958</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9148,7 +9406,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92540370543261052</v>
+        <v>0.77882334907029216</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -9157,7 +9415,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17675946787200414</v>
+        <v>8.0075146492425864E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -9166,7 +9424,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38486298396425511</v>
+        <v>0.27684350298869231</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -9175,7 +9433,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30232061677202404</v>
+        <v>0.66991471462924457</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -9184,7 +9442,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17716612299133749</v>
+        <v>0.24755131783502093</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -9193,7 +9451,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98888121134973994</v>
+        <v>0.45975122397196988</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9202,7 +9460,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76229208697250384</v>
+        <v>0.5240358286164436</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -9211,7 +9469,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71607978505200554</v>
+        <v>0.77185653384895869</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -9220,7 +9478,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51007053517232825</v>
+        <v>0.15427395634403529</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9229,7 +9487,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20954902876390691</v>
+        <v>8.8685017497458052E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -9238,7 +9496,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66387034745817175</v>
+        <v>0.45017054484060182</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -9247,7 +9505,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46276568111635275</v>
+        <v>0.88294177587552769</v>
       </c>
     </row>
   </sheetData>
@@ -9255,10 +9513,10 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\well\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6479A6EF-5635-42D0-BEAA-9821175179E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FD308B-AF0D-4414-A6AD-DF3248623167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -298,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -312,29 +301,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -444,6 +415,21 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -797,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7551,7 +7537,7 @@
       <c r="BS31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BT31" s="7" t="s">
+      <c r="BT31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="BU31" s="4" t="s">
@@ -7569,7 +7555,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A3:BH3 A4:AG6 AH4:BH31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:XFD1048576 BT1:XFD31 BI3:BR31 A1:BS2">
+  <conditionalFormatting sqref="A1:BS2 BT1:XFD31 A3:BH3 A4:AG6 AH4:BH31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:XFD1048576">
     <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -7577,11 +7563,11 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS3:BS31">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="BI3:BS31">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7594,8 +7580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7634,6 +7620,9 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7670,6 +7659,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="1">
+        <v>95</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7694,6 +7686,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="1">
+        <v>95</v>
+      </c>
       <c r="D13">
         <v>9.5</v>
       </c>
@@ -7812,15 +7807,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C30 E2:E30">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8151,15 +8146,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8876,25 +8871,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H30">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9226,15 +9221,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D30">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9271,7 +9266,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>6.9981135142990647E-2</v>
+        <v>0.83953396005166125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9280,7 +9275,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62908618516072023</v>
+        <v>0.80542389598460673</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9289,7 +9284,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98045391238597357</v>
+        <v>0.20900846733565703</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9298,7 +9293,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5525218630686415E-2</v>
+        <v>0.51981080636380583</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -9307,7 +9302,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2152082593204</v>
+        <v>0.9200293239640488</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9316,7 +9311,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29030961967451474</v>
+        <v>0.92308594468326066</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9325,7 +9320,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40118521635838233</v>
+        <v>0.53939262156824141</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -9334,7 +9329,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9523918070531272</v>
+        <v>0.81602625389664951</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9343,7 +9338,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74045927370590459</v>
+        <v>0.34555457074296647</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9352,7 +9347,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82861803717175442</v>
+        <v>0.26326808058425144</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -9361,7 +9356,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85826981596202223</v>
+        <v>0.14295659527286597</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9370,7 +9365,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13963719358831328</v>
+        <v>0.52491301097029686</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -9379,7 +9374,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32413077678641222</v>
+        <v>0.61201539699337659</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -9388,7 +9383,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69237074744572003</v>
+        <v>0.69889970518930788</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -9397,7 +9392,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54391543094684958</v>
+        <v>0.69881528281045646</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9406,7 +9401,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77882334907029216</v>
+        <v>0.53125188003594548</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -9415,7 +9410,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0075146492425864E-2</v>
+        <v>0.5718295911187582</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -9424,7 +9419,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27684350298869231</v>
+        <v>0.26556997956521433</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -9433,7 +9428,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66991471462924457</v>
+        <v>0.59772809568092711</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -9442,7 +9437,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24755131783502093</v>
+        <v>0.69097478822613689</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -9451,7 +9446,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45975122397196988</v>
+        <v>0.68947111500243319</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9460,7 +9455,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5240358286164436</v>
+        <v>8.9990310530143724E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -9469,7 +9464,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77185653384895869</v>
+        <v>0.6557162752736585</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -9478,7 +9473,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15427395634403529</v>
+        <v>0.53654462549906423</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9487,7 +9482,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8685017497458052E-2</v>
+        <v>0.3684643816311467</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -9496,7 +9491,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45017054484060182</v>
+        <v>0.93296763284179574</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -9505,7 +9500,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88294177587552769</v>
+        <v>0.57429888885152391</v>
       </c>
     </row>
   </sheetData>
@@ -9513,10 +9508,10 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2des/chamada.xlsx
+++ b/2des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED29A38-2AB3-4CEC-A027-C4DB3FDC3AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43143DFC-89C3-4E17-B767-6E14161E10B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,17 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="52">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -229,12 +218,15 @@
   <si>
     <t>Feriado</t>
   </si>
+  <si>
+    <t>F/2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +277,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -317,10 +316,13 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -794,7 +796,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BS31" sqref="BS31"/>
+      <selection pane="bottomRight" activeCell="BO33" sqref="BO33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,10 +818,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2">
         <v>44949</v>
       </c>
@@ -1473,6 +1475,9 @@
       <c r="BS3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BU3" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1685,6 +1690,9 @@
       </c>
       <c r="BS4" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="BU4" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:74" hidden="1" x14ac:dyDescent="0.25">
@@ -1834,6 +1842,7 @@
       <c r="BP5" s="4"/>
       <c r="BQ5" s="4"/>
       <c r="BR5" s="4"/>
+      <c r="BU5" s="4"/>
     </row>
     <row r="6" spans="1:74" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1982,6 +1991,7 @@
       <c r="BP6" s="4"/>
       <c r="BQ6" s="4"/>
       <c r="BR6" s="4"/>
+      <c r="BU6" s="4"/>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2195,6 +2205,9 @@
       <c r="BS7" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BU7" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2408,6 +2421,9 @@
       <c r="BS8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BU8" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2621,6 +2637,9 @@
       <c r="BS9" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BU9" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2834,6 +2853,9 @@
       <c r="BS10" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BU10" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3047,6 +3069,9 @@
       <c r="BS11" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BU11" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3260,6 +3285,9 @@
       <c r="BS12" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BU12" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3473,6 +3501,9 @@
       <c r="BS13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BU13" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3686,6 +3717,9 @@
       <c r="BS14" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BU14" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3899,6 +3933,9 @@
       <c r="BS15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BU15" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4112,8 +4149,11 @@
       <c r="BS16" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4325,8 +4365,11 @@
       <c r="BS17" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BU17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4538,8 +4581,11 @@
       <c r="BS18" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BU18" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4751,8 +4797,11 @@
       <c r="BS19" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU19" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4964,8 +5013,11 @@
       <c r="BS20" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5177,8 +5229,11 @@
       <c r="BS21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5390,8 +5445,11 @@
       <c r="BS22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU22" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5603,8 +5661,11 @@
       <c r="BS23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5816,8 +5877,11 @@
       <c r="BS24" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU24" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6029,8 +6093,11 @@
       <c r="BS25" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6242,8 +6309,11 @@
       <c r="BS26" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -6455,8 +6525,11 @@
       <c r="BS27" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BU27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6668,8 +6741,11 @@
       <c r="BS28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU28" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -6881,8 +6957,11 @@
       <c r="BS29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -7094,8 +7173,11 @@
       <c r="BS30" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BU30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -7304,7 +7386,10 @@
       <c r="BR31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BS31" s="7" t="s">
+      <c r="BS31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU31" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9013,7 +9098,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B28" ca="1" si="0">RAND()</f>
-        <v>0.9610600470437578</v>
+        <v>0.20103206665376305</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9022,7 +9107,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48698600416564708</v>
+        <v>0.69617375730582154</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9031,7 +9116,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1387274123644224E-2</v>
+        <v>0.68929804427345098</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9040,7 +9125,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99724103292628596</v>
+        <v>0.59574017730527762</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -9049,7 +9134,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22724770427294261</v>
+        <v>0.23409375798915344</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9058,7 +9143,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4325211775236721E-2</v>
+        <v>0.51719882379636217</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9067,7 +9152,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10944631083197931</v>
+        <v>0.86394450863679217</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -9076,7 +9161,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48412879353431915</v>
+        <v>0.16218022179210834</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9085,7 +9170,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32189718172422932</v>
+        <v>0.39390905668356313</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9094,7 +9179,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8552727355426174</v>
+        <v>0.6073848025437445</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -9103,7 +9188,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7116709705293034E-2</v>
+        <v>8.7278117357302287E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9112,7 +9197,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72530875649605253</v>
+        <v>0.6470399109317394</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -9121,7 +9206,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0491870370622101E-2</v>
+        <v>0.87791521239355219</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -9130,7 +9215,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0524342674143665E-2</v>
+        <v>0.92443532431495534</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -9139,7 +9224,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.389375485661422E-2</v>
+        <v>0.80782987494296032</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9148,7 +9233,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92540370543261052</v>
+        <v>0.62361953223891464</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -9157,7 +9242,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17675946787200414</v>
+        <v>9.9279896924495348E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -9166,7 +9251,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38486298396425511</v>
+        <v>0.56523294163280824</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -9175,7 +9260,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30232061677202404</v>
+        <v>0.40434282711447855</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -9184,7 +9269,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17716612299133749</v>
+        <v>1.4816774698039326E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -9193,7 +9278,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98888121134973994</v>
+        <v>0.5411828472135829</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9202,7 +9287,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76229208697250384</v>
+        <v>0.83751782906711714</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -9211,7 +9296,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71607978505200554</v>
+        <v>9.9884913555241872E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -9220,7 +9305,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51007053517232825</v>
+        <v>0.59465071500626177</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9229,7 +9314,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20954902876390691</v>
+        <v>0.40895639493718683</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -9238,7 +9323,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66387034745817175</v>
+        <v>0.62374288821854496</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -9247,7 +9332,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46276568111635275</v>
+        <v>0.21052370572001367</v>
       </c>
     </row>
   </sheetData>
